--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55795265413391</v>
+        <v>20.55795265413388</v>
       </c>
       <c r="C2">
-        <v>16.7386523889624</v>
+        <v>16.73865238896239</v>
       </c>
       <c r="D2">
-        <v>8.212155473572397</v>
+        <v>8.212155473572452</v>
       </c>
       <c r="E2">
-        <v>10.62509435097153</v>
+        <v>10.62509435097154</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.89649601199039</v>
+        <v>35.89649601199046</v>
       </c>
       <c r="H2">
-        <v>30.12476286383943</v>
+        <v>30.12476286383951</v>
       </c>
       <c r="I2">
-        <v>5.246663327019895</v>
+        <v>5.246663327019923</v>
       </c>
       <c r="J2">
-        <v>18.89403467398847</v>
+        <v>18.89403467398845</v>
       </c>
       <c r="K2">
-        <v>13.95906748935278</v>
+        <v>13.95906748935272</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.05413228162851</v>
+        <v>19.05413228162848</v>
       </c>
       <c r="C3">
-        <v>15.49910815615007</v>
+        <v>15.49910815615005</v>
       </c>
       <c r="D3">
-        <v>7.721518574654232</v>
+        <v>7.721518574654225</v>
       </c>
       <c r="E3">
-        <v>10.01283183604246</v>
+        <v>10.01283183604245</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.13679473441055</v>
+        <v>34.13679473441066</v>
       </c>
       <c r="H3">
-        <v>28.86402316601062</v>
+        <v>28.86402316601073</v>
       </c>
       <c r="I3">
-        <v>5.117652221034184</v>
+        <v>5.117652221034088</v>
       </c>
       <c r="J3">
-        <v>17.52321281315648</v>
+        <v>17.52321281315646</v>
       </c>
       <c r="K3">
-        <v>12.93873513017591</v>
+        <v>12.93873513017592</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.08742855047937</v>
+        <v>18.08742855047921</v>
       </c>
       <c r="C4">
-        <v>14.70403435269315</v>
+        <v>14.70403435269305</v>
       </c>
       <c r="D4">
-        <v>7.413791469559529</v>
+        <v>7.41379146955959</v>
       </c>
       <c r="E4">
-        <v>9.630647196501894</v>
+        <v>9.630647196501833</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.04984922232828</v>
+        <v>33.04984922232831</v>
       </c>
       <c r="H4">
-        <v>28.09268472802573</v>
+        <v>28.0926847280258</v>
       </c>
       <c r="I4">
-        <v>5.0417371019302</v>
+        <v>5.041737101930139</v>
       </c>
       <c r="J4">
-        <v>16.64206542900247</v>
+        <v>16.64206542900235</v>
       </c>
       <c r="K4">
         <v>12.39389020110622</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68233300600202</v>
+        <v>17.68233300600208</v>
       </c>
       <c r="C5">
-        <v>14.37125726072832</v>
+        <v>14.37125726072847</v>
       </c>
       <c r="D5">
-        <v>7.286826097421092</v>
+        <v>7.28682609742116</v>
       </c>
       <c r="E5">
-        <v>9.473415083474684</v>
+        <v>9.473415083474716</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.60549448075503</v>
+        <v>32.60549448075496</v>
       </c>
       <c r="H5">
-        <v>27.77915392931035</v>
+        <v>27.77915392931029</v>
       </c>
       <c r="I5">
-        <v>5.011612057143354</v>
+        <v>5.011612057143335</v>
       </c>
       <c r="J5">
-        <v>16.27281552613768</v>
+        <v>16.2728155261378</v>
       </c>
       <c r="K5">
         <v>12.16872020949077</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.61438644459155</v>
+        <v>17.61438644459152</v>
       </c>
       <c r="C6">
-        <v>14.31546340899616</v>
+        <v>14.3154634089962</v>
       </c>
       <c r="D6">
-        <v>7.265651679420322</v>
+        <v>7.265651679420361</v>
       </c>
       <c r="E6">
-        <v>9.447220194686775</v>
+        <v>9.447220194686794</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.53163244612259</v>
+        <v>32.53163244612265</v>
       </c>
       <c r="H6">
-        <v>27.72714449726561</v>
+        <v>27.72714449726569</v>
       </c>
       <c r="I6">
-        <v>5.006658309066157</v>
+        <v>5.006658309066159</v>
       </c>
       <c r="J6">
-        <v>16.21088028535886</v>
+        <v>16.21088028535883</v>
       </c>
       <c r="K6">
-        <v>12.13114470033664</v>
+        <v>12.13114470033663</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.08201077883868</v>
+        <v>18.08201077883864</v>
       </c>
       <c r="C7">
-        <v>14.6995822347015</v>
+        <v>14.69958223470141</v>
       </c>
       <c r="D7">
-        <v>7.412085392896926</v>
+        <v>7.412085392896937</v>
       </c>
       <c r="E7">
-        <v>9.628532594386927</v>
+        <v>9.628532594387003</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.04386187272161</v>
+        <v>33.04386187272157</v>
       </c>
       <c r="H7">
-        <v>28.08845294391239</v>
+        <v>28.08845294391234</v>
       </c>
       <c r="I7">
-        <v>5.041327563748375</v>
+        <v>5.041327563748466</v>
       </c>
       <c r="J7">
-        <v>16.6371271149512</v>
+        <v>16.63712711495111</v>
       </c>
       <c r="K7">
-        <v>12.39086604888137</v>
+        <v>12.39086604888138</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.04827140070483</v>
+        <v>20.0482714007048</v>
       </c>
       <c r="C8">
-        <v>16.31816455227096</v>
+        <v>16.31816455227108</v>
       </c>
       <c r="D8">
-        <v>8.044354905482193</v>
+        <v>8.044354905482232</v>
       </c>
       <c r="E8">
-        <v>10.41532025733364</v>
+        <v>10.41532025733368</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.29119161291275</v>
+        <v>35.29119161291266</v>
       </c>
       <c r="H8">
-        <v>29.68952872007482</v>
+        <v>29.68952872007479</v>
       </c>
       <c r="I8">
-        <v>5.20148365238018</v>
+        <v>5.201483652380147</v>
       </c>
       <c r="J8">
-        <v>18.4294052548369</v>
+        <v>18.42940525483693</v>
       </c>
       <c r="K8">
-        <v>13.60914592323772</v>
+        <v>13.60914592323777</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57313980026504</v>
+        <v>23.57313980026525</v>
       </c>
       <c r="C9">
-        <v>19.23442561933633</v>
+        <v>19.23442561933655</v>
       </c>
       <c r="D9">
-        <v>9.231944400406821</v>
+        <v>9.231944400406785</v>
       </c>
       <c r="E9">
-        <v>11.90734988152419</v>
+        <v>11.90734988152418</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.64343811931673</v>
+        <v>39.64343811931676</v>
       </c>
       <c r="H9">
-        <v>32.85036343434866</v>
+        <v>32.85036343434865</v>
       </c>
       <c r="I9">
-        <v>5.542789659851193</v>
+        <v>5.542789659851198</v>
       </c>
       <c r="J9">
-        <v>21.64369172484281</v>
+        <v>21.64369172484295</v>
       </c>
       <c r="K9">
-        <v>16.0355023770833</v>
+        <v>16.03550237708335</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.98195414085198</v>
+        <v>25.98195414085206</v>
       </c>
       <c r="C10">
-        <v>21.23908498677935</v>
+        <v>21.23908498677932</v>
       </c>
       <c r="D10">
-        <v>10.15122844521238</v>
+        <v>10.15122844521244</v>
       </c>
       <c r="E10">
-        <v>13.08435163011842</v>
+        <v>13.08435163011848</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.81317521083341</v>
+        <v>42.81317521083349</v>
       </c>
       <c r="H10">
-        <v>35.19108533852121</v>
+        <v>35.1910853385213</v>
       </c>
       <c r="I10">
-        <v>5.903949261031507</v>
+        <v>5.903949261031501</v>
       </c>
       <c r="J10">
-        <v>23.84223150432585</v>
+        <v>23.84223150432588</v>
       </c>
       <c r="K10">
-        <v>17.70282954418202</v>
+        <v>17.70282954418206</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.0440849647568</v>
+        <v>27.04408496475678</v>
       </c>
       <c r="C11">
-        <v>22.12629941671462</v>
+        <v>22.12629941671453</v>
       </c>
       <c r="D11">
-        <v>10.57287338017384</v>
+        <v>10.57287338017382</v>
       </c>
       <c r="E11">
-        <v>13.63329692423878</v>
+        <v>13.6332969242388</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.25345374337136</v>
+        <v>44.25345374337126</v>
       </c>
       <c r="H11">
-        <v>36.26334221899224</v>
+        <v>36.26334221899217</v>
       </c>
       <c r="I11">
-        <v>6.114759290096022</v>
+        <v>6.114759290096016</v>
       </c>
       <c r="J11">
-        <v>24.8123421441817</v>
+        <v>24.81234214418165</v>
       </c>
       <c r="K11">
-        <v>18.4406064059535</v>
+        <v>18.44060640595347</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.44200488740923</v>
+        <v>27.44200488740932</v>
       </c>
       <c r="C12">
-        <v>22.45923258741634</v>
+        <v>22.45923258741622</v>
       </c>
       <c r="D12">
-        <v>10.73101702833995</v>
+        <v>10.73101702834003</v>
       </c>
       <c r="E12">
-        <v>13.8393244265082</v>
+        <v>13.83932442650826</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.79920867140228</v>
+        <v>44.79920867140245</v>
       </c>
       <c r="H12">
-        <v>36.67090528025516</v>
+        <v>36.6709052802553</v>
       </c>
       <c r="I12">
-        <v>6.194106078215639</v>
+        <v>6.194106078215576</v>
       </c>
       <c r="J12">
-        <v>25.1759122449661</v>
+        <v>25.17591224496613</v>
       </c>
       <c r="K12">
         <v>18.71743754705507</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.3564864999149</v>
+        <v>27.35648649991495</v>
       </c>
       <c r="C13">
-        <v>22.3876552414705</v>
+        <v>22.38765524147051</v>
       </c>
       <c r="D13">
-        <v>10.69702176050749</v>
+        <v>10.69702176050754</v>
       </c>
       <c r="E13">
-        <v>13.79502924424448</v>
+        <v>13.79502924424445</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.68164320879011</v>
+        <v>44.68164320879026</v>
       </c>
       <c r="H13">
-        <v>36.5830526396383</v>
+        <v>36.58305263963844</v>
       </c>
       <c r="I13">
-        <v>6.177036665700321</v>
+        <v>6.177036665700204</v>
       </c>
       <c r="J13">
-        <v>25.09777011715935</v>
+        <v>25.09777011715938</v>
       </c>
       <c r="K13">
-        <v>18.65792276693317</v>
+        <v>18.65792276693314</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.07690446696764</v>
+        <v>27.07690446696768</v>
       </c>
       <c r="C14">
-        <v>22.15374757276519</v>
+        <v>22.15374757276526</v>
       </c>
       <c r="D14">
-        <v>10.58591307661309</v>
+        <v>10.5859130766131</v>
       </c>
       <c r="E14">
-        <v>13.65028194040787</v>
+        <v>13.65028194040789</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.29834212181245</v>
+        <v>44.29834212181225</v>
       </c>
       <c r="H14">
-        <v>36.29683900113104</v>
+        <v>36.29683900113081</v>
       </c>
       <c r="I14">
-        <v>6.121296112661732</v>
+        <v>6.121296112661731</v>
       </c>
       <c r="J14">
         <v>24.8423258920199</v>
       </c>
       <c r="K14">
-        <v>18.46342984285829</v>
+        <v>18.46342984285831</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90511226038683</v>
+        <v>26.90511226038684</v>
       </c>
       <c r="C15">
-        <v>22.01009397120668</v>
+        <v>22.01009397120678</v>
       </c>
       <c r="D15">
-        <v>10.5176646215329</v>
+        <v>10.51766462153287</v>
       </c>
       <c r="E15">
-        <v>13.56138983890251</v>
+        <v>13.56138983890255</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.06362619926483</v>
+        <v>44.06362619926468</v>
       </c>
       <c r="H15">
-        <v>36.12173930689829</v>
+        <v>36.12173930689816</v>
       </c>
       <c r="I15">
-        <v>6.087094456586208</v>
+        <v>6.087094456586255</v>
       </c>
       <c r="J15">
-        <v>24.6853825338213</v>
+        <v>24.68538253382132</v>
       </c>
       <c r="K15">
-        <v>18.34397930178274</v>
+        <v>18.34397930178273</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91190944338959</v>
+        <v>25.91190944338955</v>
       </c>
       <c r="C16">
-        <v>21.18064840952176</v>
+        <v>21.18064840952187</v>
       </c>
       <c r="D16">
-        <v>10.12344662996646</v>
+        <v>10.1234466299664</v>
       </c>
       <c r="E16">
-        <v>13.04820016413806</v>
+        <v>13.04820016413803</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.71906212729692</v>
+        <v>42.71906212729689</v>
       </c>
       <c r="H16">
         <v>35.12119576831925</v>
       </c>
       <c r="I16">
-        <v>5.890097969818172</v>
+        <v>5.890097969818143</v>
       </c>
       <c r="J16">
         <v>23.77827154489871</v>
       </c>
       <c r="K16">
-        <v>17.65423250931672</v>
+        <v>17.65423250931671</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.294358265857</v>
+        <v>25.29435826585704</v>
       </c>
       <c r="C17">
-        <v>20.6658220197292</v>
+        <v>20.66582201972927</v>
       </c>
       <c r="D17">
-        <v>9.878641064337785</v>
+        <v>9.878641064337847</v>
       </c>
       <c r="E17">
-        <v>12.72973549965911</v>
+        <v>12.7297354996591</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.89414839456806</v>
+        <v>41.89414839456818</v>
       </c>
       <c r="H17">
-        <v>34.50957567836296</v>
+        <v>34.50957567836308</v>
       </c>
       <c r="I17">
-        <v>5.768256572816772</v>
+        <v>5.768256572816666</v>
       </c>
       <c r="J17">
-        <v>23.21444872218749</v>
+        <v>23.21444872218756</v>
       </c>
       <c r="K17">
-        <v>17.2260761346244</v>
+        <v>17.22607613462439</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93595379882676</v>
+        <v>24.93595379882672</v>
       </c>
       <c r="C18">
-        <v>20.36734546051306</v>
+        <v>20.36734546051303</v>
       </c>
       <c r="D18">
-        <v>9.736675978460053</v>
+        <v>9.736675978459971</v>
       </c>
       <c r="E18">
-        <v>12.54512815936712</v>
+        <v>12.54512815936711</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.41947741974916</v>
+        <v>41.41947741974914</v>
       </c>
       <c r="H18">
         <v>34.158453551218</v>
       </c>
       <c r="I18">
-        <v>5.697776983860068</v>
+        <v>5.697776983860097</v>
       </c>
       <c r="J18">
-        <v>22.88729139581082</v>
+        <v>22.8872913958108</v>
       </c>
       <c r="K18">
-        <v>16.97783428834305</v>
+        <v>16.97783428834304</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81403829264239</v>
+        <v>24.81403829264248</v>
       </c>
       <c r="C19">
-        <v>20.26586635928225</v>
+        <v>20.2658663592822</v>
       </c>
       <c r="D19">
-        <v>9.68840371624457</v>
+        <v>9.688403716244585</v>
       </c>
       <c r="E19">
-        <v>12.4823681579866</v>
+        <v>12.48236815798663</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.25871257517954</v>
+        <v>41.25871257517959</v>
       </c>
       <c r="H19">
-        <v>34.03967271106676</v>
+        <v>34.03967271106679</v>
       </c>
       <c r="I19">
-        <v>5.678137796856215</v>
+        <v>5.678137796856251</v>
       </c>
       <c r="J19">
-        <v>22.7760154380173</v>
+        <v>22.77601543801736</v>
       </c>
       <c r="K19">
-        <v>16.89343231592058</v>
+        <v>16.89343231592055</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36042567114189</v>
+        <v>25.36042567114176</v>
       </c>
       <c r="C20">
-        <v>20.72086715539358</v>
+        <v>20.72086715539342</v>
       </c>
       <c r="D20">
-        <v>9.904819531317493</v>
+        <v>9.904819531317486</v>
       </c>
       <c r="E20">
-        <v>12.76378301471311</v>
+        <v>12.76378301471313</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.98197920334841</v>
+        <v>41.98197920334821</v>
       </c>
       <c r="H20">
-        <v>34.57461202633345</v>
+        <v>34.57461202633333</v>
       </c>
       <c r="I20">
-        <v>5.781267401312279</v>
+        <v>5.781267401312308</v>
       </c>
       <c r="J20">
-        <v>23.2747612229199</v>
+        <v>23.27476122291977</v>
       </c>
       <c r="K20">
-        <v>17.27185591773302</v>
+        <v>17.27185591773297</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.15913592727108</v>
+        <v>27.15913592727111</v>
       </c>
       <c r="C21">
-        <v>22.22252972584224</v>
+        <v>22.2225297258422</v>
       </c>
       <c r="D21">
-        <v>10.61858777516126</v>
+        <v>10.61858777516134</v>
       </c>
       <c r="E21">
         <v>13.69284506676406</v>
@@ -1149,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.41091160856933</v>
+        <v>44.41091160856948</v>
       </c>
       <c r="H21">
-        <v>36.38086116185463</v>
+        <v>36.38086116185476</v>
       </c>
       <c r="I21">
-        <v>6.137680507838195</v>
+        <v>6.137680507838167</v>
       </c>
       <c r="J21">
-        <v>24.91745426397305</v>
+        <v>24.91745426397308</v>
       </c>
       <c r="K21">
-        <v>18.52062253220534</v>
+        <v>18.52062253220535</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.31004483008572</v>
+        <v>28.31004483008579</v>
       </c>
       <c r="C22">
-        <v>23.18656975703941</v>
+        <v>23.1865697570395</v>
       </c>
       <c r="D22">
-        <v>11.0763270433032</v>
+        <v>11.07632704330322</v>
       </c>
       <c r="E22">
-        <v>14.28946772950976</v>
+        <v>14.28946772950977</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.00084907382063</v>
+        <v>46.00084907382078</v>
       </c>
       <c r="H22">
-        <v>37.57055592775544</v>
+        <v>37.57055592775558</v>
       </c>
       <c r="I22">
-        <v>6.367878476000949</v>
+        <v>6.367878476000937</v>
       </c>
       <c r="J22">
         <v>25.96927285389262</v>
       </c>
       <c r="K22">
-        <v>19.32216176904468</v>
+        <v>19.32216176904465</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6978300920218</v>
+        <v>27.69783009202177</v>
       </c>
       <c r="C23">
-        <v>22.6734377210463</v>
+        <v>22.67343772104639</v>
       </c>
       <c r="D23">
-        <v>10.83273883205345</v>
+        <v>10.83273883205354</v>
       </c>
       <c r="E23">
-        <v>13.97188788790505</v>
+        <v>13.97188788790508</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.15178940885563</v>
+        <v>45.15178940885558</v>
       </c>
       <c r="H23">
-        <v>36.93455835074664</v>
+        <v>36.93455835074658</v>
       </c>
       <c r="I23">
-        <v>6.245222926561724</v>
+        <v>6.24522292656168</v>
       </c>
       <c r="J23">
-        <v>25.40969155728146</v>
+        <v>25.40969155728145</v>
       </c>
       <c r="K23">
-        <v>18.89553981612625</v>
+        <v>18.89553981612631</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33056712210511</v>
+        <v>25.33056712210526</v>
       </c>
       <c r="C24">
-        <v>20.69598906177728</v>
+        <v>20.69598906177743</v>
       </c>
       <c r="D24">
-        <v>9.89298807232014</v>
+        <v>9.892988072320124</v>
       </c>
       <c r="E24">
-        <v>12.74839488335873</v>
+        <v>12.74839488335874</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.94227223548135</v>
+        <v>41.94227223548143</v>
       </c>
       <c r="H24">
-        <v>34.54520754796878</v>
+        <v>34.5452075479688</v>
       </c>
       <c r="I24">
-        <v>5.775386557591855</v>
+        <v>5.775386557591908</v>
       </c>
       <c r="J24">
-        <v>23.24750334920909</v>
+        <v>23.24750334920921</v>
       </c>
       <c r="K24">
-        <v>17.25116541576243</v>
+        <v>17.25116541576247</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65301867786233</v>
+        <v>22.65301867786222</v>
       </c>
       <c r="C25">
-        <v>18.47127539803759</v>
+        <v>18.47127539803752</v>
       </c>
       <c r="D25">
-        <v>8.916249150805147</v>
+        <v>8.916249150805132</v>
       </c>
       <c r="E25">
-        <v>11.50914153815821</v>
+        <v>11.50914153815818</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.47185240763866</v>
+        <v>38.47185240763876</v>
       </c>
       <c r="H25">
-        <v>31.99278746210761</v>
+        <v>31.99278746210774</v>
       </c>
       <c r="I25">
-        <v>5.447363055352971</v>
+        <v>5.44736305535293</v>
       </c>
       <c r="J25">
-        <v>20.80437646360341</v>
+        <v>20.80437646360331</v>
       </c>
       <c r="K25">
-        <v>15.40065640295326</v>
+        <v>15.40065640295327</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55795265413388</v>
+        <v>20.55795265413391</v>
       </c>
       <c r="C2">
-        <v>16.73865238896239</v>
+        <v>16.7386523889624</v>
       </c>
       <c r="D2">
-        <v>8.212155473572452</v>
+        <v>8.212155473572397</v>
       </c>
       <c r="E2">
-        <v>10.62509435097154</v>
+        <v>10.62509435097153</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.89649601199046</v>
+        <v>35.89649601199039</v>
       </c>
       <c r="H2">
-        <v>30.12476286383951</v>
+        <v>30.12476286383943</v>
       </c>
       <c r="I2">
-        <v>5.246663327019923</v>
+        <v>5.246663327019895</v>
       </c>
       <c r="J2">
-        <v>18.89403467398845</v>
+        <v>18.89403467398847</v>
       </c>
       <c r="K2">
-        <v>13.95906748935272</v>
+        <v>13.95906748935278</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.05413228162848</v>
+        <v>19.05413228162851</v>
       </c>
       <c r="C3">
-        <v>15.49910815615005</v>
+        <v>15.49910815615007</v>
       </c>
       <c r="D3">
-        <v>7.721518574654225</v>
+        <v>7.721518574654232</v>
       </c>
       <c r="E3">
-        <v>10.01283183604245</v>
+        <v>10.01283183604246</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.13679473441066</v>
+        <v>34.13679473441055</v>
       </c>
       <c r="H3">
-        <v>28.86402316601073</v>
+        <v>28.86402316601062</v>
       </c>
       <c r="I3">
-        <v>5.117652221034088</v>
+        <v>5.117652221034184</v>
       </c>
       <c r="J3">
-        <v>17.52321281315646</v>
+        <v>17.52321281315648</v>
       </c>
       <c r="K3">
-        <v>12.93873513017592</v>
+        <v>12.93873513017591</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.08742855047921</v>
+        <v>18.08742855047937</v>
       </c>
       <c r="C4">
-        <v>14.70403435269305</v>
+        <v>14.70403435269315</v>
       </c>
       <c r="D4">
-        <v>7.41379146955959</v>
+        <v>7.413791469559529</v>
       </c>
       <c r="E4">
-        <v>9.630647196501833</v>
+        <v>9.630647196501894</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.04984922232831</v>
+        <v>33.04984922232828</v>
       </c>
       <c r="H4">
-        <v>28.0926847280258</v>
+        <v>28.09268472802573</v>
       </c>
       <c r="I4">
-        <v>5.041737101930139</v>
+        <v>5.0417371019302</v>
       </c>
       <c r="J4">
-        <v>16.64206542900235</v>
+        <v>16.64206542900247</v>
       </c>
       <c r="K4">
         <v>12.39389020110622</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68233300600208</v>
+        <v>17.68233300600202</v>
       </c>
       <c r="C5">
-        <v>14.37125726072847</v>
+        <v>14.37125726072832</v>
       </c>
       <c r="D5">
-        <v>7.28682609742116</v>
+        <v>7.286826097421092</v>
       </c>
       <c r="E5">
-        <v>9.473415083474716</v>
+        <v>9.473415083474684</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.60549448075496</v>
+        <v>32.60549448075503</v>
       </c>
       <c r="H5">
-        <v>27.77915392931029</v>
+        <v>27.77915392931035</v>
       </c>
       <c r="I5">
-        <v>5.011612057143335</v>
+        <v>5.011612057143354</v>
       </c>
       <c r="J5">
-        <v>16.2728155261378</v>
+        <v>16.27281552613768</v>
       </c>
       <c r="K5">
         <v>12.16872020949077</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.61438644459152</v>
+        <v>17.61438644459155</v>
       </c>
       <c r="C6">
-        <v>14.3154634089962</v>
+        <v>14.31546340899616</v>
       </c>
       <c r="D6">
-        <v>7.265651679420361</v>
+        <v>7.265651679420322</v>
       </c>
       <c r="E6">
-        <v>9.447220194686794</v>
+        <v>9.447220194686775</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.53163244612265</v>
+        <v>32.53163244612259</v>
       </c>
       <c r="H6">
-        <v>27.72714449726569</v>
+        <v>27.72714449726561</v>
       </c>
       <c r="I6">
-        <v>5.006658309066159</v>
+        <v>5.006658309066157</v>
       </c>
       <c r="J6">
-        <v>16.21088028535883</v>
+        <v>16.21088028535886</v>
       </c>
       <c r="K6">
-        <v>12.13114470033663</v>
+        <v>12.13114470033664</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.08201077883864</v>
+        <v>18.08201077883868</v>
       </c>
       <c r="C7">
-        <v>14.69958223470141</v>
+        <v>14.6995822347015</v>
       </c>
       <c r="D7">
-        <v>7.412085392896937</v>
+        <v>7.412085392896926</v>
       </c>
       <c r="E7">
-        <v>9.628532594387003</v>
+        <v>9.628532594386927</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.04386187272157</v>
+        <v>33.04386187272161</v>
       </c>
       <c r="H7">
-        <v>28.08845294391234</v>
+        <v>28.08845294391239</v>
       </c>
       <c r="I7">
-        <v>5.041327563748466</v>
+        <v>5.041327563748375</v>
       </c>
       <c r="J7">
-        <v>16.63712711495111</v>
+        <v>16.6371271149512</v>
       </c>
       <c r="K7">
-        <v>12.39086604888138</v>
+        <v>12.39086604888137</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.0482714007048</v>
+        <v>20.04827140070483</v>
       </c>
       <c r="C8">
-        <v>16.31816455227108</v>
+        <v>16.31816455227096</v>
       </c>
       <c r="D8">
-        <v>8.044354905482232</v>
+        <v>8.044354905482193</v>
       </c>
       <c r="E8">
-        <v>10.41532025733368</v>
+        <v>10.41532025733364</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.29119161291266</v>
+        <v>35.29119161291275</v>
       </c>
       <c r="H8">
-        <v>29.68952872007479</v>
+        <v>29.68952872007482</v>
       </c>
       <c r="I8">
-        <v>5.201483652380147</v>
+        <v>5.20148365238018</v>
       </c>
       <c r="J8">
-        <v>18.42940525483693</v>
+        <v>18.4294052548369</v>
       </c>
       <c r="K8">
-        <v>13.60914592323777</v>
+        <v>13.60914592323772</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57313980026525</v>
+        <v>23.57313980026504</v>
       </c>
       <c r="C9">
-        <v>19.23442561933655</v>
+        <v>19.23442561933633</v>
       </c>
       <c r="D9">
-        <v>9.231944400406785</v>
+        <v>9.231944400406821</v>
       </c>
       <c r="E9">
-        <v>11.90734988152418</v>
+        <v>11.90734988152419</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.64343811931676</v>
+        <v>39.64343811931673</v>
       </c>
       <c r="H9">
-        <v>32.85036343434865</v>
+        <v>32.85036343434866</v>
       </c>
       <c r="I9">
-        <v>5.542789659851198</v>
+        <v>5.542789659851193</v>
       </c>
       <c r="J9">
-        <v>21.64369172484295</v>
+        <v>21.64369172484281</v>
       </c>
       <c r="K9">
-        <v>16.03550237708335</v>
+        <v>16.0355023770833</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.98195414085206</v>
+        <v>25.98195414085198</v>
       </c>
       <c r="C10">
-        <v>21.23908498677932</v>
+        <v>21.23908498677935</v>
       </c>
       <c r="D10">
-        <v>10.15122844521244</v>
+        <v>10.15122844521238</v>
       </c>
       <c r="E10">
-        <v>13.08435163011848</v>
+        <v>13.08435163011842</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.81317521083349</v>
+        <v>42.81317521083341</v>
       </c>
       <c r="H10">
-        <v>35.1910853385213</v>
+        <v>35.19108533852121</v>
       </c>
       <c r="I10">
-        <v>5.903949261031501</v>
+        <v>5.903949261031507</v>
       </c>
       <c r="J10">
-        <v>23.84223150432588</v>
+        <v>23.84223150432585</v>
       </c>
       <c r="K10">
-        <v>17.70282954418206</v>
+        <v>17.70282954418202</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.04408496475678</v>
+        <v>27.0440849647568</v>
       </c>
       <c r="C11">
-        <v>22.12629941671453</v>
+        <v>22.12629941671462</v>
       </c>
       <c r="D11">
-        <v>10.57287338017382</v>
+        <v>10.57287338017384</v>
       </c>
       <c r="E11">
-        <v>13.6332969242388</v>
+        <v>13.63329692423878</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.25345374337126</v>
+        <v>44.25345374337136</v>
       </c>
       <c r="H11">
-        <v>36.26334221899217</v>
+        <v>36.26334221899224</v>
       </c>
       <c r="I11">
-        <v>6.114759290096016</v>
+        <v>6.114759290096022</v>
       </c>
       <c r="J11">
-        <v>24.81234214418165</v>
+        <v>24.8123421441817</v>
       </c>
       <c r="K11">
-        <v>18.44060640595347</v>
+        <v>18.4406064059535</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.44200488740932</v>
+        <v>27.44200488740923</v>
       </c>
       <c r="C12">
-        <v>22.45923258741622</v>
+        <v>22.45923258741634</v>
       </c>
       <c r="D12">
-        <v>10.73101702834003</v>
+        <v>10.73101702833995</v>
       </c>
       <c r="E12">
-        <v>13.83932442650826</v>
+        <v>13.8393244265082</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.79920867140245</v>
+        <v>44.79920867140228</v>
       </c>
       <c r="H12">
-        <v>36.6709052802553</v>
+        <v>36.67090528025516</v>
       </c>
       <c r="I12">
-        <v>6.194106078215576</v>
+        <v>6.194106078215639</v>
       </c>
       <c r="J12">
-        <v>25.17591224496613</v>
+        <v>25.1759122449661</v>
       </c>
       <c r="K12">
         <v>18.71743754705507</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.35648649991495</v>
+        <v>27.3564864999149</v>
       </c>
       <c r="C13">
-        <v>22.38765524147051</v>
+        <v>22.3876552414705</v>
       </c>
       <c r="D13">
-        <v>10.69702176050754</v>
+        <v>10.69702176050749</v>
       </c>
       <c r="E13">
-        <v>13.79502924424445</v>
+        <v>13.79502924424448</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.68164320879026</v>
+        <v>44.68164320879011</v>
       </c>
       <c r="H13">
-        <v>36.58305263963844</v>
+        <v>36.5830526396383</v>
       </c>
       <c r="I13">
-        <v>6.177036665700204</v>
+        <v>6.177036665700321</v>
       </c>
       <c r="J13">
-        <v>25.09777011715938</v>
+        <v>25.09777011715935</v>
       </c>
       <c r="K13">
-        <v>18.65792276693314</v>
+        <v>18.65792276693317</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.07690446696768</v>
+        <v>27.07690446696764</v>
       </c>
       <c r="C14">
-        <v>22.15374757276526</v>
+        <v>22.15374757276519</v>
       </c>
       <c r="D14">
-        <v>10.5859130766131</v>
+        <v>10.58591307661309</v>
       </c>
       <c r="E14">
-        <v>13.65028194040789</v>
+        <v>13.65028194040787</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.29834212181225</v>
+        <v>44.29834212181245</v>
       </c>
       <c r="H14">
-        <v>36.29683900113081</v>
+        <v>36.29683900113104</v>
       </c>
       <c r="I14">
-        <v>6.121296112661731</v>
+        <v>6.121296112661732</v>
       </c>
       <c r="J14">
         <v>24.8423258920199</v>
       </c>
       <c r="K14">
-        <v>18.46342984285831</v>
+        <v>18.46342984285829</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90511226038684</v>
+        <v>26.90511226038683</v>
       </c>
       <c r="C15">
-        <v>22.01009397120678</v>
+        <v>22.01009397120668</v>
       </c>
       <c r="D15">
-        <v>10.51766462153287</v>
+        <v>10.5176646215329</v>
       </c>
       <c r="E15">
-        <v>13.56138983890255</v>
+        <v>13.56138983890251</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.06362619926468</v>
+        <v>44.06362619926483</v>
       </c>
       <c r="H15">
-        <v>36.12173930689816</v>
+        <v>36.12173930689829</v>
       </c>
       <c r="I15">
-        <v>6.087094456586255</v>
+        <v>6.087094456586208</v>
       </c>
       <c r="J15">
-        <v>24.68538253382132</v>
+        <v>24.6853825338213</v>
       </c>
       <c r="K15">
-        <v>18.34397930178273</v>
+        <v>18.34397930178274</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91190944338955</v>
+        <v>25.91190944338959</v>
       </c>
       <c r="C16">
-        <v>21.18064840952187</v>
+        <v>21.18064840952176</v>
       </c>
       <c r="D16">
-        <v>10.1234466299664</v>
+        <v>10.12344662996646</v>
       </c>
       <c r="E16">
-        <v>13.04820016413803</v>
+        <v>13.04820016413806</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.71906212729689</v>
+        <v>42.71906212729692</v>
       </c>
       <c r="H16">
         <v>35.12119576831925</v>
       </c>
       <c r="I16">
-        <v>5.890097969818143</v>
+        <v>5.890097969818172</v>
       </c>
       <c r="J16">
         <v>23.77827154489871</v>
       </c>
       <c r="K16">
-        <v>17.65423250931671</v>
+        <v>17.65423250931672</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29435826585704</v>
+        <v>25.294358265857</v>
       </c>
       <c r="C17">
-        <v>20.66582201972927</v>
+        <v>20.6658220197292</v>
       </c>
       <c r="D17">
-        <v>9.878641064337847</v>
+        <v>9.878641064337785</v>
       </c>
       <c r="E17">
-        <v>12.7297354996591</v>
+        <v>12.72973549965911</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.89414839456818</v>
+        <v>41.89414839456806</v>
       </c>
       <c r="H17">
-        <v>34.50957567836308</v>
+        <v>34.50957567836296</v>
       </c>
       <c r="I17">
-        <v>5.768256572816666</v>
+        <v>5.768256572816772</v>
       </c>
       <c r="J17">
-        <v>23.21444872218756</v>
+        <v>23.21444872218749</v>
       </c>
       <c r="K17">
-        <v>17.22607613462439</v>
+        <v>17.2260761346244</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93595379882672</v>
+        <v>24.93595379882676</v>
       </c>
       <c r="C18">
-        <v>20.36734546051303</v>
+        <v>20.36734546051306</v>
       </c>
       <c r="D18">
-        <v>9.736675978459971</v>
+        <v>9.736675978460053</v>
       </c>
       <c r="E18">
-        <v>12.54512815936711</v>
+        <v>12.54512815936712</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.41947741974914</v>
+        <v>41.41947741974916</v>
       </c>
       <c r="H18">
         <v>34.158453551218</v>
       </c>
       <c r="I18">
-        <v>5.697776983860097</v>
+        <v>5.697776983860068</v>
       </c>
       <c r="J18">
-        <v>22.8872913958108</v>
+        <v>22.88729139581082</v>
       </c>
       <c r="K18">
-        <v>16.97783428834304</v>
+        <v>16.97783428834305</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81403829264248</v>
+        <v>24.81403829264239</v>
       </c>
       <c r="C19">
-        <v>20.2658663592822</v>
+        <v>20.26586635928225</v>
       </c>
       <c r="D19">
-        <v>9.688403716244585</v>
+        <v>9.68840371624457</v>
       </c>
       <c r="E19">
-        <v>12.48236815798663</v>
+        <v>12.4823681579866</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.25871257517959</v>
+        <v>41.25871257517954</v>
       </c>
       <c r="H19">
-        <v>34.03967271106679</v>
+        <v>34.03967271106676</v>
       </c>
       <c r="I19">
-        <v>5.678137796856251</v>
+        <v>5.678137796856215</v>
       </c>
       <c r="J19">
-        <v>22.77601543801736</v>
+        <v>22.7760154380173</v>
       </c>
       <c r="K19">
-        <v>16.89343231592055</v>
+        <v>16.89343231592058</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36042567114176</v>
+        <v>25.36042567114189</v>
       </c>
       <c r="C20">
-        <v>20.72086715539342</v>
+        <v>20.72086715539358</v>
       </c>
       <c r="D20">
-        <v>9.904819531317486</v>
+        <v>9.904819531317493</v>
       </c>
       <c r="E20">
-        <v>12.76378301471313</v>
+        <v>12.76378301471311</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.98197920334821</v>
+        <v>41.98197920334841</v>
       </c>
       <c r="H20">
-        <v>34.57461202633333</v>
+        <v>34.57461202633345</v>
       </c>
       <c r="I20">
-        <v>5.781267401312308</v>
+        <v>5.781267401312279</v>
       </c>
       <c r="J20">
-        <v>23.27476122291977</v>
+        <v>23.2747612229199</v>
       </c>
       <c r="K20">
-        <v>17.27185591773297</v>
+        <v>17.27185591773302</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.15913592727111</v>
+        <v>27.15913592727108</v>
       </c>
       <c r="C21">
-        <v>22.2225297258422</v>
+        <v>22.22252972584224</v>
       </c>
       <c r="D21">
-        <v>10.61858777516134</v>
+        <v>10.61858777516126</v>
       </c>
       <c r="E21">
         <v>13.69284506676406</v>
@@ -1149,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.41091160856948</v>
+        <v>44.41091160856933</v>
       </c>
       <c r="H21">
-        <v>36.38086116185476</v>
+        <v>36.38086116185463</v>
       </c>
       <c r="I21">
-        <v>6.137680507838167</v>
+        <v>6.137680507838195</v>
       </c>
       <c r="J21">
-        <v>24.91745426397308</v>
+        <v>24.91745426397305</v>
       </c>
       <c r="K21">
-        <v>18.52062253220535</v>
+        <v>18.52062253220534</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.31004483008579</v>
+        <v>28.31004483008572</v>
       </c>
       <c r="C22">
-        <v>23.1865697570395</v>
+        <v>23.18656975703941</v>
       </c>
       <c r="D22">
-        <v>11.07632704330322</v>
+        <v>11.0763270433032</v>
       </c>
       <c r="E22">
-        <v>14.28946772950977</v>
+        <v>14.28946772950976</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.00084907382078</v>
+        <v>46.00084907382063</v>
       </c>
       <c r="H22">
-        <v>37.57055592775558</v>
+        <v>37.57055592775544</v>
       </c>
       <c r="I22">
-        <v>6.367878476000937</v>
+        <v>6.367878476000949</v>
       </c>
       <c r="J22">
         <v>25.96927285389262</v>
       </c>
       <c r="K22">
-        <v>19.32216176904465</v>
+        <v>19.32216176904468</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69783009202177</v>
+        <v>27.6978300920218</v>
       </c>
       <c r="C23">
-        <v>22.67343772104639</v>
+        <v>22.6734377210463</v>
       </c>
       <c r="D23">
-        <v>10.83273883205354</v>
+        <v>10.83273883205345</v>
       </c>
       <c r="E23">
-        <v>13.97188788790508</v>
+        <v>13.97188788790505</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.15178940885558</v>
+        <v>45.15178940885563</v>
       </c>
       <c r="H23">
-        <v>36.93455835074658</v>
+        <v>36.93455835074664</v>
       </c>
       <c r="I23">
-        <v>6.24522292656168</v>
+        <v>6.245222926561724</v>
       </c>
       <c r="J23">
-        <v>25.40969155728145</v>
+        <v>25.40969155728146</v>
       </c>
       <c r="K23">
-        <v>18.89553981612631</v>
+        <v>18.89553981612625</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33056712210526</v>
+        <v>25.33056712210511</v>
       </c>
       <c r="C24">
-        <v>20.69598906177743</v>
+        <v>20.69598906177728</v>
       </c>
       <c r="D24">
-        <v>9.892988072320124</v>
+        <v>9.89298807232014</v>
       </c>
       <c r="E24">
-        <v>12.74839488335874</v>
+        <v>12.74839488335873</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.94227223548143</v>
+        <v>41.94227223548135</v>
       </c>
       <c r="H24">
-        <v>34.5452075479688</v>
+        <v>34.54520754796878</v>
       </c>
       <c r="I24">
-        <v>5.775386557591908</v>
+        <v>5.775386557591855</v>
       </c>
       <c r="J24">
-        <v>23.24750334920921</v>
+        <v>23.24750334920909</v>
       </c>
       <c r="K24">
-        <v>17.25116541576247</v>
+        <v>17.25116541576243</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65301867786222</v>
+        <v>22.65301867786233</v>
       </c>
       <c r="C25">
-        <v>18.47127539803752</v>
+        <v>18.47127539803759</v>
       </c>
       <c r="D25">
-        <v>8.916249150805132</v>
+        <v>8.916249150805147</v>
       </c>
       <c r="E25">
-        <v>11.50914153815818</v>
+        <v>11.50914153815821</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.47185240763876</v>
+        <v>38.47185240763866</v>
       </c>
       <c r="H25">
-        <v>31.99278746210774</v>
+        <v>31.99278746210761</v>
       </c>
       <c r="I25">
-        <v>5.44736305535293</v>
+        <v>5.447363055352971</v>
       </c>
       <c r="J25">
-        <v>20.80437646360331</v>
+        <v>20.80437646360341</v>
       </c>
       <c r="K25">
-        <v>15.40065640295327</v>
+        <v>15.40065640295326</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55795265413391</v>
+        <v>20.55762688716166</v>
       </c>
       <c r="C2">
-        <v>16.7386523889624</v>
+        <v>16.72959052447911</v>
       </c>
       <c r="D2">
-        <v>8.212155473572397</v>
+        <v>8.212251324296064</v>
       </c>
       <c r="E2">
-        <v>10.62509435097153</v>
+        <v>10.62616171685668</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.89649601199039</v>
+        <v>34.81570230824532</v>
       </c>
       <c r="H2">
-        <v>30.12476286383943</v>
+        <v>35.93669408018842</v>
       </c>
       <c r="I2">
-        <v>5.246663327019895</v>
+        <v>30.08559615738588</v>
       </c>
       <c r="J2">
-        <v>18.89403467398847</v>
+        <v>5.247313858714988</v>
       </c>
       <c r="K2">
-        <v>13.95906748935278</v>
+        <v>18.89090067777669</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.95679769629449</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.05413228162851</v>
+        <v>19.05410855833099</v>
       </c>
       <c r="C3">
-        <v>15.49910815615007</v>
+        <v>15.49083776561815</v>
       </c>
       <c r="D3">
-        <v>7.721518574654232</v>
+        <v>7.721651093239911</v>
       </c>
       <c r="E3">
-        <v>10.01283183604246</v>
+        <v>10.01389197781664</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.13679473441055</v>
+        <v>32.83146340969302</v>
       </c>
       <c r="H3">
-        <v>28.86402316601062</v>
+        <v>34.17570053421398</v>
       </c>
       <c r="I3">
-        <v>5.117652221034184</v>
+        <v>28.82785390717338</v>
       </c>
       <c r="J3">
-        <v>17.52321281315648</v>
+        <v>5.118273817107976</v>
       </c>
       <c r="K3">
-        <v>12.93873513017591</v>
+        <v>17.52056564569157</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.93672184025855</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.08742855047937</v>
+        <v>18.0875725705202</v>
       </c>
       <c r="C4">
-        <v>14.70403435269315</v>
+        <v>14.69625004130122</v>
       </c>
       <c r="D4">
-        <v>7.413791469559529</v>
+        <v>7.413941167765753</v>
       </c>
       <c r="E4">
-        <v>9.630647196501894</v>
+        <v>9.631696865831691</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.04984922232828</v>
+        <v>31.59256188713432</v>
       </c>
       <c r="H4">
-        <v>28.09268472802573</v>
+        <v>33.08801752227651</v>
       </c>
       <c r="I4">
-        <v>5.0417371019302</v>
+        <v>28.05843166704013</v>
       </c>
       <c r="J4">
-        <v>16.64206542900247</v>
+        <v>5.042339659334775</v>
       </c>
       <c r="K4">
-        <v>12.39389020110622</v>
+        <v>16.63971033351023</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.39198727717216</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68233300600202</v>
+        <v>17.68254134313195</v>
       </c>
       <c r="C5">
-        <v>14.37125726072832</v>
+        <v>14.36367144474966</v>
       </c>
       <c r="D5">
-        <v>7.286826097421092</v>
+        <v>7.286981597352988</v>
       </c>
       <c r="E5">
-        <v>9.473415083474684</v>
+        <v>9.474459169250318</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.60549448075503</v>
+        <v>31.08273350438714</v>
       </c>
       <c r="H5">
-        <v>27.77915392931035</v>
+        <v>32.64337726611852</v>
       </c>
       <c r="I5">
-        <v>5.011612057143354</v>
+        <v>27.74570061024609</v>
       </c>
       <c r="J5">
-        <v>16.27281552613768</v>
+        <v>5.012206619057827</v>
       </c>
       <c r="K5">
-        <v>12.16872020949077</v>
+        <v>16.27057822802953</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>12.16685978798428</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.61438644459155</v>
+        <v>17.61460522781694</v>
       </c>
       <c r="C6">
-        <v>14.31546340899616</v>
+        <v>14.30791058735089</v>
       </c>
       <c r="D6">
-        <v>7.265651679420322</v>
+        <v>7.265808074064362</v>
       </c>
       <c r="E6">
-        <v>9.447220194686775</v>
+        <v>9.448263279327056</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.53163244612259</v>
+        <v>30.99778556758072</v>
       </c>
       <c r="H6">
-        <v>27.72714449726561</v>
+        <v>32.56946875677544</v>
       </c>
       <c r="I6">
-        <v>5.006658309066157</v>
+        <v>27.69382510396185</v>
       </c>
       <c r="J6">
-        <v>16.21088028535886</v>
+        <v>5.007251531272209</v>
       </c>
       <c r="K6">
-        <v>12.13114470033664</v>
+        <v>16.2086624866673</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.12929119214031</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.08201077883868</v>
+        <v>18.0821556821612</v>
       </c>
       <c r="C7">
-        <v>14.6995822347015</v>
+        <v>14.69180059817618</v>
       </c>
       <c r="D7">
-        <v>7.412085392896926</v>
+        <v>7.412235174029748</v>
       </c>
       <c r="E7">
-        <v>9.628532594386927</v>
+        <v>9.629582193492496</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.04386187272161</v>
+        <v>31.58570590025166</v>
       </c>
       <c r="H7">
-        <v>28.08845294391239</v>
+        <v>33.08202626004962</v>
       </c>
       <c r="I7">
-        <v>5.041327563748375</v>
+        <v>28.05421059254491</v>
       </c>
       <c r="J7">
-        <v>16.6371271149512</v>
+        <v>5.041930014179909</v>
       </c>
       <c r="K7">
-        <v>12.39086604888137</v>
+        <v>16.63477361246748</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12.38896370792148</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.04827140070483</v>
+        <v>20.04805373515006</v>
       </c>
       <c r="C8">
-        <v>16.31816455227096</v>
+        <v>16.30937583090462</v>
       </c>
       <c r="D8">
-        <v>8.044354905482193</v>
+        <v>8.044464599367789</v>
       </c>
       <c r="E8">
-        <v>10.41532025733364</v>
+        <v>10.41638651464048</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.29119161291275</v>
+        <v>34.13588834554886</v>
       </c>
       <c r="H8">
-        <v>29.68952872007482</v>
+        <v>35.33093306753424</v>
       </c>
       <c r="I8">
-        <v>5.20148365238018</v>
+        <v>29.65137980146678</v>
       </c>
       <c r="J8">
-        <v>18.4294052548369</v>
+        <v>5.202124523819805</v>
       </c>
       <c r="K8">
-        <v>13.60914592323772</v>
+        <v>18.42644085946826</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.60696772466633</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57313980026504</v>
+        <v>23.57204612504829</v>
       </c>
       <c r="C9">
-        <v>19.23442561933633</v>
+        <v>19.22363932936837</v>
       </c>
       <c r="D9">
-        <v>9.231944400406821</v>
+        <v>9.231925298026859</v>
       </c>
       <c r="E9">
-        <v>11.90734988152419</v>
+        <v>11.90839022231445</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.64343811931673</v>
+        <v>38.97185007793207</v>
       </c>
       <c r="H9">
-        <v>32.85036343434866</v>
+        <v>39.68667395259368</v>
       </c>
       <c r="I9">
-        <v>5.542789659851193</v>
+        <v>32.80514584043517</v>
       </c>
       <c r="J9">
-        <v>21.64369172484281</v>
+        <v>5.543491495401556</v>
       </c>
       <c r="K9">
-        <v>16.0355023770833</v>
+        <v>21.63944819040571</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.03262726445687</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.98195414085198</v>
+        <v>25.9800715764722</v>
       </c>
       <c r="C10">
-        <v>21.23908498677935</v>
+        <v>21.22677354080781</v>
       </c>
       <c r="D10">
-        <v>10.15122844521238</v>
+        <v>10.15099944493903</v>
       </c>
       <c r="E10">
-        <v>13.08435163011842</v>
+        <v>13.0852872242646</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.81317521083341</v>
+        <v>42.43322437857878</v>
       </c>
       <c r="H10">
-        <v>35.19108533852121</v>
+        <v>42.85916604237796</v>
       </c>
       <c r="I10">
-        <v>5.903949261031507</v>
+        <v>35.14099745297925</v>
       </c>
       <c r="J10">
-        <v>23.84223150432585</v>
+        <v>5.904728611079174</v>
       </c>
       <c r="K10">
-        <v>17.70282954418202</v>
+        <v>23.83695224186695</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.69937959253258</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.0440849647568</v>
+        <v>27.04179812791535</v>
       </c>
       <c r="C11">
-        <v>22.12629941671462</v>
+        <v>22.1132679923952</v>
       </c>
       <c r="D11">
-        <v>10.57287338017384</v>
+        <v>10.5725612509549</v>
       </c>
       <c r="E11">
-        <v>13.63329692423878</v>
+        <v>13.63418102734717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.25345374337136</v>
+        <v>43.99329573272912</v>
       </c>
       <c r="H11">
-        <v>36.26334221899224</v>
+        <v>44.30072589933575</v>
       </c>
       <c r="I11">
-        <v>6.114759290096022</v>
+        <v>36.21109265294415</v>
       </c>
       <c r="J11">
-        <v>24.8123421441817</v>
+        <v>6.115554853750043</v>
       </c>
       <c r="K11">
-        <v>18.4406064059535</v>
+        <v>24.80655705525666</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>18.43687217169338</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.44200488740923</v>
+        <v>27.43955688846398</v>
       </c>
       <c r="C12">
-        <v>22.45923258741634</v>
+        <v>22.44592323544311</v>
       </c>
       <c r="D12">
-        <v>10.73101702833995</v>
+        <v>10.73067095246107</v>
       </c>
       <c r="E12">
-        <v>13.8393244265082</v>
+        <v>13.84018576205945</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.79920867140228</v>
+        <v>44.58264965600701</v>
       </c>
       <c r="H12">
-        <v>36.67090528025516</v>
+        <v>44.84696888667447</v>
       </c>
       <c r="I12">
-        <v>6.194106078215639</v>
+        <v>36.61784289760654</v>
       </c>
       <c r="J12">
-        <v>25.1759122449661</v>
+        <v>6.194906167977334</v>
       </c>
       <c r="K12">
-        <v>18.71743754705507</v>
+        <v>25.16992911130066</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>18.71359136423137</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.3564864999149</v>
+        <v>27.35407359809189</v>
       </c>
       <c r="C13">
-        <v>22.3876552414705</v>
+        <v>22.37440600990324</v>
       </c>
       <c r="D13">
-        <v>10.69702176050749</v>
+        <v>10.69668311488006</v>
       </c>
       <c r="E13">
-        <v>13.79502924424448</v>
+        <v>13.79589564066932</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.68164320879011</v>
+        <v>44.45577138435016</v>
       </c>
       <c r="H13">
-        <v>36.5830526396383</v>
+        <v>44.72929820582196</v>
       </c>
       <c r="I13">
-        <v>6.177036665700321</v>
+        <v>36.53016509314318</v>
       </c>
       <c r="J13">
-        <v>25.09777011715935</v>
+        <v>6.177835856818958</v>
       </c>
       <c r="K13">
-        <v>18.65792276693317</v>
+        <v>25.09182995323679</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>18.6541009045268</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.07690446696764</v>
+        <v>27.0746045432933</v>
       </c>
       <c r="C14">
-        <v>22.15374757276519</v>
+        <v>22.14069339928083</v>
       </c>
       <c r="D14">
-        <v>10.58591307661309</v>
+        <v>10.58559820740295</v>
       </c>
       <c r="E14">
-        <v>13.65028194040787</v>
+        <v>13.65116424021966</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.29834212181245</v>
+        <v>44.04180586297677</v>
       </c>
       <c r="H14">
-        <v>36.29683900113104</v>
+        <v>44.34565438100005</v>
       </c>
       <c r="I14">
-        <v>6.121296112661732</v>
+        <v>36.24452246209871</v>
       </c>
       <c r="J14">
-        <v>24.8423258920199</v>
+        <v>6.122092082568834</v>
       </c>
       <c r="K14">
-        <v>18.46342984285829</v>
+        <v>24.83652465011274</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>18.45968649145103</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90511226038683</v>
+        <v>26.90288043515059</v>
       </c>
       <c r="C15">
-        <v>22.01009397120668</v>
+        <v>21.9971585359301</v>
       </c>
       <c r="D15">
-        <v>10.5176646215329</v>
+        <v>10.51736397748567</v>
       </c>
       <c r="E15">
-        <v>13.56138983890251</v>
+        <v>13.56228143234159</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.06362619926483</v>
+        <v>43.78808003867348</v>
       </c>
       <c r="H15">
-        <v>36.12173930689829</v>
+        <v>44.11072885472366</v>
       </c>
       <c r="I15">
-        <v>6.087094456586208</v>
+        <v>36.06977320834757</v>
       </c>
       <c r="J15">
-        <v>24.6853825338213</v>
+        <v>6.087888235361843</v>
       </c>
       <c r="K15">
-        <v>18.34397930178274</v>
+        <v>24.67966548793857</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>18.34028344618512</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91190944338959</v>
+        <v>25.91005226226394</v>
       </c>
       <c r="C16">
-        <v>21.18064840952176</v>
+        <v>21.16838336747688</v>
       </c>
       <c r="D16">
-        <v>10.12344662996646</v>
+        <v>10.12322274742682</v>
       </c>
       <c r="E16">
-        <v>13.04820016413806</v>
+        <v>13.04913870448864</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.71906212729692</v>
+        <v>42.33103085344302</v>
       </c>
       <c r="H16">
-        <v>35.12119576831925</v>
+        <v>42.76496968803615</v>
       </c>
       <c r="I16">
-        <v>5.890097969818172</v>
+        <v>35.07125008120312</v>
       </c>
       <c r="J16">
-        <v>23.77827154489871</v>
+        <v>5.890876048293772</v>
       </c>
       <c r="K16">
-        <v>17.65423250931672</v>
+        <v>23.77302452055249</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>17.65080059633667</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.294358265857</v>
+        <v>25.29271830629084</v>
       </c>
       <c r="C17">
-        <v>20.6658220197292</v>
+        <v>20.65396056940876</v>
       </c>
       <c r="D17">
-        <v>9.878641064337785</v>
+        <v>9.878460455625637</v>
       </c>
       <c r="E17">
-        <v>12.72973549965911</v>
+        <v>12.73069775235536</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.89414839456806</v>
+        <v>41.43387440935891</v>
       </c>
       <c r="H17">
-        <v>34.50957567836296</v>
+        <v>41.93932919208503</v>
       </c>
       <c r="I17">
-        <v>5.768256572816772</v>
+        <v>34.4608820086981</v>
       </c>
       <c r="J17">
-        <v>23.21444872218749</v>
+        <v>5.769022407585765</v>
       </c>
       <c r="K17">
-        <v>17.2260761346244</v>
+        <v>23.20948019414016</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>17.22279965848175</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93595379882676</v>
+        <v>24.934434618053</v>
       </c>
       <c r="C18">
-        <v>20.36734546051306</v>
+        <v>20.35571379235909</v>
       </c>
       <c r="D18">
-        <v>9.736675978460053</v>
+        <v>9.736519011193755</v>
       </c>
       <c r="E18">
-        <v>12.54512815936712</v>
+        <v>12.54610237623439</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.41947741974916</v>
+        <v>40.91643397983425</v>
       </c>
       <c r="H18">
-        <v>34.158453551218</v>
+        <v>41.4642429206726</v>
       </c>
       <c r="I18">
-        <v>5.697776983860068</v>
+        <v>34.11048522617837</v>
       </c>
       <c r="J18">
-        <v>22.88729139581082</v>
+        <v>5.698534884798004</v>
       </c>
       <c r="K18">
-        <v>16.97783428834305</v>
+        <v>22.88247989744502</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>16.97464514494266</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81403829264239</v>
+        <v>24.81255933174045</v>
       </c>
       <c r="C19">
-        <v>20.26586635928225</v>
+        <v>20.25431212766047</v>
       </c>
       <c r="D19">
-        <v>9.68840371624457</v>
+        <v>9.688254552457986</v>
       </c>
       <c r="E19">
-        <v>12.4823681579866</v>
+        <v>12.48334615495849</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.25871257517954</v>
+        <v>40.74097646178589</v>
       </c>
       <c r="H19">
-        <v>34.03967271106676</v>
+        <v>41.30333796446183</v>
       </c>
       <c r="I19">
-        <v>5.678137796856215</v>
+        <v>33.99195092234367</v>
       </c>
       <c r="J19">
-        <v>22.7760154380173</v>
+        <v>5.67885627761488</v>
       </c>
       <c r="K19">
-        <v>16.89343231592058</v>
+        <v>22.77125660589439</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>16.89027241328805</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36042567114189</v>
+        <v>25.35876302861471</v>
       </c>
       <c r="C20">
-        <v>20.72086715539358</v>
+        <v>20.70896299541266</v>
       </c>
       <c r="D20">
-        <v>9.904819531317493</v>
+        <v>9.904634448492855</v>
       </c>
       <c r="E20">
-        <v>12.76378301471311</v>
+        <v>12.76474292060107</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.98197920334841</v>
+        <v>41.5295209509087</v>
       </c>
       <c r="H20">
-        <v>34.57461202633345</v>
+        <v>42.02723709280806</v>
       </c>
       <c r="I20">
-        <v>5.781267401312279</v>
+        <v>34.52578454979026</v>
       </c>
       <c r="J20">
-        <v>23.2747612229199</v>
+        <v>5.78203463313727</v>
       </c>
       <c r="K20">
-        <v>17.27185591773302</v>
+        <v>23.26976338471397</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>17.2685631159248</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.15913592727108</v>
+        <v>27.15680305257556</v>
       </c>
       <c r="C21">
-        <v>22.22252972584224</v>
+        <v>22.20941841668559</v>
       </c>
       <c r="D21">
-        <v>10.61858777516126</v>
+        <v>10.61826599389658</v>
       </c>
       <c r="E21">
-        <v>13.69284506676406</v>
+        <v>13.6937227900537</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.41091160856933</v>
+        <v>44.16342939261153</v>
       </c>
       <c r="H21">
-        <v>36.38086116185463</v>
+        <v>44.45832447112231</v>
       </c>
       <c r="I21">
-        <v>6.137680507838195</v>
+        <v>36.328376766372</v>
       </c>
       <c r="J21">
-        <v>24.91745426397305</v>
+        <v>6.138477469840873</v>
       </c>
       <c r="K21">
-        <v>18.52062253220534</v>
+        <v>24.9116124076398</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>18.51685624631205</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.31004483008572</v>
+        <v>28.30722583419069</v>
       </c>
       <c r="C22">
-        <v>23.18656975703941</v>
+        <v>23.17263766958254</v>
       </c>
       <c r="D22">
-        <v>11.0763270433032</v>
+        <v>11.07590119911931</v>
       </c>
       <c r="E22">
-        <v>14.28946772950976</v>
+        <v>14.29027225233202</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.00084907382063</v>
+        <v>45.87709237415537</v>
       </c>
       <c r="H22">
-        <v>37.57055592775544</v>
+        <v>46.04968624901898</v>
       </c>
       <c r="I22">
-        <v>6.367878476000949</v>
+        <v>37.51571374822602</v>
       </c>
       <c r="J22">
-        <v>25.96927285389262</v>
+        <v>6.368685301831596</v>
       </c>
       <c r="K22">
-        <v>19.32216176904468</v>
+        <v>25.96284050090599</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>19.31806030173507</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6978300920218</v>
+        <v>27.69527556922475</v>
       </c>
       <c r="C23">
-        <v>22.6734377210463</v>
+        <v>22.65994722442547</v>
       </c>
       <c r="D23">
-        <v>10.83273883205345</v>
+        <v>10.83237007926562</v>
       </c>
       <c r="E23">
-        <v>13.97188788790505</v>
+        <v>13.97273352248782</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.15178940885563</v>
+        <v>44.96290490276963</v>
       </c>
       <c r="H23">
-        <v>36.93455835074664</v>
+        <v>45.19986538739767</v>
       </c>
       <c r="I23">
-        <v>6.245222926561724</v>
+        <v>36.88097243364072</v>
       </c>
       <c r="J23">
-        <v>25.40969155728146</v>
+        <v>6.246025457648275</v>
       </c>
       <c r="K23">
-        <v>18.89553981612625</v>
+        <v>25.40357852627156</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>18.89162000826222</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33056712210511</v>
+        <v>25.32891474721857</v>
       </c>
       <c r="C24">
-        <v>20.69598906177728</v>
+        <v>20.68410421772226</v>
       </c>
       <c r="D24">
-        <v>9.89298807232014</v>
+        <v>9.892805016059365</v>
       </c>
       <c r="E24">
-        <v>12.74839488335873</v>
+        <v>12.74935585539014</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.94227223548135</v>
+        <v>41.48628434696013</v>
       </c>
       <c r="H24">
-        <v>34.54520754796878</v>
+        <v>41.98749526376929</v>
       </c>
       <c r="I24">
-        <v>5.775386557591855</v>
+        <v>34.49644054809382</v>
       </c>
       <c r="J24">
-        <v>23.24750334920909</v>
+        <v>5.776153160579319</v>
       </c>
       <c r="K24">
-        <v>17.25116541576243</v>
+        <v>23.24251877161335</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>17.24788000103625</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65301867786233</v>
+        <v>22.65218362549111</v>
       </c>
       <c r="C25">
-        <v>18.47127539803759</v>
+        <v>18.46103579577601</v>
       </c>
       <c r="D25">
-        <v>8.916249150805147</v>
+        <v>8.916271514766718</v>
       </c>
       <c r="E25">
-        <v>11.50914153815821</v>
+        <v>11.51019683143238</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.47185240763866</v>
+        <v>37.68090052532877</v>
       </c>
       <c r="H25">
-        <v>31.99278746210761</v>
+        <v>38.51410579218882</v>
       </c>
       <c r="I25">
-        <v>5.447363055352971</v>
+        <v>31.94942131909059</v>
       </c>
       <c r="J25">
-        <v>20.80437646360341</v>
+        <v>5.448050597344976</v>
       </c>
       <c r="K25">
-        <v>15.40065640295326</v>
+        <v>20.80049188983338</v>
       </c>
       <c r="L25">
+        <v>15.3979782916264</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55762688716166</v>
+        <v>30.58548087882635</v>
       </c>
       <c r="C2">
-        <v>16.72959052447911</v>
+        <v>16.31088488157809</v>
       </c>
       <c r="D2">
-        <v>8.212251324296064</v>
+        <v>7.070254540101528</v>
       </c>
       <c r="E2">
-        <v>10.62616171685668</v>
+        <v>5.839343138545323</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.81570230824532</v>
+        <v>2.194895511571892</v>
       </c>
       <c r="H2">
-        <v>35.93669408018842</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.08559615738588</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.247313858714988</v>
+        <v>4.743010436095192</v>
       </c>
       <c r="K2">
-        <v>18.89090067777669</v>
+        <v>25.18306433881163</v>
       </c>
       <c r="L2">
-        <v>13.95679769629449</v>
+        <v>8.625159169280614</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.84960714057872</v>
+      </c>
+      <c r="N2">
+        <v>23.80628039760116</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.05410855833099</v>
+        <v>29.21721443078557</v>
       </c>
       <c r="C3">
-        <v>15.49083776561815</v>
+        <v>15.3174986430793</v>
       </c>
       <c r="D3">
-        <v>7.721651093239911</v>
+        <v>7.007450294297738</v>
       </c>
       <c r="E3">
-        <v>10.01389197781664</v>
+        <v>5.845860707380118</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.83146340969302</v>
+        <v>2.21140140594092</v>
       </c>
       <c r="H3">
-        <v>34.17570053421398</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.82785390717338</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.118273817107976</v>
+        <v>4.628815063425098</v>
       </c>
       <c r="K3">
-        <v>17.52056564569157</v>
+        <v>24.07221517943345</v>
       </c>
       <c r="L3">
-        <v>12.93672184025855</v>
+        <v>8.556557677240534</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>18.35199968554973</v>
+      </c>
+      <c r="N3">
+        <v>23.5496438839015</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.0875725705202</v>
+        <v>28.37978166352553</v>
       </c>
       <c r="C4">
-        <v>14.69625004130122</v>
+        <v>14.69617475506991</v>
       </c>
       <c r="D4">
-        <v>7.413941167765753</v>
+        <v>6.973397953723852</v>
       </c>
       <c r="E4">
-        <v>9.631696865831691</v>
+        <v>5.850611776674377</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.59256188713432</v>
+        <v>2.221688743753051</v>
       </c>
       <c r="H4">
-        <v>33.08801752227651</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>28.05843166704013</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.042339659334775</v>
+        <v>4.558229779593344</v>
       </c>
       <c r="K4">
-        <v>16.63971033351023</v>
+        <v>23.3934216432747</v>
       </c>
       <c r="L4">
-        <v>12.39198727717216</v>
+        <v>8.520031200727113</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>18.05771728622498</v>
+      </c>
+      <c r="N4">
+        <v>23.39729608089015</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68254134313195</v>
+        <v>28.03938788035146</v>
       </c>
       <c r="C5">
-        <v>14.36367144474966</v>
+        <v>14.44020095937495</v>
       </c>
       <c r="D5">
-        <v>7.286981597352988</v>
+        <v>6.960609870284665</v>
       </c>
       <c r="E5">
-        <v>9.474459169250318</v>
+        <v>5.852726485952271</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.08273350438714</v>
+        <v>2.225925684663478</v>
       </c>
       <c r="H5">
-        <v>32.64337726611852</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.74570061024609</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.012206619057827</v>
+        <v>4.529326117490371</v>
       </c>
       <c r="K5">
-        <v>16.27057822802953</v>
+        <v>23.11777667561152</v>
       </c>
       <c r="L5">
-        <v>12.16685978798428</v>
+        <v>8.506492874783612</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17.9405831105283</v>
+      </c>
+      <c r="N5">
+        <v>23.33644924769172</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.61460522781694</v>
+        <v>27.98292519354204</v>
       </c>
       <c r="C6">
-        <v>14.30791058735089</v>
+        <v>14.39753274854578</v>
       </c>
       <c r="D6">
-        <v>7.265808074064362</v>
+        <v>6.958550881897358</v>
       </c>
       <c r="E6">
-        <v>9.448263279327056</v>
+        <v>5.853088158845888</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.99778556758072</v>
+        <v>2.226632103253101</v>
       </c>
       <c r="H6">
-        <v>32.56946875677544</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.69382510396185</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.007251531272209</v>
+        <v>4.524517700004782</v>
       </c>
       <c r="K6">
-        <v>16.2086624866673</v>
+        <v>23.07207002630221</v>
       </c>
       <c r="L6">
-        <v>12.12929119214031</v>
+        <v>8.504324474997645</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17.9213005142426</v>
+      </c>
+      <c r="N6">
+        <v>23.32641818849896</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.0821556821612</v>
+        <v>28.37518717418606</v>
       </c>
       <c r="C7">
-        <v>14.69180059817618</v>
+        <v>14.69273369083221</v>
       </c>
       <c r="D7">
-        <v>7.412235174029748</v>
+        <v>6.973221139959753</v>
       </c>
       <c r="E7">
-        <v>9.629582193492496</v>
+        <v>5.850639585144328</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.58570590025166</v>
+        <v>2.221745695408204</v>
       </c>
       <c r="H7">
-        <v>33.08202626004962</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>28.05421059254491</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.041930014179909</v>
+        <v>4.557840565539116</v>
       </c>
       <c r="K7">
-        <v>16.63477361246748</v>
+        <v>23.38970003685301</v>
       </c>
       <c r="L7">
-        <v>12.38896370792148</v>
+        <v>8.519843243286797</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18.05612632882255</v>
+      </c>
+      <c r="N7">
+        <v>23.39647057221716</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.04805373515006</v>
+        <v>30.11323297584179</v>
       </c>
       <c r="C8">
-        <v>16.30937583090462</v>
+        <v>15.97075261514058</v>
       </c>
       <c r="D8">
-        <v>8.044464599367789</v>
+        <v>7.047635347413267</v>
       </c>
       <c r="E8">
-        <v>10.41638651464048</v>
+        <v>5.841428534954138</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.13588834554886</v>
+        <v>2.200559125557667</v>
       </c>
       <c r="H8">
-        <v>35.33093306753424</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.65137980146678</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.202124523819805</v>
+        <v>4.703718731007593</v>
       </c>
       <c r="K8">
-        <v>18.42644085946826</v>
+        <v>24.79943104268638</v>
       </c>
       <c r="L8">
-        <v>13.60696772466633</v>
+        <v>8.600306450575577</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.67566774074084</v>
+      </c>
+      <c r="N8">
+        <v>23.7166570846583</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57204612504829</v>
+        <v>33.53943432729427</v>
       </c>
       <c r="C9">
-        <v>19.22363932936837</v>
+        <v>18.38727728293769</v>
       </c>
       <c r="D9">
-        <v>9.231925298026859</v>
+        <v>7.231581583538819</v>
       </c>
       <c r="E9">
-        <v>11.90839022231445</v>
+        <v>5.829840554248724</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.97185007793207</v>
+        <v>2.159893429951438</v>
       </c>
       <c r="H9">
-        <v>39.68667395259368</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.80514584043517</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.543491495401556</v>
+        <v>4.987316585415026</v>
       </c>
       <c r="K9">
-        <v>21.63944819040571</v>
+        <v>27.58745504025745</v>
       </c>
       <c r="L9">
-        <v>16.03262726445687</v>
+        <v>8.805469431984285</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.98278315190549</v>
+      </c>
+      <c r="N9">
+        <v>24.39010841690197</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.9800715764722</v>
+        <v>36.07166235163458</v>
       </c>
       <c r="C10">
-        <v>21.22677354080781</v>
+        <v>20.11543139438228</v>
       </c>
       <c r="D10">
-        <v>10.15099944493903</v>
+        <v>7.393422620604598</v>
       </c>
       <c r="E10">
-        <v>13.0852872242646</v>
+        <v>5.826187603921971</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.43322437857878</v>
+        <v>2.130012789608103</v>
       </c>
       <c r="H10">
-        <v>42.85916604237796</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.14099745297925</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.904728611079174</v>
+        <v>5.196431305008267</v>
       </c>
       <c r="K10">
-        <v>23.83695224186695</v>
+        <v>29.65402810443364</v>
       </c>
       <c r="L10">
-        <v>17.69937959253258</v>
+        <v>8.989769051940554</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.00584383172515</v>
+      </c>
+      <c r="N10">
+        <v>24.9194507558553</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.04179812791535</v>
+        <v>37.23065783256622</v>
       </c>
       <c r="C11">
-        <v>22.1132679923952</v>
+        <v>20.89493593687403</v>
       </c>
       <c r="D11">
-        <v>10.5725612509549</v>
+        <v>7.473784086755941</v>
       </c>
       <c r="E11">
-        <v>13.63418102734717</v>
+        <v>5.82585172156899</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.99329573272912</v>
+        <v>2.11626874391684</v>
       </c>
       <c r="H11">
-        <v>44.30072589933575</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.21109265294415</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.115554853750043</v>
+        <v>5.292414776305566</v>
       </c>
       <c r="K11">
-        <v>24.80655705525666</v>
+        <v>30.60132480588242</v>
       </c>
       <c r="L11">
-        <v>18.43687217169338</v>
+        <v>9.082149224151379</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.48726460156267</v>
+      </c>
+      <c r="N11">
+        <v>25.16967682826311</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.43955688846398</v>
+        <v>37.67109834744146</v>
       </c>
       <c r="C12">
-        <v>22.44592323544311</v>
+        <v>21.19478638413215</v>
       </c>
       <c r="D12">
-        <v>10.73067095246107</v>
+        <v>7.505279361132302</v>
       </c>
       <c r="E12">
-        <v>13.84018576205945</v>
+        <v>5.825944720243879</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.58264965600701</v>
+        <v>2.111027010037227</v>
       </c>
       <c r="H12">
-        <v>44.84696888667447</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.61784289760654</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.194906167977334</v>
+        <v>5.328959405309462</v>
       </c>
       <c r="K12">
-        <v>25.16992911130066</v>
+        <v>30.96153392195931</v>
       </c>
       <c r="L12">
-        <v>18.71359136423137</v>
+        <v>9.118486033936559</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.67215939970456</v>
+      </c>
+      <c r="N12">
+        <v>25.26598632342202</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.35407359809189</v>
+        <v>37.57616163838502</v>
       </c>
       <c r="C13">
-        <v>22.37440600990324</v>
+        <v>21.12774708245255</v>
       </c>
       <c r="D13">
-        <v>10.69668311488006</v>
+        <v>7.498447249295885</v>
       </c>
       <c r="E13">
-        <v>13.79589564066932</v>
+        <v>5.825914350632544</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.45577138435016</v>
+        <v>2.112157842789861</v>
       </c>
       <c r="H13">
-        <v>44.72929820582196</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.53016509314318</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.177835856818958</v>
+        <v>5.321078685992221</v>
       </c>
       <c r="K13">
-        <v>25.09182995323679</v>
+        <v>30.88388112379537</v>
       </c>
       <c r="L13">
-        <v>18.6541009045268</v>
+        <v>9.110597741621934</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.63221818973659</v>
+      </c>
+      <c r="N13">
+        <v>25.24517159163553</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.0746045432933</v>
+        <v>37.26685815744115</v>
       </c>
       <c r="C14">
-        <v>22.14069339928083</v>
+        <v>20.91918593995514</v>
       </c>
       <c r="D14">
-        <v>10.58559820740295</v>
+        <v>7.476353284822189</v>
       </c>
       <c r="E14">
-        <v>13.65116424021966</v>
+        <v>5.825854765013964</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.04180586297677</v>
+        <v>2.115838347392629</v>
       </c>
       <c r="H14">
-        <v>44.34565438100005</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.24452246209871</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.122092082568834</v>
+        <v>5.295416869353383</v>
       </c>
       <c r="K14">
-        <v>24.83652465011274</v>
+        <v>30.63092637032877</v>
       </c>
       <c r="L14">
-        <v>18.45968649145103</v>
+        <v>9.085110721255392</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.5024221049229</v>
+      </c>
+      <c r="N14">
+        <v>25.17756782553089</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90288043515059</v>
+        <v>37.07762277988301</v>
       </c>
       <c r="C15">
-        <v>21.9971585359301</v>
+        <v>20.79235813421698</v>
       </c>
       <c r="D15">
-        <v>10.51736397748567</v>
+        <v>7.46296180789936</v>
       </c>
       <c r="E15">
-        <v>13.56228143234159</v>
+        <v>5.825847939653213</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.78808003867348</v>
+        <v>2.118087413489041</v>
       </c>
       <c r="H15">
-        <v>44.11072885472366</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.06977320834757</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.087888235361843</v>
+        <v>5.279726542055769</v>
       </c>
       <c r="K15">
-        <v>24.67966548793857</v>
+        <v>30.47619456150633</v>
       </c>
       <c r="L15">
-        <v>18.34028344618512</v>
+        <v>9.06967972742909</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.42326577625337</v>
+      </c>
+      <c r="N15">
+        <v>25.13636761167188</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91005226226394</v>
+        <v>35.99610280645316</v>
       </c>
       <c r="C16">
-        <v>21.16838336747688</v>
+        <v>20.06439033402497</v>
       </c>
       <c r="D16">
-        <v>10.12322274742682</v>
+        <v>7.38831414352504</v>
       </c>
       <c r="E16">
-        <v>13.04913870448864</v>
+        <v>5.826238603811056</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.33103085344302</v>
+        <v>2.130906701672691</v>
       </c>
       <c r="H16">
-        <v>42.76496968803615</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>35.07125008120312</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.890876048293772</v>
+        <v>5.190181776292212</v>
       </c>
       <c r="K16">
-        <v>23.77302452055249</v>
+        <v>29.59229975694065</v>
       </c>
       <c r="L16">
-        <v>17.65080059633667</v>
+        <v>8.983913929338783</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.97472682864519</v>
+      </c>
+      <c r="N16">
+        <v>24.90330363382624</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29271830629084</v>
+        <v>35.33475521058494</v>
       </c>
       <c r="C17">
-        <v>20.65396056940876</v>
+        <v>19.61638025753135</v>
       </c>
       <c r="D17">
-        <v>9.878460455625637</v>
+        <v>7.344308533327551</v>
       </c>
       <c r="E17">
-        <v>12.73069775235536</v>
+        <v>5.826836778311734</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.43387440935891</v>
+        <v>2.138722125318993</v>
       </c>
       <c r="H17">
-        <v>41.93932919208503</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.4608820086981</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.769022407585765</v>
+        <v>5.135516065204014</v>
       </c>
       <c r="K17">
-        <v>23.20948019414016</v>
+        <v>29.05217268242281</v>
       </c>
       <c r="L17">
-        <v>17.22279965848175</v>
+        <v>8.933569804991862</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.70384417383177</v>
+      </c>
+      <c r="N17">
+        <v>24.76286956216492</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.934434618053</v>
+        <v>34.95498768403846</v>
       </c>
       <c r="C18">
-        <v>20.35571379235909</v>
+        <v>19.35803748593494</v>
       </c>
       <c r="D18">
-        <v>9.736519011193755</v>
+        <v>7.319625396173834</v>
       </c>
       <c r="E18">
-        <v>12.54610237623439</v>
+        <v>5.827303507743679</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.91643397983425</v>
+        <v>2.143204197241262</v>
       </c>
       <c r="H18">
-        <v>41.4642429206726</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>34.11048522617837</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.698534884798004</v>
+        <v>5.10414899462667</v>
       </c>
       <c r="K18">
-        <v>22.88247989744502</v>
+        <v>28.74214720059622</v>
       </c>
       <c r="L18">
-        <v>16.97464514494266</v>
+        <v>8.905408406690972</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.54952619137309</v>
+      </c>
+      <c r="N18">
+        <v>24.68296873179149</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81255933174045</v>
+        <v>34.82649871610359</v>
       </c>
       <c r="C19">
-        <v>20.25431212766047</v>
+        <v>19.27044241273791</v>
       </c>
       <c r="D19">
-        <v>9.688254552457986</v>
+        <v>7.311373306805827</v>
       </c>
       <c r="E19">
-        <v>12.48334615495849</v>
+        <v>5.827481812634161</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.74097646178589</v>
+        <v>2.144719913633058</v>
       </c>
       <c r="H19">
-        <v>41.30333796446183</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.99195092234367</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.67885627761488</v>
+        <v>5.093539560212118</v>
       </c>
       <c r="K19">
-        <v>22.77125660589439</v>
+        <v>28.63727700914933</v>
       </c>
       <c r="L19">
-        <v>16.89027241328805</v>
+        <v>8.896006540176238</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.4975247633548</v>
+      </c>
+      <c r="N19">
+        <v>24.65606023655824</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.35876302861471</v>
+        <v>35.40508916907473</v>
       </c>
       <c r="C20">
-        <v>20.70896299541266</v>
+        <v>19.66413712035494</v>
       </c>
       <c r="D20">
-        <v>9.904634448492855</v>
+        <v>7.348927406039908</v>
       </c>
       <c r="E20">
-        <v>12.76474292060107</v>
+        <v>5.826760212987307</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.5295209509087</v>
+        <v>2.137891623750475</v>
       </c>
       <c r="H20">
-        <v>42.02723709280806</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.52578454979026</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.78203463313727</v>
+        <v>5.141327054693214</v>
       </c>
       <c r="K20">
-        <v>23.26976338471397</v>
+        <v>29.1096010237649</v>
       </c>
       <c r="L20">
-        <v>17.2685631159248</v>
+        <v>8.938845880854824</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.73252444605974</v>
+      </c>
+      <c r="N20">
+        <v>24.77772733232272</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.15680305257556</v>
+        <v>37.35766057150806</v>
       </c>
       <c r="C21">
-        <v>22.20941841668559</v>
+        <v>20.97998855319647</v>
       </c>
       <c r="D21">
-        <v>10.61826599389658</v>
+        <v>7.482813088143851</v>
       </c>
       <c r="E21">
-        <v>13.6937227900537</v>
+        <v>5.825866019918628</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.16342939261153</v>
+        <v>2.114758440728381</v>
       </c>
       <c r="H21">
-        <v>44.45832447112231</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.328376766372</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.138477469840873</v>
+        <v>5.302948314828233</v>
       </c>
       <c r="K21">
-        <v>24.9116124076398</v>
+        <v>30.70518042710435</v>
       </c>
       <c r="L21">
-        <v>18.51685624631205</v>
+        <v>9.092558991820338</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.5404732929041</v>
+      </c>
+      <c r="N21">
+        <v>25.19738070849439</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.30722583419069</v>
+        <v>38.64324802362659</v>
       </c>
       <c r="C22">
-        <v>23.17263766958254</v>
+        <v>21.87802599257643</v>
       </c>
       <c r="D22">
-        <v>11.07590119911931</v>
+        <v>7.576576223913747</v>
       </c>
       <c r="E22">
-        <v>14.29027225233202</v>
+        <v>5.826584336318205</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.87709237415537</v>
+        <v>2.0994134226107</v>
       </c>
       <c r="H22">
-        <v>46.04968624901898</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.51571374822602</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.368685301831596</v>
+        <v>5.409778496635117</v>
       </c>
       <c r="K22">
-        <v>25.96284050090599</v>
+        <v>31.75700443150348</v>
       </c>
       <c r="L22">
-        <v>19.31806030173507</v>
+        <v>9.200991538088836</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.08382244749124</v>
+      </c>
+      <c r="N22">
+        <v>25.48083371401165</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69527556922475</v>
+        <v>37.95600423743253</v>
       </c>
       <c r="C23">
-        <v>22.65994722442547</v>
+        <v>21.39562373727605</v>
       </c>
       <c r="D23">
-        <v>10.83237007926562</v>
+        <v>7.525923678652265</v>
       </c>
       <c r="E23">
-        <v>13.97273352248782</v>
+        <v>5.826070026094725</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.96290490276963</v>
+        <v>2.107629979064012</v>
       </c>
       <c r="H23">
-        <v>45.19986538739767</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.88097243364072</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.246025457648275</v>
+        <v>5.352621683361265</v>
       </c>
       <c r="K23">
-        <v>25.40357852627156</v>
+        <v>31.19460304145502</v>
       </c>
       <c r="L23">
-        <v>18.89162000826222</v>
+        <v>9.142341233660979</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.79230607005492</v>
+      </c>
+      <c r="N23">
+        <v>25.32863156037066</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.32891474721857</v>
+        <v>35.3732898224429</v>
       </c>
       <c r="C24">
-        <v>20.68410421772226</v>
+        <v>19.64254869096974</v>
       </c>
       <c r="D24">
-        <v>9.892805016059365</v>
+        <v>7.346837301055962</v>
       </c>
       <c r="E24">
-        <v>12.74935585539014</v>
+        <v>5.826794447711476</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.48628434696013</v>
+        <v>2.138267127019828</v>
       </c>
       <c r="H24">
-        <v>41.98749526376929</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.49644054809382</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.776153160579319</v>
+        <v>5.13869972181597</v>
       </c>
       <c r="K24">
-        <v>23.24251877161335</v>
+        <v>29.08363614266304</v>
       </c>
       <c r="L24">
-        <v>17.24788000103625</v>
+        <v>8.936458140064364</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.71955370464237</v>
+      </c>
+      <c r="N24">
+        <v>24.77100754309054</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65218362549111</v>
+        <v>32.6106817716415</v>
       </c>
       <c r="C25">
-        <v>18.46103579577601</v>
+        <v>17.7427135493992</v>
       </c>
       <c r="D25">
-        <v>8.916271514766718</v>
+        <v>7.17741225183132</v>
       </c>
       <c r="E25">
-        <v>11.51019683143238</v>
+        <v>5.832198989588046</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.68090052532877</v>
+        <v>2.17085096873677</v>
       </c>
       <c r="H25">
-        <v>38.51410579218882</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>31.94942131909059</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.448050597344976</v>
+        <v>4.910657505051267</v>
       </c>
       <c r="K25">
-        <v>20.80049188983338</v>
+        <v>26.83068176092628</v>
       </c>
       <c r="L25">
-        <v>15.3979782916264</v>
+        <v>8.744447177479788</v>
       </c>
       <c r="M25">
+        <v>19.61877373377305</v>
+      </c>
+      <c r="N25">
+        <v>24.20241120317393</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.58548087882635</v>
+        <v>22.38339499993574</v>
       </c>
       <c r="C2">
-        <v>16.31088488157809</v>
+        <v>13.89797671344711</v>
       </c>
       <c r="D2">
-        <v>7.070254540101528</v>
+        <v>7.912247541797216</v>
       </c>
       <c r="E2">
-        <v>5.839343138545323</v>
+        <v>7.147743233119347</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.194895511571892</v>
+        <v>46.79868324373381</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.29206171596306</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.92504730069008</v>
       </c>
       <c r="J2">
-        <v>4.743010436095192</v>
+        <v>5.164257655350096</v>
       </c>
       <c r="K2">
-        <v>25.18306433881163</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.625159169280614</v>
+        <v>8.150324883263762</v>
       </c>
       <c r="M2">
-        <v>18.84960714057872</v>
+        <v>14.64183228443867</v>
       </c>
       <c r="N2">
-        <v>23.80628039760116</v>
+        <v>13.72915993080279</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.21721443078557</v>
+        <v>21.04835231585457</v>
       </c>
       <c r="C3">
-        <v>15.3174986430793</v>
+        <v>12.92731661049775</v>
       </c>
       <c r="D3">
-        <v>7.007450294297738</v>
+        <v>7.821059598460218</v>
       </c>
       <c r="E3">
-        <v>5.845860707380118</v>
+        <v>7.194501788388105</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.21140140594092</v>
+        <v>45.41282056719893</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>14.15065589476064</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.80317711215761</v>
       </c>
       <c r="J3">
-        <v>4.628815063425098</v>
+        <v>5.103499096438923</v>
       </c>
       <c r="K3">
-        <v>24.07221517943345</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.556557677240534</v>
+        <v>8.03975139605023</v>
       </c>
       <c r="M3">
-        <v>18.35199968554973</v>
+        <v>14.09992814140266</v>
       </c>
       <c r="N3">
-        <v>23.5496438839015</v>
+        <v>13.99212184985804</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.37978166352553</v>
+        <v>20.19718184378845</v>
       </c>
       <c r="C4">
-        <v>14.69617475506991</v>
+        <v>12.29926348032822</v>
       </c>
       <c r="D4">
-        <v>6.973397953723852</v>
+        <v>7.769214544180687</v>
       </c>
       <c r="E4">
-        <v>5.850611776674377</v>
+        <v>7.224476951069242</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.221688743753051</v>
+        <v>44.591231174246</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.0748285434367</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.74726581022199</v>
       </c>
       <c r="J4">
-        <v>4.558229779593344</v>
+        <v>5.065851170255174</v>
       </c>
       <c r="K4">
-        <v>23.3934216432747</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.520031200727113</v>
+        <v>7.975468791874365</v>
       </c>
       <c r="M4">
-        <v>18.05771728622498</v>
+        <v>13.76512075061951</v>
       </c>
       <c r="N4">
-        <v>23.39729608089015</v>
+        <v>14.15629454622984</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.03938788035146</v>
+        <v>19.84266841708315</v>
       </c>
       <c r="C5">
-        <v>14.44020095937495</v>
+        <v>12.03516986015272</v>
       </c>
       <c r="D5">
-        <v>6.960609870284665</v>
+        <v>7.749116599890971</v>
       </c>
       <c r="E5">
-        <v>5.852726485952271</v>
+        <v>7.237011242257418</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.225925684663478</v>
+        <v>44.26397941359848</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.04660549545168</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.72903929239833</v>
       </c>
       <c r="J5">
-        <v>4.529326117490371</v>
+        <v>5.050418544503319</v>
       </c>
       <c r="K5">
-        <v>23.11777667561152</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.506492874783612</v>
+        <v>7.950179008307222</v>
       </c>
       <c r="M5">
-        <v>17.9405831105283</v>
+        <v>13.62833771026344</v>
       </c>
       <c r="N5">
-        <v>23.33644924769172</v>
+        <v>14.22392332667877</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.98292519354204</v>
+        <v>19.78334826061171</v>
       </c>
       <c r="C6">
-        <v>14.39753274854578</v>
+        <v>11.990821982717</v>
       </c>
       <c r="D6">
-        <v>6.958550881897358</v>
+        <v>7.745841118575139</v>
       </c>
       <c r="E6">
-        <v>5.853088158845888</v>
+        <v>7.239111860634114</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.226632103253101</v>
+        <v>44.21010068708608</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.04207815251884</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.72628223236706</v>
       </c>
       <c r="J6">
-        <v>4.524517700004782</v>
+        <v>5.047850356179842</v>
       </c>
       <c r="K6">
-        <v>23.07207002630221</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.504324474997645</v>
+        <v>7.946034298785213</v>
       </c>
       <c r="M6">
-        <v>17.9213005142426</v>
+        <v>13.60560957053225</v>
       </c>
       <c r="N6">
-        <v>23.32641818849896</v>
+        <v>14.23519821019076</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.37518717418606</v>
+        <v>20.19243135644536</v>
       </c>
       <c r="C7">
-        <v>14.69273369083221</v>
+        <v>12.2957349701483</v>
       </c>
       <c r="D7">
-        <v>6.973221139959753</v>
+        <v>7.76893934648835</v>
       </c>
       <c r="E7">
-        <v>5.850639585144328</v>
+        <v>7.22464469916197</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.221745695408204</v>
+        <v>44.58678693365634</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>14.07443719575812</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.74700181045792</v>
       </c>
       <c r="J7">
-        <v>4.557840565539116</v>
+        <v>5.065643413993513</v>
       </c>
       <c r="K7">
-        <v>23.38970003685301</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.519843243286797</v>
+        <v>7.975124060222289</v>
       </c>
       <c r="M7">
-        <v>18.05612632882255</v>
+        <v>13.76327720301304</v>
       </c>
       <c r="N7">
-        <v>23.39647057221716</v>
+        <v>14.15720361026344</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.11323297584179</v>
+        <v>21.92972976172573</v>
       </c>
       <c r="C8">
-        <v>15.97075261514058</v>
+        <v>13.56988995926644</v>
       </c>
       <c r="D8">
-        <v>7.047635347413267</v>
+        <v>7.879938287831766</v>
       </c>
       <c r="E8">
-        <v>5.841428534954138</v>
+        <v>7.163603569726493</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.200559125557667</v>
+        <v>46.3148545988159</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.2409705770976</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.87898058131247</v>
       </c>
       <c r="J8">
-        <v>4.703718731007593</v>
+        <v>5.143375961294219</v>
       </c>
       <c r="K8">
-        <v>24.79943104268638</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.600306450575577</v>
+        <v>8.111449001519754</v>
       </c>
       <c r="M8">
-        <v>18.67566774074084</v>
+        <v>14.45551405903304</v>
       </c>
       <c r="N8">
-        <v>23.7166570846583</v>
+        <v>13.81929398725802</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.53943432729427</v>
+        <v>25.07936911864888</v>
       </c>
       <c r="C9">
-        <v>18.38727728293769</v>
+        <v>15.81857216416691</v>
       </c>
       <c r="D9">
-        <v>7.231581583538819</v>
+        <v>8.131034824367621</v>
       </c>
       <c r="E9">
-        <v>5.829840554248724</v>
+        <v>7.053900214901741</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.159893429951438</v>
+        <v>49.92910844543266</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.6586217602543</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.29676788355828</v>
       </c>
       <c r="J9">
-        <v>4.987316585415026</v>
+        <v>5.293355911437696</v>
       </c>
       <c r="K9">
-        <v>27.58745504025745</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.805469431984285</v>
+        <v>8.407499163630918</v>
       </c>
       <c r="M9">
-        <v>19.98278315190549</v>
+        <v>15.78985014447897</v>
       </c>
       <c r="N9">
-        <v>24.39010841690197</v>
+        <v>13.17600076016669</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.07166235163458</v>
+        <v>27.23059807336436</v>
       </c>
       <c r="C10">
-        <v>20.11543139438228</v>
+        <v>17.32494130746126</v>
       </c>
       <c r="D10">
-        <v>7.393422620604598</v>
+        <v>8.336634962797117</v>
       </c>
       <c r="E10">
-        <v>5.826187603921971</v>
+        <v>6.979350524960686</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.130012789608103</v>
+        <v>52.71425411185701</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.0261728961003</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>22.7127918597441</v>
       </c>
       <c r="J10">
-        <v>5.196431305008267</v>
+        <v>5.402485935353402</v>
       </c>
       <c r="K10">
-        <v>29.65402810443364</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.989769051940554</v>
+        <v>8.642662695157098</v>
       </c>
       <c r="M10">
-        <v>21.00584383172515</v>
+        <v>16.74877622000033</v>
       </c>
       <c r="N10">
-        <v>24.9194507558553</v>
+        <v>12.71188379582682</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.23065783256622</v>
+        <v>28.22566774214363</v>
       </c>
       <c r="C11">
-        <v>20.89493593687403</v>
+        <v>17.98016663238733</v>
       </c>
       <c r="D11">
-        <v>7.473784086755941</v>
+        <v>8.434921970937365</v>
       </c>
       <c r="E11">
-        <v>5.82585172156899</v>
+        <v>6.946744584238353</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.11626874391684</v>
+        <v>54.00866316558479</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.20767873221356</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>22.92836633727337</v>
       </c>
       <c r="J11">
-        <v>5.292414776305566</v>
+        <v>5.452020689089212</v>
       </c>
       <c r="K11">
-        <v>30.60132480588242</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>9.082149224151379</v>
+        <v>8.753534395533789</v>
       </c>
       <c r="M11">
-        <v>21.48726460156267</v>
+        <v>17.17929845838013</v>
       </c>
       <c r="N11">
-        <v>25.16967682826311</v>
+        <v>12.50179534204127</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.67109834744146</v>
+        <v>28.60222925227685</v>
       </c>
       <c r="C12">
-        <v>21.19478638413215</v>
+        <v>18.22410764287735</v>
       </c>
       <c r="D12">
-        <v>7.505279361132302</v>
+        <v>8.472840125362209</v>
       </c>
       <c r="E12">
-        <v>5.825944720243879</v>
+        <v>6.934585678130012</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.111027010037227</v>
+        <v>54.50277258211814</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.27856159303497</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>23.01400372122204</v>
       </c>
       <c r="J12">
-        <v>5.328959405309462</v>
+        <v>5.470774199446079</v>
       </c>
       <c r="K12">
-        <v>30.96153392195931</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.118486033936559</v>
+        <v>8.796085609954901</v>
       </c>
       <c r="M12">
-        <v>21.67215939970456</v>
+        <v>17.34144896454812</v>
       </c>
       <c r="N12">
-        <v>25.26598632342202</v>
+        <v>12.42231775590765</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.57616163838502</v>
+        <v>28.52141122473292</v>
       </c>
       <c r="C13">
-        <v>21.12774708245255</v>
+        <v>18.1717540728729</v>
       </c>
       <c r="D13">
-        <v>7.498447249295885</v>
+        <v>8.464642424273288</v>
       </c>
       <c r="E13">
-        <v>5.825914350632544</v>
+        <v>6.937195934205061</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.112157842789861</v>
+        <v>54.39618106034024</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.26319851284068</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>22.99537855141811</v>
       </c>
       <c r="J13">
-        <v>5.321078685992221</v>
+        <v>5.466735281271021</v>
       </c>
       <c r="K13">
-        <v>30.88388112379537</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>9.110597741621934</v>
+        <v>8.786896111481141</v>
       </c>
       <c r="M13">
-        <v>21.63221818973659</v>
+        <v>17.30656673116268</v>
       </c>
       <c r="N13">
-        <v>25.24517159163553</v>
+        <v>12.4394323931994</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.26685815744115</v>
+        <v>28.25677464134617</v>
       </c>
       <c r="C14">
-        <v>20.91918593995514</v>
+        <v>18.00031870876918</v>
       </c>
       <c r="D14">
-        <v>7.476353284822189</v>
+        <v>8.438027418634025</v>
       </c>
       <c r="E14">
-        <v>5.825854765013964</v>
+        <v>6.945740487611142</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.115838347392629</v>
+        <v>54.04923452885234</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.2134666548316</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>22.93533025602392</v>
       </c>
       <c r="J14">
-        <v>5.295416869353383</v>
+        <v>5.45356356421487</v>
       </c>
       <c r="K14">
-        <v>30.63092637032877</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>9.085110721255392</v>
+        <v>8.757023707453312</v>
       </c>
       <c r="M14">
-        <v>21.5024221049229</v>
+        <v>17.19265654762702</v>
       </c>
       <c r="N14">
-        <v>25.17756782553089</v>
+        <v>12.49525553337565</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.07762277988301</v>
+        <v>28.09385094733219</v>
       </c>
       <c r="C15">
-        <v>20.79235813421698</v>
+        <v>17.89476976970282</v>
       </c>
       <c r="D15">
-        <v>7.46296180789936</v>
+        <v>8.421816465954052</v>
       </c>
       <c r="E15">
-        <v>5.825847939653213</v>
+        <v>6.950998805595307</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.118087413489041</v>
+        <v>53.8372347105617</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.18328737638938</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>22.89907697269411</v>
       </c>
       <c r="J15">
-        <v>5.279726542055769</v>
+        <v>5.445495327976521</v>
       </c>
       <c r="K15">
-        <v>30.47619456150633</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>9.06967972742909</v>
+        <v>8.738800019404978</v>
       </c>
       <c r="M15">
-        <v>21.42326577625337</v>
+        <v>17.12276745701046</v>
       </c>
       <c r="N15">
-        <v>25.13636761167188</v>
+        <v>12.52945680091872</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.99610280645316</v>
+        <v>27.16825323067699</v>
       </c>
       <c r="C16">
-        <v>20.06439033402497</v>
+        <v>17.28152818675439</v>
       </c>
       <c r="D16">
-        <v>7.38831414352504</v>
+        <v>8.330308638033129</v>
       </c>
       <c r="E16">
-        <v>5.826238603811056</v>
+        <v>6.981507718287045</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.130906701672691</v>
+        <v>52.63021185813338</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.01460680616636</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>22.69925182733408</v>
       </c>
       <c r="J16">
-        <v>5.190181776292212</v>
+        <v>5.399247466909635</v>
       </c>
       <c r="K16">
-        <v>29.59229975694065</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.983913929338783</v>
+        <v>8.635495821910228</v>
       </c>
       <c r="M16">
-        <v>20.97472682864519</v>
+        <v>16.72052027627776</v>
       </c>
       <c r="N16">
-        <v>24.90330363382624</v>
+        <v>12.72562855533674</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.33475521058494</v>
+        <v>26.61790728232708</v>
       </c>
       <c r="C17">
-        <v>19.61638025753135</v>
+        <v>16.89772873640914</v>
       </c>
       <c r="D17">
-        <v>7.344308533327551</v>
+        <v>8.275400131758474</v>
       </c>
       <c r="E17">
-        <v>5.826836778311734</v>
+        <v>7.000558814331015</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.138722125318993</v>
+        <v>51.89674687992756</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.91485577794878</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.58356159630785</v>
       </c>
       <c r="J17">
-        <v>5.135516065204014</v>
+        <v>5.370855568590748</v>
       </c>
       <c r="K17">
-        <v>29.05217268242281</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.933569804991862</v>
+        <v>8.573123219861339</v>
       </c>
       <c r="M17">
-        <v>20.70384417383177</v>
+        <v>16.47224521245875</v>
       </c>
       <c r="N17">
-        <v>24.76286956216492</v>
+        <v>12.8461912827527</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.95498768403846</v>
+        <v>26.29801311011303</v>
       </c>
       <c r="C18">
-        <v>19.35803748593494</v>
+        <v>16.67414190517099</v>
       </c>
       <c r="D18">
-        <v>7.319625396173834</v>
+        <v>8.244265116127364</v>
       </c>
       <c r="E18">
-        <v>5.827303507743679</v>
+        <v>7.01163949048986</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.143204197241262</v>
+        <v>51.47745534290724</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.85882229116066</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.51948396662297</v>
       </c>
       <c r="J18">
-        <v>5.10414899462667</v>
+        <v>5.354514249704843</v>
       </c>
       <c r="K18">
-        <v>28.74214720059622</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.905408406690972</v>
+        <v>8.537614186991787</v>
       </c>
       <c r="M18">
-        <v>20.54952619137309</v>
+        <v>16.32890967658189</v>
       </c>
       <c r="N18">
-        <v>24.68296873179149</v>
+        <v>12.91563834521896</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.82649871610359</v>
+        <v>26.18912680382351</v>
       </c>
       <c r="C19">
-        <v>19.27044241273791</v>
+        <v>16.59794817516643</v>
       </c>
       <c r="D19">
-        <v>7.311373306805827</v>
+        <v>8.233799676898252</v>
       </c>
       <c r="E19">
-        <v>5.827481812634161</v>
+        <v>7.015412337893567</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.144719913633058</v>
+        <v>51.33593435365297</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.84007779761462</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.49820505207382</v>
       </c>
       <c r="J19">
-        <v>5.093539560212118</v>
+        <v>5.348979141910378</v>
       </c>
       <c r="K19">
-        <v>28.63727700914933</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.896006540176238</v>
+        <v>8.525654157716701</v>
       </c>
       <c r="M19">
-        <v>20.4975247633548</v>
+        <v>16.28028917347128</v>
       </c>
       <c r="N19">
-        <v>24.65606023655824</v>
+        <v>12.93917161797043</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.40508916907473</v>
+        <v>26.67683912878421</v>
       </c>
       <c r="C20">
-        <v>19.66413712035494</v>
+        <v>16.93887733665257</v>
       </c>
       <c r="D20">
-        <v>7.348927406039908</v>
+        <v>8.281198883342071</v>
       </c>
       <c r="E20">
-        <v>5.826760212987307</v>
+        <v>6.998518062784423</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.137891623750475</v>
+        <v>51.97455887624005</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>14.92533502850358</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.59562040257493</v>
       </c>
       <c r="J20">
-        <v>5.141327054693214</v>
+        <v>5.373879000986871</v>
       </c>
       <c r="K20">
-        <v>29.1096010237649</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.938845880854824</v>
+        <v>8.579724969220477</v>
       </c>
       <c r="M20">
-        <v>20.73252444605974</v>
+        <v>16.49873032175208</v>
       </c>
       <c r="N20">
-        <v>24.77772733232272</v>
+        <v>12.83334705605423</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.35766057150806</v>
+        <v>28.33467671048171</v>
       </c>
       <c r="C21">
-        <v>20.97998855319647</v>
+        <v>18.05078566415078</v>
       </c>
       <c r="D21">
-        <v>7.482813088143851</v>
+        <v>8.445825791304108</v>
       </c>
       <c r="E21">
-        <v>5.825866019918628</v>
+        <v>6.943225631520851</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.114758440728381</v>
+        <v>54.15103371733254</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.22801497257642</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>22.95285745560013</v>
       </c>
       <c r="J21">
-        <v>5.302948314828233</v>
+        <v>5.457432431082034</v>
       </c>
       <c r="K21">
-        <v>30.70518042710435</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>9.092558991820338</v>
+        <v>8.765782514344787</v>
       </c>
       <c r="M21">
-        <v>21.5404732929041</v>
+        <v>17.22613893740843</v>
       </c>
       <c r="N21">
-        <v>25.19738070849439</v>
+        <v>12.47885739648881</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.64324802362659</v>
+        <v>29.41901597661411</v>
       </c>
       <c r="C22">
-        <v>21.87802599257643</v>
+        <v>18.7531997760669</v>
       </c>
       <c r="D22">
-        <v>7.576576223913747</v>
+        <v>8.557501982589031</v>
       </c>
       <c r="E22">
-        <v>5.826584336318205</v>
+        <v>6.908186581362381</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.0994134226107</v>
+        <v>55.59653276789548</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.4384161920689</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>23.20977726734428</v>
       </c>
       <c r="J22">
-        <v>5.409778496635117</v>
+        <v>5.512021483028929</v>
       </c>
       <c r="K22">
-        <v>31.75700443150348</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.200991538088836</v>
+        <v>8.890689398321644</v>
       </c>
       <c r="M22">
-        <v>22.08382244749124</v>
+        <v>17.69640917278905</v>
       </c>
       <c r="N22">
-        <v>25.48083371401165</v>
+        <v>12.24759694772404</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.95600423743253</v>
+        <v>28.84362639744478</v>
       </c>
       <c r="C23">
-        <v>21.39562373727605</v>
+        <v>18.38048060580627</v>
       </c>
       <c r="D23">
-        <v>7.525923678652265</v>
+        <v>8.497519183398756</v>
       </c>
       <c r="E23">
-        <v>5.826070026094725</v>
+        <v>6.926786927917032</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.107629979064012</v>
+        <v>54.82291469329365</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.32493753203288</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>23.07043517807973</v>
       </c>
       <c r="J23">
-        <v>5.352621683361265</v>
+        <v>5.482883644158351</v>
       </c>
       <c r="K23">
-        <v>31.19460304145502</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>9.142341233660979</v>
+        <v>8.823718591205672</v>
       </c>
       <c r="M23">
-        <v>21.79230607005492</v>
+        <v>17.44590015406686</v>
       </c>
       <c r="N23">
-        <v>25.32863156037066</v>
+        <v>12.3710118639512</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.3732898224429</v>
+        <v>26.6502069227202</v>
       </c>
       <c r="C24">
-        <v>19.64254869096974</v>
+        <v>16.9202832080447</v>
       </c>
       <c r="D24">
-        <v>7.346837301055962</v>
+        <v>8.27857592132634</v>
       </c>
       <c r="E24">
-        <v>5.826794447711476</v>
+        <v>6.999440288047558</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.138267127019828</v>
+        <v>51.93937263595875</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.92059327130892</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.59016105067148</v>
       </c>
       <c r="J24">
-        <v>5.13869972181597</v>
+        <v>5.372512165472754</v>
       </c>
       <c r="K24">
-        <v>29.08363614266304</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.936458140064364</v>
+        <v>8.576739229205984</v>
       </c>
       <c r="M24">
-        <v>20.71955370464237</v>
+        <v>16.48675826444712</v>
       </c>
       <c r="N24">
-        <v>24.77100754309054</v>
+        <v>12.83915350842612</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.6106817716415</v>
+        <v>24.25566671498228</v>
       </c>
       <c r="C25">
-        <v>17.7427135493992</v>
+        <v>15.23634274255919</v>
       </c>
       <c r="D25">
-        <v>7.17741225183132</v>
+        <v>8.059451086638605</v>
       </c>
       <c r="E25">
-        <v>5.832198989588046</v>
+        <v>7.082513019178448</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.17085096873677</v>
+        <v>48.92812850061244</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.53534787776032</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.16547125015403</v>
       </c>
       <c r="J25">
-        <v>4.910657505051267</v>
+        <v>5.253004061726731</v>
       </c>
       <c r="K25">
-        <v>26.83068176092628</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.744447177479788</v>
+        <v>8.324322099375037</v>
       </c>
       <c r="M25">
-        <v>19.61877373377305</v>
+        <v>15.4321947038101</v>
       </c>
       <c r="N25">
-        <v>24.20241120317393</v>
+        <v>13.348281292647</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.38339499993574</v>
+        <v>22.53092045678167</v>
       </c>
       <c r="C2">
-        <v>13.89797671344711</v>
+        <v>8.721693494346196</v>
       </c>
       <c r="D2">
-        <v>7.912247541797216</v>
+        <v>12.63078510117451</v>
       </c>
       <c r="E2">
-        <v>7.147743233119347</v>
+        <v>12.21738794893011</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.79868324373381</v>
+        <v>58.8274148164793</v>
       </c>
       <c r="H2">
-        <v>14.29206171596306</v>
+        <v>21.69643440232802</v>
       </c>
       <c r="I2">
-        <v>21.92504730069008</v>
+        <v>33.05970174887393</v>
       </c>
       <c r="J2">
-        <v>5.164257655350096</v>
+        <v>7.685596870348577</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.150324883263762</v>
+        <v>13.24907472036026</v>
       </c>
       <c r="M2">
-        <v>14.64183228443867</v>
+        <v>20.38037353477413</v>
       </c>
       <c r="N2">
-        <v>13.72915993080279</v>
+        <v>21.27016493752229</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.04835231585457</v>
+        <v>22.24762660493843</v>
       </c>
       <c r="C3">
-        <v>12.92731661049775</v>
+        <v>8.339719073313539</v>
       </c>
       <c r="D3">
-        <v>7.821059598460218</v>
+        <v>12.64732452398467</v>
       </c>
       <c r="E3">
-        <v>7.194501788388105</v>
+        <v>12.23735975089206</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.41282056719893</v>
+        <v>58.76135607516459</v>
       </c>
       <c r="H3">
-        <v>14.15065589476064</v>
+        <v>21.73557944722167</v>
       </c>
       <c r="I3">
-        <v>21.80317711215761</v>
+        <v>33.13777545081675</v>
       </c>
       <c r="J3">
-        <v>5.103499096438923</v>
+        <v>7.669689668025995</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.03975139605023</v>
+        <v>13.2620300567123</v>
       </c>
       <c r="M3">
-        <v>14.09992814140266</v>
+        <v>20.33376262335443</v>
       </c>
       <c r="N3">
-        <v>13.99212184985804</v>
+        <v>21.342612008821</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.19718184378845</v>
+        <v>22.07718026780194</v>
       </c>
       <c r="C4">
-        <v>12.29926348032822</v>
+        <v>8.098226578982354</v>
       </c>
       <c r="D4">
-        <v>7.769214544180687</v>
+        <v>12.65942273304261</v>
       </c>
       <c r="E4">
-        <v>7.224476951069242</v>
+        <v>12.25032824361593</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.591231174246</v>
+        <v>58.73695725333977</v>
       </c>
       <c r="H4">
-        <v>14.0748285434367</v>
+        <v>21.76375826862347</v>
       </c>
       <c r="I4">
-        <v>21.74726581022199</v>
+        <v>33.1922771324933</v>
       </c>
       <c r="J4">
-        <v>5.065851170255174</v>
+        <v>7.659665917269</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.975468791874365</v>
+        <v>13.2718720544607</v>
       </c>
       <c r="M4">
-        <v>13.76512075061951</v>
+        <v>20.30877501149429</v>
       </c>
       <c r="N4">
-        <v>14.15629454622984</v>
+        <v>21.38906456552273</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.84266841708315</v>
+        <v>22.00868254850037</v>
       </c>
       <c r="C5">
-        <v>12.03516986015272</v>
+        <v>7.998223914241187</v>
       </c>
       <c r="D5">
-        <v>7.749116599890971</v>
+        <v>12.66484135850401</v>
       </c>
       <c r="E5">
-        <v>7.237011242257418</v>
+        <v>12.25579095203504</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.26397941359848</v>
+        <v>58.7310784843006</v>
       </c>
       <c r="H5">
-        <v>14.04660549545168</v>
+        <v>21.77628118522683</v>
       </c>
       <c r="I5">
-        <v>21.72903929239833</v>
+        <v>33.2161332468224</v>
       </c>
       <c r="J5">
-        <v>5.050418544503319</v>
+        <v>7.65551663794426</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.950179008307222</v>
+        <v>13.27635760754669</v>
       </c>
       <c r="M5">
-        <v>13.62833771026344</v>
+        <v>20.29951252573457</v>
       </c>
       <c r="N5">
-        <v>14.22392332667877</v>
+        <v>21.40849131803534</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.78334826061171</v>
+        <v>21.99736890437514</v>
       </c>
       <c r="C6">
-        <v>11.990821982717</v>
+        <v>7.981527355044127</v>
       </c>
       <c r="D6">
-        <v>7.745841118575139</v>
+        <v>12.66577061848772</v>
       </c>
       <c r="E6">
-        <v>7.239111860634114</v>
+        <v>12.25670879208251</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.21010068708608</v>
+        <v>58.73034770213303</v>
       </c>
       <c r="H6">
-        <v>14.04207815251884</v>
+        <v>21.77842334270655</v>
       </c>
       <c r="I6">
-        <v>21.72628223236706</v>
+        <v>33.22019383352971</v>
       </c>
       <c r="J6">
-        <v>5.047850356179842</v>
+        <v>7.654823756986633</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.946034298785213</v>
+        <v>13.27713111667017</v>
       </c>
       <c r="M6">
-        <v>13.60560957053225</v>
+        <v>20.29803026131186</v>
       </c>
       <c r="N6">
-        <v>14.23519821019076</v>
+        <v>21.4117471788975</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.19243135644536</v>
+        <v>22.07625248858537</v>
       </c>
       <c r="C7">
-        <v>12.2957349701483</v>
+        <v>8.096884133486466</v>
       </c>
       <c r="D7">
-        <v>7.76893934648835</v>
+        <v>12.65949383270768</v>
       </c>
       <c r="E7">
-        <v>7.22464469916197</v>
+        <v>12.25040119448542</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.58678693365634</v>
+        <v>58.73686151823787</v>
       </c>
       <c r="H7">
-        <v>14.07443719575812</v>
+        <v>21.76392294988706</v>
       </c>
       <c r="I7">
-        <v>21.74700181045792</v>
+        <v>33.19259220485753</v>
       </c>
       <c r="J7">
-        <v>5.065643413993513</v>
+        <v>7.659610219845119</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.975124060222289</v>
+        <v>13.27193062523029</v>
       </c>
       <c r="M7">
-        <v>13.76327720301304</v>
+        <v>20.30864636005388</v>
       </c>
       <c r="N7">
-        <v>14.15720361026344</v>
+        <v>21.3893245471919</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.92972976172573</v>
+        <v>22.43256407599166</v>
       </c>
       <c r="C8">
-        <v>13.56988995926644</v>
+        <v>8.59152125848493</v>
       </c>
       <c r="D8">
-        <v>7.879938287831766</v>
+        <v>12.6360846220828</v>
       </c>
       <c r="E8">
-        <v>7.163603569726493</v>
+        <v>12.22412804316213</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.3148545988159</v>
+        <v>58.80128448832427</v>
       </c>
       <c r="H8">
-        <v>14.2409705770976</v>
+        <v>21.70907038147379</v>
       </c>
       <c r="I8">
-        <v>21.87898058131247</v>
+        <v>33.08525661325718</v>
       </c>
       <c r="J8">
-        <v>5.143375961294219</v>
+        <v>7.68016534820559</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.111449001519754</v>
+        <v>13.2531501774785</v>
       </c>
       <c r="M8">
-        <v>14.45551405903304</v>
+        <v>20.36355273041567</v>
       </c>
       <c r="N8">
-        <v>13.81929398725802</v>
+        <v>21.29473685982601</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.07936911864888</v>
+        <v>23.15540363740435</v>
       </c>
       <c r="C9">
-        <v>15.81857216416691</v>
+        <v>9.500353608802035</v>
       </c>
       <c r="D9">
-        <v>8.131034824367621</v>
+        <v>12.60559645190195</v>
       </c>
       <c r="E9">
-        <v>7.053900214901741</v>
+        <v>12.17818420003544</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.92910844543266</v>
+        <v>59.05570013002591</v>
       </c>
       <c r="H9">
-        <v>14.6586217602543</v>
+        <v>21.63447154374701</v>
       </c>
       <c r="I9">
-        <v>22.29676788355828</v>
+        <v>32.92704379972538</v>
       </c>
       <c r="J9">
-        <v>5.293355911437696</v>
+        <v>7.718437549495623</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.407499163630918</v>
+        <v>13.23128368207391</v>
       </c>
       <c r="M9">
-        <v>15.78985014447897</v>
+        <v>20.4997031698923</v>
       </c>
       <c r="N9">
-        <v>13.17600076016669</v>
+        <v>21.12480325492409</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.23059807336436</v>
+        <v>23.69625396033085</v>
       </c>
       <c r="C10">
-        <v>17.32494130746126</v>
+        <v>10.12408692294239</v>
       </c>
       <c r="D10">
-        <v>8.336634962797117</v>
+        <v>12.59259403595051</v>
       </c>
       <c r="E10">
-        <v>6.979350524960686</v>
+        <v>12.14779909723481</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.71425411185701</v>
+        <v>59.32027603163028</v>
       </c>
       <c r="H10">
-        <v>15.0261728961003</v>
+        <v>21.59987457352116</v>
       </c>
       <c r="I10">
-        <v>22.7127918597441</v>
+        <v>32.84291953320297</v>
       </c>
       <c r="J10">
-        <v>5.402485935353402</v>
+        <v>7.745316592154632</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.642662695157098</v>
+        <v>13.22431851852878</v>
       </c>
       <c r="M10">
-        <v>16.74877622000033</v>
+        <v>20.61659954244581</v>
       </c>
       <c r="N10">
-        <v>12.71188379582682</v>
+        <v>21.00932489081068</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.22566774214363</v>
+        <v>23.94338168166124</v>
       </c>
       <c r="C11">
-        <v>17.98016663238733</v>
+        <v>10.39718627628087</v>
       </c>
       <c r="D11">
-        <v>8.434921970937365</v>
+        <v>12.58871746178839</v>
       </c>
       <c r="E11">
-        <v>6.946744584238353</v>
+        <v>12.13470139645309</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.00866316558479</v>
+        <v>59.45733383271736</v>
       </c>
       <c r="H11">
-        <v>15.20767873221356</v>
+        <v>21.58854428195269</v>
       </c>
       <c r="I11">
-        <v>22.92836633727337</v>
+        <v>32.81167123520603</v>
       </c>
       <c r="J11">
-        <v>5.452020689089212</v>
+        <v>7.757275823929974</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.753534395533789</v>
+        <v>13.22311969251083</v>
       </c>
       <c r="M11">
-        <v>17.17929845838013</v>
+        <v>20.67332085702228</v>
       </c>
       <c r="N11">
-        <v>12.50179534204127</v>
+        <v>20.95880235889913</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.60222925227685</v>
+        <v>24.03703372355661</v>
       </c>
       <c r="C12">
-        <v>18.22410764287735</v>
+        <v>10.49899794910398</v>
       </c>
       <c r="D12">
-        <v>8.472840125362209</v>
+        <v>12.58754225657682</v>
       </c>
       <c r="E12">
-        <v>6.934585678130012</v>
+        <v>12.12984535134765</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.50277258211814</v>
+        <v>59.51161536377969</v>
       </c>
       <c r="H12">
-        <v>15.27856159303497</v>
+        <v>21.58488890486268</v>
       </c>
       <c r="I12">
-        <v>23.01400372122204</v>
+        <v>32.8008513590545</v>
       </c>
       <c r="J12">
-        <v>5.470774199446079</v>
+        <v>7.761765887556322</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.796085609954901</v>
+        <v>13.22294824547741</v>
       </c>
       <c r="M12">
-        <v>17.34144896454812</v>
+        <v>20.69529812622817</v>
       </c>
       <c r="N12">
-        <v>12.42231775590765</v>
+        <v>20.93995796451476</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.52141122473292</v>
+        <v>24.01686232616388</v>
       </c>
       <c r="C13">
-        <v>18.1717540728729</v>
+        <v>10.47714344511159</v>
       </c>
       <c r="D13">
-        <v>8.464642424273288</v>
+        <v>12.58778234340507</v>
       </c>
       <c r="E13">
-        <v>6.937195934205061</v>
+        <v>12.13088657918097</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.39618106034024</v>
+        <v>59.49981935239247</v>
       </c>
       <c r="H13">
-        <v>15.26319851284068</v>
+        <v>21.58564788890178</v>
       </c>
       <c r="I13">
-        <v>22.99537855141811</v>
+        <v>32.80313649617874</v>
       </c>
       <c r="J13">
-        <v>5.466735281271021</v>
+        <v>7.760800591666528</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.786896111481141</v>
+        <v>13.22297261680958</v>
       </c>
       <c r="M13">
-        <v>17.30656673116268</v>
+        <v>20.69054296430485</v>
       </c>
       <c r="N13">
-        <v>12.4394323931994</v>
+        <v>20.94400368429953</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.25677464134617</v>
+        <v>23.95108557739353</v>
       </c>
       <c r="C14">
-        <v>18.00031870876918</v>
+        <v>10.4055949419202</v>
       </c>
       <c r="D14">
-        <v>8.438027418634025</v>
+        <v>12.58861491167276</v>
       </c>
       <c r="E14">
-        <v>6.945740487611142</v>
+        <v>12.13429980945302</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>54.04923452885234</v>
+        <v>59.46175202618527</v>
       </c>
       <c r="H14">
-        <v>15.2134666548316</v>
+        <v>21.58823081583574</v>
       </c>
       <c r="I14">
-        <v>22.93533025602392</v>
+        <v>32.81076075188921</v>
       </c>
       <c r="J14">
-        <v>5.45356356421487</v>
+        <v>7.757645998964584</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.757023707453312</v>
+        <v>13.22309992972644</v>
       </c>
       <c r="M14">
-        <v>17.19265654762702</v>
+        <v>20.67511902531418</v>
       </c>
       <c r="N14">
-        <v>12.49525553337565</v>
+        <v>20.9572462681538</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.09385094733219</v>
+        <v>23.91080200383359</v>
       </c>
       <c r="C15">
-        <v>17.89476976970282</v>
+        <v>10.36155835315475</v>
       </c>
       <c r="D15">
-        <v>8.421816465954052</v>
+        <v>12.58916299941594</v>
       </c>
       <c r="E15">
-        <v>6.950998805595307</v>
+        <v>12.13640401271967</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.8372347105617</v>
+        <v>59.43874404838677</v>
       </c>
       <c r="H15">
-        <v>15.18328737638938</v>
+        <v>21.58989568367447</v>
       </c>
       <c r="I15">
-        <v>22.89907697269411</v>
+        <v>32.81556287830839</v>
       </c>
       <c r="J15">
-        <v>5.445495327976521</v>
+        <v>7.755708685794106</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.738800019404978</v>
+        <v>13.22321468247019</v>
       </c>
       <c r="M15">
-        <v>17.12276745701046</v>
+        <v>20.6657359352467</v>
       </c>
       <c r="N15">
-        <v>12.52945680091872</v>
+        <v>20.96539511504635</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.16825323067699</v>
+        <v>23.68011809158971</v>
       </c>
       <c r="C16">
-        <v>17.28152818675439</v>
+        <v>10.10601844309929</v>
       </c>
       <c r="D16">
-        <v>8.330308638033129</v>
+        <v>12.59288836841078</v>
       </c>
       <c r="E16">
-        <v>6.981507718287045</v>
+        <v>12.14866960728893</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.63021185813338</v>
+        <v>59.31165334745438</v>
       </c>
       <c r="H16">
-        <v>15.01460680616636</v>
+        <v>21.60070385125822</v>
       </c>
       <c r="I16">
-        <v>22.69925182733408</v>
+        <v>32.84510326865542</v>
       </c>
       <c r="J16">
-        <v>5.399247466909635</v>
+        <v>7.744529625534077</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.635495821910228</v>
+        <v>13.22443644061022</v>
       </c>
       <c r="M16">
-        <v>16.72052027627776</v>
+        <v>20.61296302322447</v>
       </c>
       <c r="N16">
-        <v>12.72562855533674</v>
+        <v>21.01266695608034</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.61790728232708</v>
+        <v>23.53881835873434</v>
       </c>
       <c r="C17">
-        <v>16.89772873640914</v>
+        <v>9.946470574259667</v>
       </c>
       <c r="D17">
-        <v>8.275400131758474</v>
+        <v>12.59569560915287</v>
       </c>
       <c r="E17">
-        <v>7.000558814331015</v>
+        <v>12.15637944010263</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.89674687992756</v>
+        <v>59.23795114293081</v>
       </c>
       <c r="H17">
-        <v>14.91485577794878</v>
+        <v>21.60846430833005</v>
       </c>
       <c r="I17">
-        <v>22.58356159630785</v>
+        <v>32.86502609691325</v>
       </c>
       <c r="J17">
-        <v>5.370855568590748</v>
+        <v>7.737602895491786</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.573123219861339</v>
+        <v>13.22568995171587</v>
       </c>
       <c r="M17">
-        <v>16.47224521245875</v>
+        <v>20.58148838080381</v>
       </c>
       <c r="N17">
-        <v>12.8461912827527</v>
+        <v>21.04218020596257</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29801311011303</v>
+        <v>23.45765440263494</v>
       </c>
       <c r="C18">
-        <v>16.67414190517099</v>
+        <v>9.853705050765608</v>
       </c>
       <c r="D18">
-        <v>8.244265116127364</v>
+        <v>12.59750213938785</v>
       </c>
       <c r="E18">
-        <v>7.01163949048986</v>
+        <v>12.16088216363661</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.47745534290724</v>
+        <v>59.1971330344356</v>
       </c>
       <c r="H18">
-        <v>14.85882229116066</v>
+        <v>21.61334276189455</v>
       </c>
       <c r="I18">
-        <v>22.51948396662297</v>
+        <v>32.87714575805132</v>
       </c>
       <c r="J18">
-        <v>5.354514249704843</v>
+        <v>7.733593585913121</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.537614186991787</v>
+        <v>13.22659638098477</v>
       </c>
       <c r="M18">
-        <v>16.32890967658189</v>
+        <v>20.56371936565212</v>
       </c>
       <c r="N18">
-        <v>12.91563834521896</v>
+        <v>21.05934464830826</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18912680382351</v>
+        <v>23.43019489146185</v>
       </c>
       <c r="C19">
-        <v>16.59794817516643</v>
+        <v>9.822127347014943</v>
       </c>
       <c r="D19">
-        <v>8.233799676898252</v>
+        <v>12.59814676359214</v>
       </c>
       <c r="E19">
-        <v>7.015412337893567</v>
+        <v>12.16241844052309</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.33593435365297</v>
+        <v>59.18358354120834</v>
       </c>
       <c r="H19">
-        <v>14.84007779761462</v>
+        <v>21.61506572913996</v>
       </c>
       <c r="I19">
-        <v>22.49820505207382</v>
+        <v>32.88136260532758</v>
       </c>
       <c r="J19">
-        <v>5.348979141910378</v>
+        <v>7.732231770184369</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.525654157716701</v>
+        <v>13.22693515241594</v>
       </c>
       <c r="M19">
-        <v>16.28028917347128</v>
+        <v>20.55776085180274</v>
       </c>
       <c r="N19">
-        <v>12.93917161797043</v>
+        <v>21.06518877562821</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.67683912878421</v>
+        <v>23.55384942310601</v>
       </c>
       <c r="C20">
-        <v>16.93887733665257</v>
+        <v>9.963558567968869</v>
       </c>
       <c r="D20">
-        <v>8.281198883342071</v>
+        <v>12.59537691690713</v>
       </c>
       <c r="E20">
-        <v>6.998518062784423</v>
+        <v>12.15555165667109</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.97455887624005</v>
+        <v>59.24563416218158</v>
       </c>
       <c r="H20">
-        <v>14.92533502850358</v>
+        <v>21.60759524973695</v>
       </c>
       <c r="I20">
-        <v>22.59562040257493</v>
+        <v>32.86283688333715</v>
       </c>
       <c r="J20">
-        <v>5.373879000986871</v>
+        <v>7.738342870243697</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.579724969220477</v>
+        <v>13.22553732556993</v>
       </c>
       <c r="M20">
-        <v>16.49873032175208</v>
+        <v>20.58480438632</v>
       </c>
       <c r="N20">
-        <v>12.83334705605423</v>
+        <v>21.03901889963289</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.33467671048171</v>
+        <v>23.97040458332676</v>
       </c>
       <c r="C21">
-        <v>18.05078566415078</v>
+        <v>10.42665457532146</v>
       </c>
       <c r="D21">
-        <v>8.445825791304108</v>
+        <v>12.58836242365869</v>
       </c>
       <c r="E21">
-        <v>6.943225631520851</v>
+        <v>12.1332944481173</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.15103371733254</v>
+        <v>59.47286889485743</v>
       </c>
       <c r="H21">
-        <v>15.22801497257642</v>
+        <v>21.58745490048447</v>
       </c>
       <c r="I21">
-        <v>22.95285745560013</v>
+        <v>32.80849379797792</v>
       </c>
       <c r="J21">
-        <v>5.457432431082034</v>
+        <v>7.758573628539465</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.765782514344787</v>
+        <v>13.22305487343243</v>
       </c>
       <c r="M21">
-        <v>17.22613893740843</v>
+        <v>20.67963598614358</v>
       </c>
       <c r="N21">
-        <v>12.47885739648881</v>
+        <v>20.95334881261337</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.41901597661411</v>
+        <v>24.24301730969085</v>
       </c>
       <c r="C22">
-        <v>18.7531997760669</v>
+        <v>10.719931745709</v>
       </c>
       <c r="D22">
-        <v>8.557501982589031</v>
+        <v>12.58548430692316</v>
       </c>
       <c r="E22">
-        <v>6.908186581362381</v>
+        <v>12.11935272897109</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.59653276789548</v>
+        <v>59.63524435280549</v>
       </c>
       <c r="H22">
-        <v>15.4384161920689</v>
+        <v>21.57799463538044</v>
       </c>
       <c r="I22">
-        <v>23.20977726734428</v>
+        <v>32.77888452020805</v>
       </c>
       <c r="J22">
-        <v>5.512021483028929</v>
+        <v>7.771570350467324</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.890689398321644</v>
+        <v>13.22307880308232</v>
       </c>
       <c r="M22">
-        <v>17.69640917278905</v>
+        <v>20.74451163437924</v>
       </c>
       <c r="N22">
-        <v>12.24759694772404</v>
+        <v>20.89903289949104</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.84362639744478</v>
+        <v>24.09751315958397</v>
       </c>
       <c r="C23">
-        <v>18.38048060580627</v>
+        <v>10.5642846075424</v>
       </c>
       <c r="D23">
-        <v>8.497519183398756</v>
+        <v>12.58686442447676</v>
       </c>
       <c r="E23">
-        <v>6.926786927917032</v>
+        <v>12.12673850254412</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.82291469329365</v>
+        <v>59.54732074095384</v>
       </c>
       <c r="H23">
-        <v>15.32493753203288</v>
+        <v>21.58270460377722</v>
       </c>
       <c r="I23">
-        <v>23.07043517807973</v>
+        <v>32.79414591133401</v>
       </c>
       <c r="J23">
-        <v>5.482883644158351</v>
+        <v>7.764654390974989</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.823718591205672</v>
+        <v>13.22291565087792</v>
       </c>
       <c r="M23">
-        <v>17.44590015406686</v>
+        <v>20.70962512608033</v>
       </c>
       <c r="N23">
-        <v>12.3710118639512</v>
+        <v>20.92786961343229</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.6502069227202</v>
+        <v>23.54705365064507</v>
       </c>
       <c r="C24">
-        <v>16.9202832080447</v>
+        <v>9.955836317506014</v>
       </c>
       <c r="D24">
-        <v>8.27857592132634</v>
+        <v>12.59552039770227</v>
       </c>
       <c r="E24">
-        <v>6.999440288047558</v>
+        <v>12.1559256787506</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.93937263595875</v>
+        <v>59.24215582623763</v>
       </c>
       <c r="H24">
-        <v>14.92059327130892</v>
+        <v>21.60798685271212</v>
       </c>
       <c r="I24">
-        <v>22.59016105067148</v>
+        <v>32.86382455326486</v>
       </c>
       <c r="J24">
-        <v>5.372512165472754</v>
+        <v>7.738008411883615</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.576739229205984</v>
+        <v>13.22560574915309</v>
       </c>
       <c r="M24">
-        <v>16.48675826444712</v>
+        <v>20.5833042033502</v>
       </c>
       <c r="N24">
-        <v>12.83915350842612</v>
+        <v>21.040447512819</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.25566671498228</v>
+        <v>22.95778230682006</v>
       </c>
       <c r="C25">
-        <v>15.23634274255919</v>
+        <v>9.261793110064103</v>
       </c>
       <c r="D25">
-        <v>8.059451086638605</v>
+        <v>12.61219359833029</v>
       </c>
       <c r="E25">
-        <v>7.082513019178448</v>
+        <v>12.19001926095181</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.92812850061244</v>
+        <v>58.97319113595153</v>
       </c>
       <c r="H25">
-        <v>14.53534787776032</v>
+        <v>21.65111064794306</v>
       </c>
       <c r="I25">
-        <v>22.16547125015403</v>
+        <v>32.96422191281799</v>
       </c>
       <c r="J25">
-        <v>5.253004061726731</v>
+        <v>7.708301698820935</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.324322099375037</v>
+        <v>13.23559917916856</v>
       </c>
       <c r="M25">
-        <v>15.4321947038101</v>
+        <v>20.45987015025136</v>
       </c>
       <c r="N25">
-        <v>13.348281292647</v>
+        <v>21.16912113461057</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.53092045678167</v>
+        <v>22.38339499993578</v>
       </c>
       <c r="C2">
-        <v>8.721693494346196</v>
+        <v>13.89797671344721</v>
       </c>
       <c r="D2">
-        <v>12.63078510117451</v>
+        <v>7.91224754179733</v>
       </c>
       <c r="E2">
-        <v>12.21738794893011</v>
+        <v>7.147743233119545</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>58.8274148164793</v>
+        <v>46.79868324373373</v>
       </c>
       <c r="H2">
-        <v>21.69643440232802</v>
+        <v>14.29206171596304</v>
       </c>
       <c r="I2">
-        <v>33.05970174887393</v>
+        <v>21.9250473006901</v>
       </c>
       <c r="J2">
-        <v>7.685596870348577</v>
+        <v>5.164257655350228</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.24907472036026</v>
+        <v>8.150324883263798</v>
       </c>
       <c r="M2">
-        <v>20.38037353477413</v>
+        <v>14.64183228443869</v>
       </c>
       <c r="N2">
-        <v>21.27016493752229</v>
+        <v>13.72915993080276</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.24762660493843</v>
+        <v>21.04835231585459</v>
       </c>
       <c r="C3">
-        <v>8.339719073313539</v>
+        <v>12.92731661049774</v>
       </c>
       <c r="D3">
-        <v>12.64732452398467</v>
+        <v>7.821059598460263</v>
       </c>
       <c r="E3">
-        <v>12.23735975089206</v>
+        <v>7.194501788388104</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.76135607516459</v>
+        <v>45.41282056719902</v>
       </c>
       <c r="H3">
-        <v>21.73557944722167</v>
+        <v>14.15065589476064</v>
       </c>
       <c r="I3">
-        <v>33.13777545081675</v>
+        <v>21.80317711215765</v>
       </c>
       <c r="J3">
-        <v>7.669689668025995</v>
+        <v>5.103499096438889</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.2620300567123</v>
+        <v>8.039751396050226</v>
       </c>
       <c r="M3">
-        <v>20.33376262335443</v>
+        <v>14.09992814140266</v>
       </c>
       <c r="N3">
-        <v>21.342612008821</v>
+        <v>13.99212184985811</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.07718026780194</v>
+        <v>20.19718184378847</v>
       </c>
       <c r="C4">
-        <v>8.098226578982354</v>
+        <v>12.29926348032821</v>
       </c>
       <c r="D4">
-        <v>12.65942273304261</v>
+        <v>7.769214544180728</v>
       </c>
       <c r="E4">
-        <v>12.25032824361593</v>
+        <v>7.224476951069373</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>58.73695725333977</v>
+        <v>44.59123117424615</v>
       </c>
       <c r="H4">
-        <v>21.76375826862347</v>
+        <v>14.07482854343672</v>
       </c>
       <c r="I4">
-        <v>33.1922771324933</v>
+        <v>21.74726581022206</v>
       </c>
       <c r="J4">
-        <v>7.659665917269</v>
+        <v>5.065851170255202</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.2718720544607</v>
+        <v>7.975468791874414</v>
       </c>
       <c r="M4">
-        <v>20.30877501149429</v>
+        <v>13.76512075061957</v>
       </c>
       <c r="N4">
-        <v>21.38906456552273</v>
+        <v>14.15629454622984</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.00868254850037</v>
+        <v>19.84266841708315</v>
       </c>
       <c r="C5">
-        <v>7.998223914241187</v>
+        <v>12.03516986015272</v>
       </c>
       <c r="D5">
-        <v>12.66484135850401</v>
+        <v>7.749116599890674</v>
       </c>
       <c r="E5">
-        <v>12.25579095203504</v>
+        <v>7.237011242257481</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>58.7310784843006</v>
+        <v>44.26397941359845</v>
       </c>
       <c r="H5">
-        <v>21.77628118522683</v>
+        <v>14.04660549545171</v>
       </c>
       <c r="I5">
-        <v>33.2161332468224</v>
+        <v>21.72903929239829</v>
       </c>
       <c r="J5">
-        <v>7.65551663794426</v>
+        <v>5.050418544503551</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.27635760754669</v>
+        <v>7.950179008307266</v>
       </c>
       <c r="M5">
-        <v>20.29951252573457</v>
+        <v>13.62833771026344</v>
       </c>
       <c r="N5">
-        <v>21.40849131803534</v>
+        <v>14.22392332667871</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99736890437514</v>
+        <v>19.78334826061165</v>
       </c>
       <c r="C6">
-        <v>7.981527355044127</v>
+        <v>11.99082198271688</v>
       </c>
       <c r="D6">
-        <v>12.66577061848772</v>
+        <v>7.745841118575184</v>
       </c>
       <c r="E6">
-        <v>12.25670879208251</v>
+        <v>7.239111860634118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>58.73034770213303</v>
+        <v>44.21010068708593</v>
       </c>
       <c r="H6">
-        <v>21.77842334270655</v>
+        <v>14.04207815251882</v>
       </c>
       <c r="I6">
-        <v>33.22019383352971</v>
+        <v>21.726282232367</v>
       </c>
       <c r="J6">
-        <v>7.654823756986633</v>
+        <v>5.04785035617984</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.27713111667017</v>
+        <v>7.946034298785238</v>
       </c>
       <c r="M6">
-        <v>20.29803026131186</v>
+        <v>13.60560957053224</v>
       </c>
       <c r="N6">
-        <v>21.4117471788975</v>
+        <v>14.23519821019076</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.07625248858537</v>
+        <v>20.19243135644541</v>
       </c>
       <c r="C7">
-        <v>8.096884133486466</v>
+        <v>12.29573497014819</v>
       </c>
       <c r="D7">
-        <v>12.65949383270768</v>
+        <v>7.76893934648845</v>
       </c>
       <c r="E7">
-        <v>12.25040119448542</v>
+        <v>7.224644699162037</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>58.73686151823787</v>
+        <v>44.58678693365661</v>
       </c>
       <c r="H7">
-        <v>21.76392294988706</v>
+        <v>14.07443719575825</v>
       </c>
       <c r="I7">
-        <v>33.19259220485753</v>
+        <v>21.74700181045806</v>
       </c>
       <c r="J7">
-        <v>7.659610219845119</v>
+        <v>5.065643413993548</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.27193062523029</v>
+        <v>7.975124060222403</v>
       </c>
       <c r="M7">
-        <v>20.30864636005388</v>
+        <v>13.76327720301313</v>
       </c>
       <c r="N7">
-        <v>21.3893245471919</v>
+        <v>14.15720361026344</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.43256407599166</v>
+        <v>21.92972976172573</v>
       </c>
       <c r="C8">
-        <v>8.59152125848493</v>
+        <v>13.56988995926637</v>
       </c>
       <c r="D8">
-        <v>12.6360846220828</v>
+        <v>7.879938287831817</v>
       </c>
       <c r="E8">
-        <v>12.22412804316213</v>
+        <v>7.16360356972656</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>58.80128448832427</v>
+        <v>46.31485459881593</v>
       </c>
       <c r="H8">
-        <v>21.70907038147379</v>
+        <v>14.24097057709758</v>
       </c>
       <c r="I8">
-        <v>33.08525661325718</v>
+        <v>21.87898058131238</v>
       </c>
       <c r="J8">
-        <v>7.68016534820559</v>
+        <v>5.143375961294186</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.2531501774785</v>
+        <v>8.111449001519794</v>
       </c>
       <c r="M8">
-        <v>20.36355273041567</v>
+        <v>14.45551405903305</v>
       </c>
       <c r="N8">
-        <v>21.29473685982601</v>
+        <v>13.81929398725798</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.15540363740435</v>
+        <v>25.07936911864889</v>
       </c>
       <c r="C9">
-        <v>9.500353608802035</v>
+        <v>15.81857216416684</v>
       </c>
       <c r="D9">
-        <v>12.60559645190195</v>
+        <v>8.131034824367608</v>
       </c>
       <c r="E9">
-        <v>12.17818420003544</v>
+        <v>7.053900214901808</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>59.05570013002591</v>
+        <v>49.9291084454328</v>
       </c>
       <c r="H9">
-        <v>21.63447154374701</v>
+        <v>14.65862176025433</v>
       </c>
       <c r="I9">
-        <v>32.92704379972538</v>
+        <v>22.29676788355831</v>
       </c>
       <c r="J9">
-        <v>7.718437549495623</v>
+        <v>5.293355911437791</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.23128368207391</v>
+        <v>8.407499163630968</v>
       </c>
       <c r="M9">
-        <v>20.4997031698923</v>
+        <v>15.78985014447898</v>
       </c>
       <c r="N9">
-        <v>21.12480325492409</v>
+        <v>13.17600076016673</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.69625396033085</v>
+        <v>27.2305980733644</v>
       </c>
       <c r="C10">
-        <v>10.12408692294239</v>
+        <v>17.32494130746136</v>
       </c>
       <c r="D10">
-        <v>12.59259403595051</v>
+        <v>8.336634962797245</v>
       </c>
       <c r="E10">
-        <v>12.14779909723481</v>
+        <v>6.97935052496062</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>59.32027603163028</v>
+        <v>52.71425411185719</v>
       </c>
       <c r="H10">
-        <v>21.59987457352116</v>
+        <v>15.02617289610032</v>
       </c>
       <c r="I10">
-        <v>32.84291953320297</v>
+        <v>22.71279185974417</v>
       </c>
       <c r="J10">
-        <v>7.745316592154632</v>
+        <v>5.402485935353373</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.22431851852878</v>
+        <v>8.642662695157043</v>
       </c>
       <c r="M10">
-        <v>20.61659954244581</v>
+        <v>16.74877622000033</v>
       </c>
       <c r="N10">
-        <v>21.00932489081068</v>
+        <v>12.71188379582682</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.94338168166124</v>
+        <v>28.22566774214366</v>
       </c>
       <c r="C11">
-        <v>10.39718627628087</v>
+        <v>17.98016663238732</v>
       </c>
       <c r="D11">
-        <v>12.58871746178839</v>
+        <v>8.434921970937403</v>
       </c>
       <c r="E11">
-        <v>12.13470139645309</v>
+        <v>6.946744584238552</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>59.45733383271736</v>
+        <v>54.00866316558489</v>
       </c>
       <c r="H11">
-        <v>21.58854428195269</v>
+        <v>15.20767873221352</v>
       </c>
       <c r="I11">
-        <v>32.81167123520603</v>
+        <v>22.92836633727335</v>
       </c>
       <c r="J11">
-        <v>7.757275823929974</v>
+        <v>5.452020689089212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.22311969251083</v>
+        <v>8.753534395533812</v>
       </c>
       <c r="M11">
-        <v>20.67332085702228</v>
+        <v>17.17929845838017</v>
       </c>
       <c r="N11">
-        <v>20.95880235889913</v>
+        <v>12.50179534204124</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.03703372355661</v>
+        <v>28.6022292522769</v>
       </c>
       <c r="C12">
-        <v>10.49899794910398</v>
+        <v>18.22410764287747</v>
       </c>
       <c r="D12">
-        <v>12.58754225657682</v>
+        <v>8.472840125362239</v>
       </c>
       <c r="E12">
-        <v>12.12984535134765</v>
+        <v>6.93458567813008</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.51161536377969</v>
+        <v>54.50277258211804</v>
       </c>
       <c r="H12">
-        <v>21.58488890486268</v>
+        <v>15.27856159303493</v>
       </c>
       <c r="I12">
-        <v>32.8008513590545</v>
+        <v>23.014003721222</v>
       </c>
       <c r="J12">
-        <v>7.761765887556322</v>
+        <v>5.470774199446079</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.22294824547741</v>
+        <v>8.796085609954869</v>
       </c>
       <c r="M12">
-        <v>20.69529812622817</v>
+        <v>17.34144896454812</v>
       </c>
       <c r="N12">
-        <v>20.93995796451476</v>
+        <v>12.42231775590762</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.01686232616388</v>
+        <v>28.52141122473292</v>
       </c>
       <c r="C13">
-        <v>10.47714344511159</v>
+        <v>18.17175407287285</v>
       </c>
       <c r="D13">
-        <v>12.58778234340507</v>
+        <v>8.464642424273212</v>
       </c>
       <c r="E13">
-        <v>12.13088657918097</v>
+        <v>6.937195934204926</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>59.49981935239247</v>
+        <v>54.39618106034029</v>
       </c>
       <c r="H13">
-        <v>21.58564788890178</v>
+        <v>15.2631985128407</v>
       </c>
       <c r="I13">
-        <v>32.80313649617874</v>
+        <v>22.99537855141812</v>
       </c>
       <c r="J13">
-        <v>7.760800591666528</v>
+        <v>5.46673528127096</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.22297261680958</v>
+        <v>8.786896111481097</v>
       </c>
       <c r="M13">
-        <v>20.69054296430485</v>
+        <v>17.30656673116267</v>
       </c>
       <c r="N13">
-        <v>20.94400368429953</v>
+        <v>12.43943239319941</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.95108557739353</v>
+        <v>28.25677464134613</v>
       </c>
       <c r="C14">
-        <v>10.4055949419202</v>
+        <v>18.00031870876921</v>
       </c>
       <c r="D14">
-        <v>12.58861491167276</v>
+        <v>8.438027418634086</v>
       </c>
       <c r="E14">
-        <v>12.13429980945302</v>
+        <v>6.945740487611209</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>59.46175202618527</v>
+        <v>54.04923452885247</v>
       </c>
       <c r="H14">
-        <v>21.58823081583574</v>
+        <v>15.21346665483163</v>
       </c>
       <c r="I14">
-        <v>32.81076075188921</v>
+        <v>22.93533025602406</v>
       </c>
       <c r="J14">
-        <v>7.757645998964584</v>
+        <v>5.453563564214901</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.22309992972644</v>
+        <v>8.757023707453344</v>
       </c>
       <c r="M14">
-        <v>20.67511902531418</v>
+        <v>17.19265654762706</v>
       </c>
       <c r="N14">
-        <v>20.9572462681538</v>
+        <v>12.49525553337575</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.91080200383359</v>
+        <v>28.09385094733216</v>
       </c>
       <c r="C15">
-        <v>10.36155835315475</v>
+        <v>17.89476976970271</v>
       </c>
       <c r="D15">
-        <v>12.58916299941594</v>
+        <v>8.421816465953986</v>
       </c>
       <c r="E15">
-        <v>12.13640401271967</v>
+        <v>6.950998805595303</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>59.43874404838677</v>
+        <v>53.8372347105619</v>
       </c>
       <c r="H15">
-        <v>21.58989568367447</v>
+        <v>15.18328737638946</v>
       </c>
       <c r="I15">
-        <v>32.81556287830839</v>
+        <v>22.89907697269425</v>
       </c>
       <c r="J15">
-        <v>7.755708685794106</v>
+        <v>5.445495327976619</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.22321468247019</v>
+        <v>8.738800019405</v>
       </c>
       <c r="M15">
-        <v>20.6657359352467</v>
+        <v>17.12276745701049</v>
       </c>
       <c r="N15">
-        <v>20.96539511504635</v>
+        <v>12.52945680091882</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.68011809158971</v>
+        <v>27.16825323067705</v>
       </c>
       <c r="C16">
-        <v>10.10601844309929</v>
+        <v>17.28152818675429</v>
       </c>
       <c r="D16">
-        <v>12.59288836841078</v>
+        <v>8.330308638033069</v>
       </c>
       <c r="E16">
-        <v>12.14866960728893</v>
+        <v>6.981507718286843</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>59.31165334745438</v>
+        <v>52.6302118581335</v>
       </c>
       <c r="H16">
-        <v>21.60070385125822</v>
+        <v>15.01460680616633</v>
       </c>
       <c r="I16">
-        <v>32.84510326865542</v>
+        <v>22.69925182733401</v>
       </c>
       <c r="J16">
-        <v>7.744529625534077</v>
+        <v>5.399247466909603</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.22443644061022</v>
+        <v>8.635495821910204</v>
       </c>
       <c r="M16">
-        <v>20.61296302322447</v>
+        <v>16.72052027627774</v>
       </c>
       <c r="N16">
-        <v>21.01266695608034</v>
+        <v>12.72562855533671</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.53881835873434</v>
+        <v>26.61790728232707</v>
       </c>
       <c r="C17">
-        <v>9.946470574259667</v>
+        <v>16.89772873640917</v>
       </c>
       <c r="D17">
-        <v>12.59569560915287</v>
+        <v>8.275400131758627</v>
       </c>
       <c r="E17">
-        <v>12.15637944010263</v>
+        <v>7.000558814331082</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>59.23795114293081</v>
+        <v>51.89674687992748</v>
       </c>
       <c r="H17">
-        <v>21.60846430833005</v>
+        <v>14.91485577794878</v>
       </c>
       <c r="I17">
-        <v>32.86502609691325</v>
+        <v>22.58356159630782</v>
       </c>
       <c r="J17">
-        <v>7.737602895491786</v>
+        <v>5.370855568590681</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.22568995171587</v>
+        <v>8.573123219861374</v>
       </c>
       <c r="M17">
-        <v>20.58148838080381</v>
+        <v>16.47224521245873</v>
       </c>
       <c r="N17">
-        <v>21.04218020596257</v>
+        <v>12.8461912827527</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.45765440263494</v>
+        <v>26.29801311011305</v>
       </c>
       <c r="C18">
-        <v>9.853705050765608</v>
+        <v>16.67414190517103</v>
       </c>
       <c r="D18">
-        <v>12.59750213938785</v>
+        <v>8.244265116127455</v>
       </c>
       <c r="E18">
-        <v>12.16088216363661</v>
+        <v>7.011639490489865</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>59.1971330344356</v>
+        <v>51.47745534290718</v>
       </c>
       <c r="H18">
-        <v>21.61334276189455</v>
+        <v>14.85882229116061</v>
       </c>
       <c r="I18">
-        <v>32.87714575805132</v>
+        <v>22.51948396662288</v>
       </c>
       <c r="J18">
-        <v>7.733593585913121</v>
+        <v>5.354514249704806</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.22659638098477</v>
+        <v>8.53761418699175</v>
       </c>
       <c r="M18">
-        <v>20.56371936565212</v>
+        <v>16.32890967658187</v>
       </c>
       <c r="N18">
-        <v>21.05934464830826</v>
+        <v>12.9156383452189</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.43019489146185</v>
+        <v>26.18912680382351</v>
       </c>
       <c r="C19">
-        <v>9.822127347014943</v>
+        <v>16.59794817516636</v>
       </c>
       <c r="D19">
-        <v>12.59814676359214</v>
+        <v>8.233799676898093</v>
       </c>
       <c r="E19">
-        <v>12.16241844052309</v>
+        <v>7.015412337893504</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>59.18358354120834</v>
+        <v>51.33593435365306</v>
       </c>
       <c r="H19">
-        <v>21.61506572913996</v>
+        <v>14.84007779761463</v>
       </c>
       <c r="I19">
-        <v>32.88136260532758</v>
+        <v>22.49820505207387</v>
       </c>
       <c r="J19">
-        <v>7.732231770184369</v>
+        <v>5.348979141910444</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.22693515241594</v>
+        <v>8.525654157716691</v>
       </c>
       <c r="M19">
-        <v>20.55776085180274</v>
+        <v>16.28028917347127</v>
       </c>
       <c r="N19">
-        <v>21.06518877562821</v>
+        <v>12.93917161797046</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.55384942310601</v>
+        <v>26.67683912878423</v>
       </c>
       <c r="C20">
-        <v>9.963558567968869</v>
+        <v>16.93887733665248</v>
       </c>
       <c r="D20">
-        <v>12.59537691690713</v>
+        <v>8.281198883342118</v>
       </c>
       <c r="E20">
-        <v>12.15555165667109</v>
+        <v>6.998518062784361</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.24563416218158</v>
+        <v>51.97455887624021</v>
       </c>
       <c r="H20">
-        <v>21.60759524973695</v>
+        <v>14.92533502850366</v>
       </c>
       <c r="I20">
-        <v>32.86283688333715</v>
+        <v>22.59562040257503</v>
       </c>
       <c r="J20">
-        <v>7.738342870243697</v>
+        <v>5.373879000986771</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.22553732556993</v>
+        <v>8.579724969220443</v>
       </c>
       <c r="M20">
-        <v>20.58480438632</v>
+        <v>16.49873032175209</v>
       </c>
       <c r="N20">
-        <v>21.03901889963289</v>
+        <v>12.83334705605423</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.97040458332676</v>
+        <v>28.33467671048171</v>
       </c>
       <c r="C21">
-        <v>10.42665457532146</v>
+        <v>18.05078566415076</v>
       </c>
       <c r="D21">
-        <v>12.58836242365869</v>
+        <v>8.445825791304115</v>
       </c>
       <c r="E21">
-        <v>12.1332944481173</v>
+        <v>6.943225631520853</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.47286889485743</v>
+        <v>54.15103371733253</v>
       </c>
       <c r="H21">
-        <v>21.58745490048447</v>
+        <v>15.22801497257642</v>
       </c>
       <c r="I21">
-        <v>32.80849379797792</v>
+        <v>22.95285745560013</v>
       </c>
       <c r="J21">
-        <v>7.758573628539465</v>
+        <v>5.457432431082033</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.22305487343243</v>
+        <v>8.765782514344787</v>
       </c>
       <c r="M21">
-        <v>20.67963598614358</v>
+        <v>17.22613893740843</v>
       </c>
       <c r="N21">
-        <v>20.95334881261337</v>
+        <v>12.47885739648881</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.24301730969085</v>
+        <v>29.41901597661413</v>
       </c>
       <c r="C22">
-        <v>10.719931745709</v>
+        <v>18.753199776067</v>
       </c>
       <c r="D22">
-        <v>12.58548430692316</v>
+        <v>8.557501982588954</v>
       </c>
       <c r="E22">
-        <v>12.11935272897109</v>
+        <v>6.90818658136239</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.63524435280549</v>
+        <v>55.59653276789555</v>
       </c>
       <c r="H22">
-        <v>21.57799463538044</v>
+        <v>15.43841619206892</v>
       </c>
       <c r="I22">
-        <v>32.77888452020805</v>
+        <v>23.20977726734433</v>
       </c>
       <c r="J22">
-        <v>7.771570350467324</v>
+        <v>5.512021483028954</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.22307880308232</v>
+        <v>8.89068939832161</v>
       </c>
       <c r="M22">
-        <v>20.74451163437924</v>
+        <v>17.69640917278905</v>
       </c>
       <c r="N22">
-        <v>20.89903289949104</v>
+        <v>12.24759694772405</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.09751315958397</v>
+        <v>28.84362639744482</v>
       </c>
       <c r="C23">
-        <v>10.5642846075424</v>
+        <v>18.38048060580619</v>
       </c>
       <c r="D23">
-        <v>12.58686442447676</v>
+        <v>8.497519183398714</v>
       </c>
       <c r="E23">
-        <v>12.12673850254412</v>
+        <v>6.926786927917036</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.54732074095384</v>
+        <v>54.82291469329385</v>
       </c>
       <c r="H23">
-        <v>21.58270460377722</v>
+        <v>15.3249375320329</v>
       </c>
       <c r="I23">
-        <v>32.79414591133401</v>
+        <v>23.07043517807974</v>
       </c>
       <c r="J23">
-        <v>7.764654390974989</v>
+        <v>5.482883644158412</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.22291565087792</v>
+        <v>8.823718591205697</v>
       </c>
       <c r="M23">
-        <v>20.70962512608033</v>
+        <v>17.44590015406688</v>
       </c>
       <c r="N23">
-        <v>20.92786961343229</v>
+        <v>12.37101186395114</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.54705365064507</v>
+        <v>26.65020692272026</v>
       </c>
       <c r="C24">
-        <v>9.955836317506014</v>
+        <v>16.92028320804482</v>
       </c>
       <c r="D24">
-        <v>12.59552039770227</v>
+        <v>8.278575921326384</v>
       </c>
       <c r="E24">
-        <v>12.1559256787506</v>
+        <v>6.999440288047754</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.24215582623763</v>
+        <v>51.93937263595878</v>
       </c>
       <c r="H24">
-        <v>21.60798685271212</v>
+        <v>14.92059327130883</v>
       </c>
       <c r="I24">
-        <v>32.86382455326486</v>
+        <v>22.59016105067147</v>
       </c>
       <c r="J24">
-        <v>7.738008411883615</v>
+        <v>5.372512165472789</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.22560574915309</v>
+        <v>8.576739229205971</v>
       </c>
       <c r="M24">
-        <v>20.5833042033502</v>
+        <v>16.48675826444715</v>
       </c>
       <c r="N24">
-        <v>21.040447512819</v>
+        <v>12.83915350842606</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95778230682006</v>
+        <v>24.2556667149823</v>
       </c>
       <c r="C25">
-        <v>9.261793110064103</v>
+        <v>15.23634274255932</v>
       </c>
       <c r="D25">
-        <v>12.61219359833029</v>
+        <v>8.059451086638585</v>
       </c>
       <c r="E25">
-        <v>12.19001926095181</v>
+        <v>7.082513019178514</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.97319113595153</v>
+        <v>48.92812850061235</v>
       </c>
       <c r="H25">
-        <v>21.65111064794306</v>
+        <v>14.53534787776028</v>
       </c>
       <c r="I25">
-        <v>32.96422191281799</v>
+        <v>22.16547125015391</v>
       </c>
       <c r="J25">
-        <v>7.708301698820935</v>
+        <v>5.253004061726863</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.23559917916856</v>
+        <v>8.324322099375012</v>
       </c>
       <c r="M25">
-        <v>20.45987015025136</v>
+        <v>15.43219470381007</v>
       </c>
       <c r="N25">
-        <v>21.16912113461057</v>
+        <v>13.3482812926469</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.38339499993578</v>
+        <v>14.56329319494707</v>
       </c>
       <c r="C2">
-        <v>13.89797671344721</v>
+        <v>6.669599592100926</v>
       </c>
       <c r="D2">
-        <v>7.91224754179733</v>
+        <v>8.428485890170977</v>
       </c>
       <c r="E2">
-        <v>7.147743233119545</v>
+        <v>6.987810627010055</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.79868324373373</v>
+        <v>43.34387348236019</v>
       </c>
       <c r="H2">
-        <v>14.29206171596304</v>
+        <v>4.497849864264292</v>
       </c>
       <c r="I2">
-        <v>21.9250473006901</v>
+        <v>4.737303718108788</v>
       </c>
       <c r="J2">
-        <v>5.164257655350228</v>
+        <v>14.0966936221084</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.79923419322375</v>
       </c>
       <c r="L2">
-        <v>8.150324883263798</v>
+        <v>4.486799276982298</v>
       </c>
       <c r="M2">
-        <v>14.64183228443869</v>
+        <v>11.95642375522872</v>
       </c>
       <c r="N2">
-        <v>13.72915993080276</v>
+        <v>7.308191621453767</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.34147041211027</v>
+      </c>
+      <c r="P2">
+        <v>15.94393406852287</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.04835231585459</v>
+        <v>13.74816924897912</v>
       </c>
       <c r="C3">
-        <v>12.92731661049774</v>
+        <v>6.218650205482973</v>
       </c>
       <c r="D3">
-        <v>7.821059598460263</v>
+        <v>8.19191699584519</v>
       </c>
       <c r="E3">
-        <v>7.194501788388104</v>
+        <v>6.848686642174538</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.41282056719902</v>
+        <v>42.43843109008456</v>
       </c>
       <c r="H3">
-        <v>14.15065589476064</v>
+        <v>4.739812235936198</v>
       </c>
       <c r="I3">
-        <v>21.80317711215765</v>
+        <v>4.929467382305269</v>
       </c>
       <c r="J3">
-        <v>5.103499096438889</v>
+        <v>13.9925613477247</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.59005449962117</v>
       </c>
       <c r="L3">
-        <v>8.039751396050226</v>
+        <v>4.401369117664525</v>
       </c>
       <c r="M3">
-        <v>14.09992814140266</v>
+        <v>11.33923591311138</v>
       </c>
       <c r="N3">
-        <v>13.99212184985811</v>
+        <v>7.146869118716491</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.97283936397802</v>
+      </c>
+      <c r="P3">
+        <v>16.045217140911</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.19718184378847</v>
+        <v>13.2225191569884</v>
       </c>
       <c r="C4">
-        <v>12.29926348032821</v>
+        <v>5.929484696998196</v>
       </c>
       <c r="D4">
-        <v>7.769214544180728</v>
+        <v>8.044788623523221</v>
       </c>
       <c r="E4">
-        <v>7.224476951069373</v>
+        <v>6.760842126683293</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.59123117424615</v>
+        <v>41.88035814410949</v>
       </c>
       <c r="H4">
-        <v>14.07482854343672</v>
+        <v>4.89370514197934</v>
       </c>
       <c r="I4">
-        <v>21.74726581022206</v>
+        <v>5.052252331181642</v>
       </c>
       <c r="J4">
-        <v>5.065851170255202</v>
+        <v>13.93051467168401</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.46267083795522</v>
       </c>
       <c r="L4">
-        <v>7.975468791874414</v>
+        <v>4.347199110008926</v>
       </c>
       <c r="M4">
-        <v>13.76512075061957</v>
+        <v>10.94523696620811</v>
       </c>
       <c r="N4">
-        <v>14.15629454622984</v>
+        <v>7.046775907210562</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.74125360322896</v>
+      </c>
+      <c r="P4">
+        <v>16.10816665621221</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.84266841708315</v>
+        <v>12.99653062855172</v>
       </c>
       <c r="C5">
-        <v>12.03516986015272</v>
+        <v>5.814517231488655</v>
       </c>
       <c r="D5">
-        <v>7.749116599890674</v>
+        <v>7.983854689734605</v>
       </c>
       <c r="E5">
-        <v>7.237011242257481</v>
+        <v>6.723652117677323</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.26397941359845</v>
+        <v>41.63403021764074</v>
       </c>
       <c r="H5">
-        <v>14.04660549545171</v>
+        <v>4.95822742592794</v>
       </c>
       <c r="I5">
-        <v>21.72903929239829</v>
+        <v>5.105822936464712</v>
       </c>
       <c r="J5">
-        <v>5.050418544503551</v>
+        <v>13.90216792035309</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.4030549849623</v>
       </c>
       <c r="L5">
-        <v>7.950179008307266</v>
+        <v>4.324585417398823</v>
       </c>
       <c r="M5">
-        <v>13.62833771026344</v>
+        <v>10.77959184386812</v>
       </c>
       <c r="N5">
-        <v>14.22392332667871</v>
+        <v>7.006476966202079</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.64439290833455</v>
+      </c>
+      <c r="P5">
+        <v>16.13166865037346</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.78334826061165</v>
+        <v>12.95176819743081</v>
       </c>
       <c r="C6">
-        <v>11.99082198271688</v>
+        <v>5.802548510588357</v>
       </c>
       <c r="D6">
-        <v>7.745841118575184</v>
+        <v>7.973006616040325</v>
       </c>
       <c r="E6">
-        <v>7.239111860634118</v>
+        <v>6.716471158692196</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.21010068708593</v>
+        <v>41.57038384749691</v>
       </c>
       <c r="H6">
-        <v>14.04207815251882</v>
+        <v>4.969572110324704</v>
       </c>
       <c r="I6">
-        <v>21.726282232367</v>
+        <v>5.11772815751545</v>
       </c>
       <c r="J6">
-        <v>5.04785035617984</v>
+        <v>13.89316079499894</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.38340519364243</v>
       </c>
       <c r="L6">
-        <v>7.946034298785238</v>
+        <v>4.320681821016552</v>
       </c>
       <c r="M6">
-        <v>13.60560957053224</v>
+        <v>10.75006680207682</v>
       </c>
       <c r="N6">
-        <v>14.23519821019076</v>
+        <v>7.000652651512625</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.62666802662987</v>
+      </c>
+      <c r="P6">
+        <v>16.13271835806008</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.19243135644541</v>
+        <v>13.20109721551327</v>
       </c>
       <c r="C7">
-        <v>12.29573497014819</v>
+        <v>5.94740064598337</v>
       </c>
       <c r="D7">
-        <v>7.76893934648845</v>
+        <v>8.04205632647648</v>
       </c>
       <c r="E7">
-        <v>7.224644699162037</v>
+        <v>6.757722090375406</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.58678693365661</v>
+        <v>41.81542795893679</v>
       </c>
       <c r="H7">
-        <v>14.07443719575825</v>
+        <v>4.896045273403626</v>
       </c>
       <c r="I7">
-        <v>21.74700181045806</v>
+        <v>5.06075377161298</v>
       </c>
       <c r="J7">
-        <v>5.065643413993548</v>
+        <v>13.91835740490804</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.43530038561348</v>
       </c>
       <c r="L7">
-        <v>7.975124060222403</v>
+        <v>4.346572375823235</v>
       </c>
       <c r="M7">
-        <v>13.76327720301313</v>
+        <v>10.93816021564009</v>
       </c>
       <c r="N7">
-        <v>14.15720361026344</v>
+        <v>7.048624664136876</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.73570262276554</v>
+      </c>
+      <c r="P7">
+        <v>16.10070943179763</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.92972976172573</v>
+        <v>14.26477162176702</v>
       </c>
       <c r="C8">
-        <v>13.56988995926637</v>
+        <v>6.540282457816274</v>
       </c>
       <c r="D8">
-        <v>7.879938287831817</v>
+        <v>8.344917087106532</v>
       </c>
       <c r="E8">
-        <v>7.16360356972656</v>
+        <v>6.937001854779725</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.31485459881593</v>
+        <v>42.95299091996952</v>
       </c>
       <c r="H8">
-        <v>14.24097057709758</v>
+        <v>4.582046986779666</v>
       </c>
       <c r="I8">
-        <v>21.87898058131238</v>
+        <v>4.812429546702414</v>
       </c>
       <c r="J8">
-        <v>5.143375961294186</v>
+        <v>14.0450602736732</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.69231188414136</v>
       </c>
       <c r="L8">
-        <v>8.111449001519794</v>
+        <v>4.457305008435771</v>
       </c>
       <c r="M8">
-        <v>14.45551405903305</v>
+        <v>11.7407542116005</v>
       </c>
       <c r="N8">
-        <v>13.81929398725798</v>
+        <v>7.255910022835753</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.21010222869793</v>
+      </c>
+      <c r="P8">
+        <v>15.96863780128001</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.07936911864889</v>
+        <v>16.17549209801996</v>
       </c>
       <c r="C9">
-        <v>15.81857216416684</v>
+        <v>7.575716727836629</v>
       </c>
       <c r="D9">
-        <v>8.131034824367608</v>
+        <v>8.924264753207417</v>
       </c>
       <c r="E9">
-        <v>7.053900214901808</v>
+        <v>7.273470744020277</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.9291084454328</v>
+        <v>45.26417326196023</v>
       </c>
       <c r="H9">
-        <v>14.65862176025433</v>
+        <v>4.005102427826738</v>
       </c>
       <c r="I9">
-        <v>22.29676788355831</v>
+        <v>4.350021068478782</v>
       </c>
       <c r="J9">
-        <v>5.293355911437791</v>
+        <v>14.32907565000284</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.25042447556864</v>
       </c>
       <c r="L9">
-        <v>8.407499163630968</v>
+        <v>4.661705348522461</v>
       </c>
       <c r="M9">
-        <v>15.78985014447898</v>
+        <v>13.19723743677128</v>
       </c>
       <c r="N9">
-        <v>13.17600076016673</v>
+        <v>7.648590696066091</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.10144603705346</v>
+      </c>
+      <c r="P9">
+        <v>15.72897287520948</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.2305980733644</v>
+        <v>17.3944252858857</v>
       </c>
       <c r="C10">
-        <v>17.32494130746136</v>
+        <v>8.294104043475944</v>
       </c>
       <c r="D10">
-        <v>8.336634962797245</v>
+        <v>9.280771271251195</v>
       </c>
       <c r="E10">
-        <v>6.97935052496062</v>
+        <v>7.44377305137216</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.71425411185719</v>
+        <v>46.63287628389465</v>
       </c>
       <c r="H10">
-        <v>15.02617289610032</v>
+        <v>3.63120979955287</v>
       </c>
       <c r="I10">
-        <v>22.71279185974417</v>
+        <v>4.043871707817321</v>
       </c>
       <c r="J10">
-        <v>5.402485935353373</v>
+        <v>14.48630124500029</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.54292865015906</v>
       </c>
       <c r="L10">
-        <v>8.642662695157043</v>
+        <v>4.810155895341492</v>
       </c>
       <c r="M10">
-        <v>16.74877622000033</v>
+        <v>14.15549347323074</v>
       </c>
       <c r="N10">
-        <v>12.71188379582682</v>
+        <v>7.860578399056584</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.65446647049911</v>
+      </c>
+      <c r="P10">
+        <v>15.51889815295234</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.22566774214366</v>
+        <v>17.49307828137323</v>
       </c>
       <c r="C11">
-        <v>17.98016663238732</v>
+        <v>8.694789084908741</v>
       </c>
       <c r="D11">
-        <v>8.434921970937403</v>
+        <v>8.971913994621371</v>
       </c>
       <c r="E11">
-        <v>6.946744584238552</v>
+        <v>7.022728310167754</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.00866316558489</v>
+        <v>44.79102267300129</v>
       </c>
       <c r="H11">
-        <v>15.20767873221352</v>
+        <v>4.191429229821715</v>
       </c>
       <c r="I11">
-        <v>22.92836633727335</v>
+        <v>3.983631873813002</v>
       </c>
       <c r="J11">
-        <v>5.452020689089212</v>
+        <v>14.06812765600966</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.70294232601904</v>
       </c>
       <c r="L11">
-        <v>8.753534395533812</v>
+        <v>4.962210879310062</v>
       </c>
       <c r="M11">
-        <v>17.17929845838017</v>
+        <v>14.33348159876706</v>
       </c>
       <c r="N11">
-        <v>12.50179534204124</v>
+        <v>7.367313442172947</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.31844322316677</v>
+      </c>
+      <c r="P11">
+        <v>15.13841459350221</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.6022292522769</v>
+        <v>17.34429433653075</v>
       </c>
       <c r="C12">
-        <v>18.22410764287747</v>
+        <v>8.864267522322292</v>
       </c>
       <c r="D12">
-        <v>8.472840125362239</v>
+        <v>8.634764192726374</v>
       </c>
       <c r="E12">
-        <v>6.93458567813008</v>
+        <v>6.716409456286399</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.50277258211804</v>
+        <v>43.01169335674896</v>
       </c>
       <c r="H12">
-        <v>15.27856159303493</v>
+        <v>5.219907545096377</v>
       </c>
       <c r="I12">
-        <v>23.014003721222</v>
+        <v>3.978757193513084</v>
       </c>
       <c r="J12">
-        <v>5.470774199446079</v>
+        <v>13.69620291668292</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.97139886731836</v>
       </c>
       <c r="L12">
-        <v>8.796085609954869</v>
+        <v>5.10431059809591</v>
       </c>
       <c r="M12">
-        <v>17.34144896454812</v>
+        <v>14.2891092357252</v>
       </c>
       <c r="N12">
-        <v>12.42231775590762</v>
+        <v>6.920195582474517</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.91839809292313</v>
+      </c>
+      <c r="P12">
+        <v>14.8933852699591</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.52141122473292</v>
+        <v>16.96921796274228</v>
       </c>
       <c r="C13">
-        <v>18.17175407287285</v>
+        <v>8.89366011363142</v>
       </c>
       <c r="D13">
-        <v>8.464642424273212</v>
+        <v>8.247794910408349</v>
       </c>
       <c r="E13">
-        <v>6.937195934204926</v>
+        <v>6.483925177852347</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.39618106034029</v>
+        <v>41.06248056235587</v>
       </c>
       <c r="H13">
-        <v>15.2631985128407</v>
+        <v>6.438447765854587</v>
       </c>
       <c r="I13">
-        <v>22.99537855141812</v>
+        <v>4.02878752733</v>
       </c>
       <c r="J13">
-        <v>5.46673528127096</v>
+        <v>13.31853331479575</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.23795306672285</v>
       </c>
       <c r="L13">
-        <v>8.786896111481097</v>
+        <v>5.242998361518011</v>
       </c>
       <c r="M13">
-        <v>17.30656673116267</v>
+        <v>14.06317685497386</v>
       </c>
       <c r="N13">
-        <v>12.43943239319941</v>
+        <v>6.486182792807982</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.43236130718002</v>
+      </c>
+      <c r="P13">
+        <v>14.72700516089808</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.25677464134613</v>
+        <v>16.59474786119454</v>
       </c>
       <c r="C14">
-        <v>18.00031870876921</v>
+        <v>8.85615152184004</v>
       </c>
       <c r="D14">
-        <v>8.438027418634086</v>
+        <v>7.952327065901196</v>
       </c>
       <c r="E14">
-        <v>6.945740487611209</v>
+        <v>6.371585030425772</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>54.04923452885247</v>
+        <v>39.60088555249934</v>
       </c>
       <c r="H14">
-        <v>15.21346665483163</v>
+        <v>7.353793747162158</v>
       </c>
       <c r="I14">
-        <v>22.93533025602406</v>
+        <v>4.09091086308527</v>
       </c>
       <c r="J14">
-        <v>5.453563564214901</v>
+        <v>13.04975594608902</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.72050146057463</v>
       </c>
       <c r="L14">
-        <v>8.757023707453344</v>
+        <v>5.342277060389599</v>
       </c>
       <c r="M14">
-        <v>17.19265654762706</v>
+        <v>13.8187405447047</v>
       </c>
       <c r="N14">
-        <v>12.49525553337575</v>
+        <v>6.195786557975395</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.04906409159676</v>
+      </c>
+      <c r="P14">
+        <v>14.64828054849764</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.09385094733216</v>
+        <v>16.44846856256628</v>
       </c>
       <c r="C15">
-        <v>17.89476976970271</v>
+        <v>8.822907568083028</v>
       </c>
       <c r="D15">
-        <v>8.421816465953986</v>
+        <v>7.86947171679159</v>
       </c>
       <c r="E15">
-        <v>6.950998805595303</v>
+        <v>6.348328784203974</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.8372347105619</v>
+        <v>39.19098462457139</v>
       </c>
       <c r="H15">
-        <v>15.18328737638946</v>
+        <v>7.575343286731447</v>
       </c>
       <c r="I15">
-        <v>22.89907697269425</v>
+        <v>4.121891019343135</v>
       </c>
       <c r="J15">
-        <v>5.445495327976619</v>
+        <v>12.97994358220433</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.58631776434472</v>
       </c>
       <c r="L15">
-        <v>8.738800019405</v>
+        <v>5.36021453177931</v>
       </c>
       <c r="M15">
-        <v>17.12276745701049</v>
+        <v>13.71841212061726</v>
       </c>
       <c r="N15">
-        <v>12.52945680091882</v>
+        <v>6.126584791372636</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.93635577071773</v>
+      </c>
+      <c r="P15">
+        <v>14.64158216503773</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.16825323067705</v>
+        <v>15.98589957481792</v>
       </c>
       <c r="C16">
-        <v>17.28152818675429</v>
+        <v>8.536609885701735</v>
       </c>
       <c r="D16">
-        <v>8.330308638033069</v>
+        <v>7.783263585312071</v>
       </c>
       <c r="E16">
-        <v>6.981507718286843</v>
+        <v>6.315137183425615</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.6302118581335</v>
+        <v>38.91138201061634</v>
       </c>
       <c r="H16">
-        <v>15.01460680616633</v>
+        <v>7.446087995550513</v>
       </c>
       <c r="I16">
-        <v>22.69925182733401</v>
+        <v>4.247066899437508</v>
       </c>
       <c r="J16">
-        <v>5.399247466909603</v>
+        <v>12.97928713771294</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.58979942734651</v>
       </c>
       <c r="L16">
-        <v>8.635495821910204</v>
+        <v>5.268843409645179</v>
       </c>
       <c r="M16">
-        <v>16.72052027627774</v>
+        <v>13.35041562568429</v>
       </c>
       <c r="N16">
-        <v>12.72562855533671</v>
+        <v>6.119280939579301</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.78159141472276</v>
+      </c>
+      <c r="P16">
+        <v>14.76005054454885</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.61790728232707</v>
+        <v>15.83290926111157</v>
       </c>
       <c r="C17">
-        <v>16.89772873640917</v>
+        <v>8.333539489382712</v>
       </c>
       <c r="D17">
-        <v>8.275400131758627</v>
+        <v>7.877218892011864</v>
       </c>
       <c r="E17">
-        <v>7.000558814331082</v>
+        <v>6.339764646504446</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.89674687992748</v>
+        <v>39.48557879021981</v>
       </c>
       <c r="H17">
-        <v>14.91485577794878</v>
+        <v>6.842340549484711</v>
       </c>
       <c r="I17">
-        <v>22.58356159630782</v>
+        <v>4.310870937846074</v>
       </c>
       <c r="J17">
-        <v>5.370855568590681</v>
+        <v>13.1218084055306</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.86634703740908</v>
       </c>
       <c r="L17">
-        <v>8.573123219861374</v>
+        <v>5.141257673130714</v>
       </c>
       <c r="M17">
-        <v>16.47224521245873</v>
+        <v>13.19930993646884</v>
       </c>
       <c r="N17">
-        <v>12.8461912827527</v>
+        <v>6.265234815614305</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.87099328376745</v>
+      </c>
+      <c r="P17">
+        <v>14.8908414642492</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29801311011305</v>
+        <v>15.94676421731393</v>
       </c>
       <c r="C18">
-        <v>16.67414190517103</v>
+        <v>8.168982663380117</v>
       </c>
       <c r="D18">
-        <v>8.244265116127455</v>
+        <v>8.138746304165297</v>
       </c>
       <c r="E18">
-        <v>7.011639490489865</v>
+        <v>6.471601535669411</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.47745534290718</v>
+        <v>40.90466305592447</v>
       </c>
       <c r="H18">
-        <v>14.85882229116061</v>
+        <v>5.827387320764039</v>
       </c>
       <c r="I18">
-        <v>22.51948396662288</v>
+        <v>4.318417026493334</v>
       </c>
       <c r="J18">
-        <v>5.354514249704806</v>
+        <v>13.41310736054157</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.43414626759888</v>
       </c>
       <c r="L18">
-        <v>8.53761418699175</v>
+        <v>4.985979339201775</v>
       </c>
       <c r="M18">
-        <v>16.32890967658187</v>
+        <v>13.2240735936131</v>
       </c>
       <c r="N18">
-        <v>12.9156383452189</v>
+        <v>6.5766275232214</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.18381677374601</v>
+      </c>
+      <c r="P18">
+        <v>15.06334366448492</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18912680382351</v>
+        <v>16.23479394006662</v>
       </c>
       <c r="C19">
-        <v>16.59794817516636</v>
+        <v>8.079259559243702</v>
       </c>
       <c r="D19">
-        <v>8.233799676898093</v>
+        <v>8.512173501554052</v>
       </c>
       <c r="E19">
-        <v>7.015412337893504</v>
+        <v>6.750547827419122</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.33593435365306</v>
+        <v>42.79878362126178</v>
       </c>
       <c r="H19">
-        <v>14.84007779761463</v>
+        <v>4.729617352162001</v>
       </c>
       <c r="I19">
-        <v>22.49820505207387</v>
+        <v>4.292957401351857</v>
       </c>
       <c r="J19">
-        <v>5.348979141910444</v>
+        <v>13.78642481375114</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.16304521397868</v>
       </c>
       <c r="L19">
-        <v>8.525654157716691</v>
+        <v>4.849706248282756</v>
       </c>
       <c r="M19">
-        <v>16.28028917347127</v>
+        <v>13.37838429661081</v>
       </c>
       <c r="N19">
-        <v>12.93917161797046</v>
+        <v>7.024630262611203</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.64357586463423</v>
+      </c>
+      <c r="P19">
+        <v>15.2648910639353</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.67683912878423</v>
+        <v>17.03489958622016</v>
       </c>
       <c r="C20">
-        <v>16.93887733665248</v>
+        <v>8.15565959907155</v>
       </c>
       <c r="D20">
-        <v>8.281198883342118</v>
+        <v>9.180486459857143</v>
       </c>
       <c r="E20">
-        <v>6.998518062784361</v>
+        <v>7.389665149605738</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.97455887624021</v>
+        <v>46.09019831977037</v>
       </c>
       <c r="H20">
-        <v>14.92533502850366</v>
+        <v>3.732054358492275</v>
       </c>
       <c r="I20">
-        <v>22.59562040257503</v>
+        <v>4.148470782313477</v>
       </c>
       <c r="J20">
-        <v>5.373879000986771</v>
+        <v>14.40739757984751</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.38331296948849</v>
       </c>
       <c r="L20">
-        <v>8.579724969220443</v>
+        <v>4.771129079500015</v>
       </c>
       <c r="M20">
-        <v>16.49873032175209</v>
+        <v>13.89575240760689</v>
       </c>
       <c r="N20">
-        <v>12.83334705605423</v>
+        <v>7.809061931337431</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.49686363999622</v>
+      </c>
+      <c r="P20">
+        <v>15.54988261513834</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.33467671048171</v>
+        <v>18.01360600352438</v>
       </c>
       <c r="C21">
-        <v>18.05078566415076</v>
+        <v>8.664895339409567</v>
       </c>
       <c r="D21">
-        <v>8.445825791304115</v>
+        <v>9.533599077714685</v>
       </c>
       <c r="E21">
-        <v>6.943225631520853</v>
+        <v>7.616613751419514</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.15103371733253</v>
+        <v>47.59781769797723</v>
       </c>
       <c r="H21">
-        <v>15.22801497257642</v>
+        <v>3.412425864985888</v>
       </c>
       <c r="I21">
-        <v>22.95285745560013</v>
+        <v>3.903934219424082</v>
       </c>
       <c r="J21">
-        <v>5.457432431082033</v>
+        <v>14.62384700043471</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.79504300347713</v>
       </c>
       <c r="L21">
-        <v>8.765782514344787</v>
+        <v>4.873862312718196</v>
       </c>
       <c r="M21">
-        <v>17.22613893740843</v>
+        <v>14.64885854230746</v>
       </c>
       <c r="N21">
-        <v>12.47885739648881</v>
+        <v>8.076020875140175</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.01544323782836</v>
+      </c>
+      <c r="P21">
+        <v>15.44672721625466</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.41901597661413</v>
+        <v>18.62183677664401</v>
       </c>
       <c r="C22">
-        <v>18.753199776067</v>
+        <v>8.974659416661771</v>
       </c>
       <c r="D22">
-        <v>8.557501982588954</v>
+        <v>9.73525505463679</v>
       </c>
       <c r="E22">
-        <v>6.90818658136239</v>
+        <v>7.732977151151007</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.59653276789555</v>
+        <v>48.5025215125838</v>
       </c>
       <c r="H22">
-        <v>15.43841619206892</v>
+        <v>3.218338048606787</v>
       </c>
       <c r="I22">
-        <v>23.20977726734433</v>
+        <v>3.741024422371676</v>
       </c>
       <c r="J22">
-        <v>5.512021483028954</v>
+        <v>14.75286247378545</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.04039399060152</v>
       </c>
       <c r="L22">
-        <v>8.89068939832161</v>
+        <v>4.943097327618701</v>
       </c>
       <c r="M22">
-        <v>17.69640917278905</v>
+        <v>15.11579688635287</v>
       </c>
       <c r="N22">
-        <v>12.24759694772405</v>
+        <v>8.209962450573434</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.31745132513803</v>
+      </c>
+      <c r="P22">
+        <v>15.3720216194542</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.84362639744482</v>
+        <v>18.31585760062731</v>
       </c>
       <c r="C23">
-        <v>18.38048060580619</v>
+        <v>8.79402773192478</v>
       </c>
       <c r="D23">
-        <v>8.497519183398714</v>
+        <v>9.629838551898779</v>
       </c>
       <c r="E23">
-        <v>6.926786927917036</v>
+        <v>7.673736765711346</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.82291469329385</v>
+        <v>48.08351319194384</v>
       </c>
       <c r="H23">
-        <v>15.3249375320329</v>
+        <v>3.320135288525066</v>
       </c>
       <c r="I23">
-        <v>23.07043517807974</v>
+        <v>3.817682994845807</v>
       </c>
       <c r="J23">
-        <v>5.482883644158412</v>
+        <v>14.69671921126414</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.93830439763926</v>
       </c>
       <c r="L23">
-        <v>8.823718591205697</v>
+        <v>4.90651734170791</v>
       </c>
       <c r="M23">
-        <v>17.44590015406688</v>
+        <v>14.87258196607271</v>
       </c>
       <c r="N23">
-        <v>12.37101186395114</v>
+        <v>8.136087854620289</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.16117500096327</v>
+      </c>
+      <c r="P23">
+        <v>15.4203295797423</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.65020692272026</v>
+        <v>17.08301373386096</v>
       </c>
       <c r="C24">
-        <v>16.92028320804482</v>
+        <v>8.114450011514753</v>
       </c>
       <c r="D24">
-        <v>8.278575921326384</v>
+        <v>9.220750261420571</v>
       </c>
       <c r="E24">
-        <v>6.999440288047754</v>
+        <v>7.44072458840312</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.93937263595878</v>
+        <v>46.38500916805838</v>
       </c>
       <c r="H24">
-        <v>14.92059327130883</v>
+        <v>3.715586725946796</v>
       </c>
       <c r="I24">
-        <v>22.59016105067147</v>
+        <v>4.131245521842585</v>
       </c>
       <c r="J24">
-        <v>5.372512165472789</v>
+        <v>14.4675938138612</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.5081531177128</v>
       </c>
       <c r="L24">
-        <v>8.576739229205971</v>
+        <v>4.765187058558276</v>
       </c>
       <c r="M24">
-        <v>16.48675826444715</v>
+        <v>13.91213861322048</v>
       </c>
       <c r="N24">
-        <v>12.83915350842606</v>
+        <v>7.856586173957155</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.54816862046291</v>
+      </c>
+      <c r="P24">
+        <v>15.59126512466487</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.2556667149823</v>
+        <v>15.65269695733852</v>
       </c>
       <c r="C25">
-        <v>15.23634274255932</v>
+        <v>7.334712882054742</v>
       </c>
       <c r="D25">
-        <v>8.059451086638585</v>
+        <v>8.766686773933658</v>
       </c>
       <c r="E25">
-        <v>7.082513019178514</v>
+        <v>7.180222588014367</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.92812850061235</v>
+        <v>44.53906725714478</v>
       </c>
       <c r="H25">
-        <v>14.53534787776028</v>
+        <v>4.159302163491567</v>
       </c>
       <c r="I25">
-        <v>22.16547125015391</v>
+        <v>4.485097403616047</v>
       </c>
       <c r="J25">
-        <v>5.253004061726863</v>
+        <v>14.23017327689271</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.05260829012822</v>
       </c>
       <c r="L25">
-        <v>8.324322099375012</v>
+        <v>4.607302725380539</v>
       </c>
       <c r="M25">
-        <v>15.43219470381007</v>
+        <v>12.80968287830003</v>
       </c>
       <c r="N25">
-        <v>13.3482812926469</v>
+        <v>7.547703015233719</v>
       </c>
       <c r="O25">
+        <v>11.85882328846211</v>
+      </c>
+      <c r="P25">
+        <v>15.7798282016224</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.56329319494707</v>
+        <v>13.76368330945879</v>
       </c>
       <c r="C2">
-        <v>6.669599592100926</v>
+        <v>7.11830499101692</v>
       </c>
       <c r="D2">
-        <v>8.428485890170977</v>
+        <v>8.386077448566461</v>
       </c>
       <c r="E2">
-        <v>6.987810627010055</v>
+        <v>6.954914276815824</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.34387348236019</v>
+        <v>40.37004629244374</v>
       </c>
       <c r="H2">
-        <v>4.497849864264292</v>
+        <v>4.235495922355167</v>
       </c>
       <c r="I2">
-        <v>4.737303718108788</v>
+        <v>4.423699777906073</v>
       </c>
       <c r="J2">
-        <v>14.0966936221084</v>
+        <v>13.30365845518842</v>
       </c>
       <c r="K2">
-        <v>22.79923419322375</v>
+        <v>21.17099054701689</v>
       </c>
       <c r="L2">
-        <v>4.486799276982298</v>
+        <v>16.16720734276794</v>
       </c>
       <c r="M2">
-        <v>11.95642375522872</v>
+        <v>15.21061623667637</v>
       </c>
       <c r="N2">
-        <v>7.308191621453767</v>
+        <v>4.508026480153148</v>
       </c>
       <c r="O2">
-        <v>11.34147041211027</v>
+        <v>11.7208794017212</v>
       </c>
       <c r="P2">
-        <v>15.94393406852287</v>
+        <v>7.592810925582399</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.1157271732629</v>
+      </c>
+      <c r="R2">
+        <v>15.35886958293249</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.74816924897912</v>
+        <v>12.9915123886404</v>
       </c>
       <c r="C3">
-        <v>6.218650205482973</v>
+        <v>6.593333756513776</v>
       </c>
       <c r="D3">
-        <v>8.19191699584519</v>
+        <v>8.160419990712754</v>
       </c>
       <c r="E3">
-        <v>6.848686642174538</v>
+        <v>6.834430462377609</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.43843109008456</v>
+        <v>39.7572059568983</v>
       </c>
       <c r="H3">
-        <v>4.739812235936198</v>
+        <v>4.456226523259085</v>
       </c>
       <c r="I3">
-        <v>4.929467382305269</v>
+        <v>4.59138699857282</v>
       </c>
       <c r="J3">
-        <v>13.9925613477247</v>
+        <v>13.18897622228065</v>
       </c>
       <c r="K3">
-        <v>22.59005449962117</v>
+        <v>21.05275427063459</v>
       </c>
       <c r="L3">
-        <v>4.401369117664525</v>
+        <v>16.16617792591677</v>
       </c>
       <c r="M3">
-        <v>11.33923591311138</v>
+        <v>15.06737953087404</v>
       </c>
       <c r="N3">
-        <v>7.146869118716491</v>
+        <v>4.426650585885549</v>
       </c>
       <c r="O3">
-        <v>10.97283936397802</v>
+        <v>11.10796912425617</v>
       </c>
       <c r="P3">
-        <v>16.045217140911</v>
+        <v>7.430893326924208</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.75738406139766</v>
+      </c>
+      <c r="R3">
+        <v>15.48101619238697</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.2225191569884</v>
+        <v>12.4916065533912</v>
       </c>
       <c r="C4">
-        <v>5.929484696998196</v>
+        <v>6.25564225582761</v>
       </c>
       <c r="D4">
-        <v>8.044788623523221</v>
+        <v>8.020265440352329</v>
       </c>
       <c r="E4">
-        <v>6.760842126683293</v>
+        <v>6.758381207080662</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.88035814410949</v>
+        <v>39.38421421733612</v>
       </c>
       <c r="H4">
-        <v>4.89370514197934</v>
+        <v>4.596727765912199</v>
       </c>
       <c r="I4">
-        <v>5.052252331181642</v>
+        <v>4.698857431275124</v>
       </c>
       <c r="J4">
-        <v>13.93051467168401</v>
+        <v>13.11794194097119</v>
       </c>
       <c r="K4">
-        <v>22.46267083795522</v>
+        <v>20.98053118810456</v>
       </c>
       <c r="L4">
-        <v>4.347199110008926</v>
+        <v>16.16149543311466</v>
       </c>
       <c r="M4">
-        <v>10.94523696620811</v>
+        <v>14.99428223344431</v>
       </c>
       <c r="N4">
-        <v>7.046775907210562</v>
+        <v>4.375070161672136</v>
       </c>
       <c r="O4">
-        <v>10.74125360322896</v>
+        <v>10.71552092250246</v>
       </c>
       <c r="P4">
-        <v>16.10816665621221</v>
+        <v>7.33077203050405</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.5318733850827</v>
+      </c>
+      <c r="R4">
+        <v>15.55671218215525</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.99653062855172</v>
+        <v>12.27602504195458</v>
       </c>
       <c r="C5">
-        <v>5.814517231488655</v>
+        <v>6.12035254023772</v>
       </c>
       <c r="D5">
-        <v>7.983854689734605</v>
+        <v>7.962270397536344</v>
       </c>
       <c r="E5">
-        <v>6.723652117677323</v>
+        <v>6.726148237640501</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.63403021764074</v>
+        <v>39.21576462248391</v>
       </c>
       <c r="H5">
-        <v>4.95822742592794</v>
+        <v>4.655666904983061</v>
       </c>
       <c r="I5">
-        <v>5.105822936464712</v>
+        <v>4.746456022384016</v>
       </c>
       <c r="J5">
-        <v>13.90216792035309</v>
+        <v>13.08534409542251</v>
       </c>
       <c r="K5">
-        <v>22.4030549849623</v>
+        <v>20.94377119798427</v>
       </c>
       <c r="L5">
-        <v>4.324585417398823</v>
+        <v>16.15179245624737</v>
       </c>
       <c r="M5">
-        <v>10.77959184386812</v>
+        <v>14.96379433818822</v>
       </c>
       <c r="N5">
-        <v>7.006476966202079</v>
+        <v>4.353560976412623</v>
       </c>
       <c r="O5">
-        <v>10.64439290833455</v>
+        <v>10.55025122104249</v>
       </c>
       <c r="P5">
-        <v>16.13166865037346</v>
+        <v>7.290516105309945</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.4374643993687</v>
+      </c>
+      <c r="R5">
+        <v>15.58575808283339</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.95176819743081</v>
+        <v>12.23312700331259</v>
       </c>
       <c r="C6">
-        <v>5.802548510588357</v>
+        <v>6.105239955866812</v>
       </c>
       <c r="D6">
-        <v>7.973006616040325</v>
+        <v>7.951952199922937</v>
       </c>
       <c r="E6">
-        <v>6.716471158692196</v>
+        <v>6.719874728092869</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.57038384749691</v>
+        <v>39.16663612749428</v>
       </c>
       <c r="H6">
-        <v>4.969572110324704</v>
+        <v>4.666038136930943</v>
       </c>
       <c r="I6">
-        <v>5.11772815751545</v>
+        <v>4.757818966424799</v>
       </c>
       <c r="J6">
-        <v>13.89316079499894</v>
+        <v>13.07563452509794</v>
       </c>
       <c r="K6">
-        <v>22.38340519364243</v>
+        <v>20.92860084383364</v>
       </c>
       <c r="L6">
-        <v>4.320681821016552</v>
+        <v>16.14185544091361</v>
       </c>
       <c r="M6">
-        <v>10.75006680207682</v>
+        <v>14.95346177517524</v>
       </c>
       <c r="N6">
-        <v>7.000652651512625</v>
+        <v>4.349869938930615</v>
       </c>
       <c r="O6">
-        <v>10.62666802662987</v>
+        <v>10.52080859704639</v>
       </c>
       <c r="P6">
-        <v>16.13271835806008</v>
+        <v>7.284663286030059</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.42019376468019</v>
+      </c>
+      <c r="R6">
+        <v>15.58817106394393</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20109721551327</v>
+        <v>12.4657869004927</v>
       </c>
       <c r="C7">
-        <v>5.94740064598337</v>
+        <v>6.262314171295327</v>
       </c>
       <c r="D7">
-        <v>8.04205632647648</v>
+        <v>8.018719806644924</v>
       </c>
       <c r="E7">
-        <v>6.757722090375406</v>
+        <v>6.75645979519529</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.81542795893679</v>
+        <v>39.38308979283497</v>
       </c>
       <c r="H7">
-        <v>4.896045273403626</v>
+        <v>4.599660035483208</v>
       </c>
       <c r="I7">
-        <v>5.06075377161298</v>
+        <v>4.709184602576999</v>
       </c>
       <c r="J7">
-        <v>13.91835740490804</v>
+        <v>13.06053469245238</v>
       </c>
       <c r="K7">
-        <v>22.43530038561348</v>
+        <v>20.94372881549746</v>
       </c>
       <c r="L7">
-        <v>4.346572375823235</v>
+        <v>16.12880747138641</v>
       </c>
       <c r="M7">
-        <v>10.93816021564009</v>
+        <v>14.97129566953869</v>
       </c>
       <c r="N7">
-        <v>7.048624664136876</v>
+        <v>4.374161387367423</v>
       </c>
       <c r="O7">
-        <v>10.73570262276554</v>
+        <v>10.70156276513429</v>
       </c>
       <c r="P7">
-        <v>16.10070943179763</v>
+        <v>7.331270089308105</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.52400742893034</v>
+      </c>
+      <c r="R7">
+        <v>15.54709494588163</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.26477162176702</v>
+        <v>13.46530218649362</v>
       </c>
       <c r="C8">
-        <v>6.540282457816274</v>
+        <v>6.929327844305129</v>
       </c>
       <c r="D8">
-        <v>8.344917087106532</v>
+        <v>8.309752946857399</v>
       </c>
       <c r="E8">
-        <v>6.937001854779725</v>
+        <v>6.913818434359717</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.95299091996952</v>
+        <v>40.27644804699752</v>
       </c>
       <c r="H8">
-        <v>4.582046986779666</v>
+        <v>4.314708704920121</v>
       </c>
       <c r="I8">
-        <v>4.812429546702414</v>
+        <v>4.49418264297154</v>
       </c>
       <c r="J8">
-        <v>14.0450602736732</v>
+        <v>13.1016845779064</v>
       </c>
       <c r="K8">
-        <v>22.69231188414136</v>
+        <v>21.06023814743737</v>
       </c>
       <c r="L8">
-        <v>4.457305008435771</v>
+        <v>16.10796454747376</v>
       </c>
       <c r="M8">
-        <v>11.7407542116005</v>
+        <v>15.11158389820135</v>
       </c>
       <c r="N8">
-        <v>7.255910022835753</v>
+        <v>4.478822452073802</v>
       </c>
       <c r="O8">
-        <v>11.21010222869793</v>
+        <v>11.48521748030891</v>
       </c>
       <c r="P8">
-        <v>15.96863780128001</v>
+        <v>7.536128600518099</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.98017878705643</v>
+      </c>
+      <c r="R8">
+        <v>15.38145789867831</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.17549209801996</v>
+        <v>15.26432812775854</v>
       </c>
       <c r="C9">
-        <v>7.575716727836629</v>
+        <v>8.127659324018181</v>
       </c>
       <c r="D9">
-        <v>8.924264753207417</v>
+        <v>8.864124827242975</v>
       </c>
       <c r="E9">
-        <v>7.273470744020277</v>
+        <v>7.20638462184383</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.26417326196023</v>
+        <v>41.93375807435898</v>
       </c>
       <c r="H9">
-        <v>4.005102427826738</v>
+        <v>3.789453373451951</v>
       </c>
       <c r="I9">
-        <v>4.350021068478782</v>
+        <v>4.090508817848202</v>
       </c>
       <c r="J9">
-        <v>14.32907565000284</v>
+        <v>13.36114413346143</v>
       </c>
       <c r="K9">
-        <v>23.25042447556864</v>
+        <v>21.37730465348499</v>
       </c>
       <c r="L9">
-        <v>4.661705348522461</v>
+        <v>16.10948881090992</v>
       </c>
       <c r="M9">
-        <v>13.19723743677128</v>
+        <v>15.55737455910152</v>
       </c>
       <c r="N9">
-        <v>7.648590696066091</v>
+        <v>4.673250524611669</v>
       </c>
       <c r="O9">
-        <v>12.10144603705346</v>
+        <v>12.92227082614063</v>
       </c>
       <c r="P9">
-        <v>15.72897287520948</v>
+        <v>7.931316988039478</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.84299587249174</v>
+      </c>
+      <c r="R9">
+        <v>15.08539173003649</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.3944252858857</v>
+        <v>16.38656768561231</v>
       </c>
       <c r="C10">
-        <v>8.294104043475944</v>
+        <v>8.893445138860841</v>
       </c>
       <c r="D10">
-        <v>9.280771271251195</v>
+        <v>9.210438178037132</v>
       </c>
       <c r="E10">
-        <v>7.44377305137216</v>
+        <v>7.355106297902895</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.63287628389465</v>
+        <v>43.21682568018079</v>
       </c>
       <c r="H10">
-        <v>3.63120979955287</v>
+        <v>3.454945072043489</v>
       </c>
       <c r="I10">
-        <v>4.043871707817321</v>
+        <v>3.829433537685104</v>
       </c>
       <c r="J10">
-        <v>14.48630124500029</v>
+        <v>13.25102158275616</v>
       </c>
       <c r="K10">
-        <v>23.54292865015906</v>
+        <v>21.44783532820714</v>
       </c>
       <c r="L10">
-        <v>4.810155895341492</v>
+        <v>15.96509735751403</v>
       </c>
       <c r="M10">
-        <v>14.15549347323074</v>
+        <v>15.8264663100547</v>
       </c>
       <c r="N10">
-        <v>7.860578399056584</v>
+        <v>4.81432285645515</v>
       </c>
       <c r="O10">
-        <v>12.65446647049911</v>
+        <v>13.83183055376247</v>
       </c>
       <c r="P10">
-        <v>15.51889815295234</v>
+        <v>8.138613856822971</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.36382827917504</v>
+      </c>
+      <c r="R10">
+        <v>14.82615641949676</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.49307828137323</v>
+        <v>16.47266180559181</v>
       </c>
       <c r="C11">
-        <v>8.694789084908741</v>
+        <v>9.164629797883652</v>
       </c>
       <c r="D11">
-        <v>8.971913994621371</v>
+        <v>8.915926682917794</v>
       </c>
       <c r="E11">
-        <v>7.022728310167754</v>
+        <v>6.959732696640287</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.79102267300129</v>
+        <v>42.19818770164936</v>
       </c>
       <c r="H11">
-        <v>4.191429229821715</v>
+        <v>4.052706856259524</v>
       </c>
       <c r="I11">
-        <v>3.983631873813002</v>
+        <v>3.78741747097384</v>
       </c>
       <c r="J11">
-        <v>14.06812765600966</v>
+        <v>12.39923377530091</v>
       </c>
       <c r="K11">
-        <v>22.70294232601904</v>
+        <v>20.57103002585523</v>
       </c>
       <c r="L11">
-        <v>4.962210879310062</v>
+        <v>15.20905691783101</v>
       </c>
       <c r="M11">
-        <v>14.33348159876706</v>
+        <v>15.26760569626897</v>
       </c>
       <c r="N11">
-        <v>7.367313442172947</v>
+        <v>4.969715232777278</v>
       </c>
       <c r="O11">
-        <v>12.31844322316677</v>
+        <v>13.95016808766497</v>
       </c>
       <c r="P11">
-        <v>15.13841459350221</v>
+        <v>7.620439432122435</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.01006274453232</v>
+      </c>
+      <c r="R11">
+        <v>14.49030296235169</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.34429433653075</v>
+        <v>16.34757798504048</v>
       </c>
       <c r="C12">
-        <v>8.864267522322292</v>
+        <v>9.243741208074962</v>
       </c>
       <c r="D12">
-        <v>8.634764192726374</v>
+        <v>8.589165212151704</v>
       </c>
       <c r="E12">
-        <v>6.716409456286399</v>
+        <v>6.673056052837131</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.01169335674896</v>
+        <v>40.92045991515395</v>
       </c>
       <c r="H12">
-        <v>5.219907545096377</v>
+        <v>5.109826527486479</v>
       </c>
       <c r="I12">
-        <v>3.978757193513084</v>
+        <v>3.784638234120943</v>
       </c>
       <c r="J12">
-        <v>13.69620291668292</v>
+        <v>11.89204242212101</v>
       </c>
       <c r="K12">
-        <v>21.97139886731836</v>
+        <v>19.89728084206745</v>
       </c>
       <c r="L12">
-        <v>5.10431059809591</v>
+        <v>14.67449260187541</v>
       </c>
       <c r="M12">
-        <v>14.2891092357252</v>
+        <v>14.78800456617583</v>
       </c>
       <c r="N12">
-        <v>6.920195582474517</v>
+        <v>5.114430241296337</v>
       </c>
       <c r="O12">
-        <v>11.91839809292313</v>
+        <v>13.88564279069737</v>
       </c>
       <c r="P12">
-        <v>14.8933852699591</v>
+        <v>7.157335227851203</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.6098339989702</v>
+      </c>
+      <c r="R12">
+        <v>14.30553173305867</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96921796274228</v>
+        <v>16.03710529673313</v>
       </c>
       <c r="C13">
-        <v>8.89366011363142</v>
+        <v>9.226771424846202</v>
       </c>
       <c r="D13">
-        <v>8.247794910408349</v>
+        <v>8.208121588908236</v>
       </c>
       <c r="E13">
-        <v>6.483925177852347</v>
+        <v>6.458896669292032</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>41.06248056235587</v>
+        <v>39.12652039488356</v>
       </c>
       <c r="H13">
-        <v>6.438447765854587</v>
+        <v>6.343147716625102</v>
       </c>
       <c r="I13">
-        <v>4.02878752733</v>
+        <v>3.825515035741236</v>
       </c>
       <c r="J13">
-        <v>13.31853331479575</v>
+        <v>11.6583131424186</v>
       </c>
       <c r="K13">
-        <v>21.23795306672285</v>
+        <v>19.32221165062407</v>
       </c>
       <c r="L13">
-        <v>5.242998361518011</v>
+        <v>14.25293148364565</v>
       </c>
       <c r="M13">
-        <v>14.06317685497386</v>
+        <v>14.3351433236209</v>
       </c>
       <c r="N13">
-        <v>6.486182792807982</v>
+        <v>5.258436272957004</v>
       </c>
       <c r="O13">
-        <v>11.43236130718002</v>
+        <v>13.68292902367769</v>
       </c>
       <c r="P13">
-        <v>14.72700516089808</v>
+        <v>6.7150045942797</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.14226291285937</v>
+      </c>
+      <c r="R13">
+        <v>14.21386304752588</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59474786119454</v>
+        <v>15.72682848502571</v>
       </c>
       <c r="C14">
-        <v>8.85615152184004</v>
+        <v>9.175220396549479</v>
       </c>
       <c r="D14">
-        <v>7.952327065901196</v>
+        <v>7.915126791179159</v>
       </c>
       <c r="E14">
-        <v>6.371585030425772</v>
+        <v>6.360786287872642</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.60088555249934</v>
+        <v>37.63271980594933</v>
       </c>
       <c r="H14">
-        <v>7.353793747162158</v>
+        <v>7.263788282254448</v>
       </c>
       <c r="I14">
-        <v>4.09091086308527</v>
+        <v>3.876711756668231</v>
       </c>
       <c r="J14">
-        <v>13.04975594608902</v>
+        <v>11.59788437484226</v>
       </c>
       <c r="K14">
-        <v>20.72050146057463</v>
+        <v>18.95652033828667</v>
       </c>
       <c r="L14">
-        <v>5.342277060389599</v>
+        <v>13.99855414727266</v>
       </c>
       <c r="M14">
-        <v>13.8187405447047</v>
+        <v>14.02808522078241</v>
       </c>
       <c r="N14">
-        <v>6.195786557975395</v>
+        <v>5.363201310484667</v>
       </c>
       <c r="O14">
-        <v>11.04906409159676</v>
+        <v>13.47400183891431</v>
       </c>
       <c r="P14">
-        <v>14.64828054849764</v>
+        <v>6.42163834392468</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.77983337921108</v>
+      </c>
+      <c r="R14">
+        <v>14.18910531199834</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.44846856256628</v>
+        <v>15.60441827526326</v>
       </c>
       <c r="C15">
-        <v>8.822907568083028</v>
+        <v>9.146528848972196</v>
       </c>
       <c r="D15">
-        <v>7.86947171679159</v>
+        <v>7.832274199528941</v>
       </c>
       <c r="E15">
-        <v>6.348328784203974</v>
+        <v>6.342090475116212</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>39.19098462457139</v>
+        <v>37.15860307826404</v>
       </c>
       <c r="H15">
-        <v>7.575343286731447</v>
+        <v>7.48495522395613</v>
       </c>
       <c r="I15">
-        <v>4.121891019343135</v>
+        <v>3.903276179883418</v>
       </c>
       <c r="J15">
-        <v>12.97994358220433</v>
+        <v>11.62422764045546</v>
       </c>
       <c r="K15">
-        <v>20.58631776434472</v>
+        <v>18.8770913165432</v>
       </c>
       <c r="L15">
-        <v>5.36021453177931</v>
+        <v>13.94890291611276</v>
       </c>
       <c r="M15">
-        <v>13.71841212061726</v>
+        <v>13.95319259187688</v>
       </c>
       <c r="N15">
-        <v>6.126584791372636</v>
+        <v>5.383531556064494</v>
       </c>
       <c r="O15">
-        <v>10.93635577071773</v>
+        <v>13.39058139466781</v>
       </c>
       <c r="P15">
-        <v>14.64158216503773</v>
+        <v>6.352965924830506</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.67561735829731</v>
+      </c>
+      <c r="R15">
+        <v>14.19690297897697</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98589957481792</v>
+        <v>15.20897357120722</v>
       </c>
       <c r="C16">
-        <v>8.536609885701735</v>
+        <v>8.924306937896374</v>
       </c>
       <c r="D16">
-        <v>7.783263585312071</v>
+        <v>7.74150791366936</v>
       </c>
       <c r="E16">
-        <v>6.315137183425615</v>
+        <v>6.317440628788515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.91138201061634</v>
+        <v>36.42463845430754</v>
       </c>
       <c r="H16">
-        <v>7.446087995550513</v>
+        <v>7.339845689341732</v>
       </c>
       <c r="I16">
-        <v>4.247066899437508</v>
+        <v>4.007120642717919</v>
       </c>
       <c r="J16">
-        <v>12.97928713771294</v>
+        <v>12.00893337234242</v>
       </c>
       <c r="K16">
-        <v>20.58979942734651</v>
+        <v>19.02527982321839</v>
       </c>
       <c r="L16">
-        <v>5.268843409645179</v>
+        <v>14.11122467696734</v>
       </c>
       <c r="M16">
-        <v>13.35041562568429</v>
+        <v>13.99589359308581</v>
       </c>
       <c r="N16">
-        <v>6.119280939579301</v>
+        <v>5.301178538694628</v>
       </c>
       <c r="O16">
-        <v>10.78159141472276</v>
+        <v>13.09027672911455</v>
       </c>
       <c r="P16">
-        <v>14.76005054454885</v>
+        <v>6.357349817514181</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.54904973427363</v>
+      </c>
+      <c r="R16">
+        <v>14.32660796114068</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.83290926111157</v>
+        <v>15.06621318247974</v>
       </c>
       <c r="C17">
-        <v>8.333539489382712</v>
+        <v>8.765490717657022</v>
       </c>
       <c r="D17">
-        <v>7.877218892011864</v>
+        <v>7.831835161767252</v>
       </c>
       <c r="E17">
-        <v>6.339764646504446</v>
+        <v>6.338260647611826</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.48557879021981</v>
+        <v>36.74154860130867</v>
       </c>
       <c r="H17">
-        <v>6.842340549484711</v>
+        <v>6.718765970337833</v>
       </c>
       <c r="I17">
-        <v>4.310870937846074</v>
+        <v>4.061180003768645</v>
       </c>
       <c r="J17">
-        <v>13.1218084055306</v>
+        <v>12.30087092252178</v>
       </c>
       <c r="K17">
-        <v>20.86634703740908</v>
+        <v>19.32210063365918</v>
       </c>
       <c r="L17">
-        <v>5.141257673130714</v>
+        <v>14.37043220658328</v>
       </c>
       <c r="M17">
-        <v>13.19930993646884</v>
+        <v>14.17868384450837</v>
       </c>
       <c r="N17">
-        <v>6.265234815614305</v>
+        <v>5.175828563391082</v>
       </c>
       <c r="O17">
-        <v>10.87099328376745</v>
+        <v>12.96315178701936</v>
       </c>
       <c r="P17">
-        <v>14.8908414642492</v>
+        <v>6.51316030516878</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.6461142218858</v>
+      </c>
+      <c r="R17">
+        <v>14.44100338956805</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.94676421731393</v>
+        <v>15.15068710171587</v>
       </c>
       <c r="C18">
-        <v>8.168982663380117</v>
+        <v>8.650968933111317</v>
       </c>
       <c r="D18">
-        <v>8.138746304165297</v>
+        <v>8.087772856683356</v>
       </c>
       <c r="E18">
-        <v>6.471601535669411</v>
+        <v>6.453781775682907</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.90466305592447</v>
+        <v>37.91037254313764</v>
       </c>
       <c r="H18">
-        <v>5.827387320764039</v>
+        <v>5.680190969904274</v>
       </c>
       <c r="I18">
-        <v>4.318417026493334</v>
+        <v>4.065676871704678</v>
       </c>
       <c r="J18">
-        <v>13.41310736054157</v>
+        <v>12.62918192284918</v>
       </c>
       <c r="K18">
-        <v>21.43414626759888</v>
+        <v>19.82587584824977</v>
       </c>
       <c r="L18">
-        <v>4.985979339201775</v>
+        <v>14.7818245589656</v>
       </c>
       <c r="M18">
-        <v>13.2240735936131</v>
+        <v>14.52975013574539</v>
       </c>
       <c r="N18">
-        <v>6.5766275232214</v>
+        <v>5.017778832964126</v>
       </c>
       <c r="O18">
-        <v>11.18381677374601</v>
+        <v>12.98915429932555</v>
       </c>
       <c r="P18">
-        <v>15.06334366448492</v>
+        <v>6.835514663888724</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.95439695754051</v>
+      </c>
+      <c r="R18">
+        <v>14.57215729856452</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.23479394006662</v>
+        <v>15.38511677011383</v>
       </c>
       <c r="C19">
-        <v>8.079259559243702</v>
+        <v>8.619497415849024</v>
       </c>
       <c r="D19">
-        <v>8.512173501554052</v>
+        <v>8.453748928106968</v>
       </c>
       <c r="E19">
-        <v>6.750547827419122</v>
+        <v>6.707674866307557</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.79878362126178</v>
+        <v>39.53561276726581</v>
       </c>
       <c r="H19">
-        <v>4.729617352162001</v>
+        <v>4.553549836951795</v>
       </c>
       <c r="I19">
-        <v>4.292957401351857</v>
+        <v>4.045658203612514</v>
       </c>
       <c r="J19">
-        <v>13.78642481375114</v>
+        <v>12.97828266409937</v>
       </c>
       <c r="K19">
-        <v>22.16304521397868</v>
+        <v>20.4387200052542</v>
       </c>
       <c r="L19">
-        <v>4.849706248282756</v>
+        <v>15.26959133329745</v>
       </c>
       <c r="M19">
-        <v>13.37838429661081</v>
+        <v>14.97371499731475</v>
       </c>
       <c r="N19">
-        <v>7.024630262611203</v>
+        <v>4.874443660975265</v>
       </c>
       <c r="O19">
-        <v>11.64357586463423</v>
+        <v>13.13205578365679</v>
       </c>
       <c r="P19">
-        <v>15.2648910639353</v>
+        <v>7.294843642174478</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.40218774463523</v>
+      </c>
+      <c r="R19">
+        <v>14.71559687116679</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.03489958622016</v>
+        <v>16.06831020401361</v>
       </c>
       <c r="C20">
-        <v>8.15565959907155</v>
+        <v>8.775364714600897</v>
       </c>
       <c r="D20">
-        <v>9.180486459857143</v>
+        <v>9.10961486045535</v>
       </c>
       <c r="E20">
-        <v>7.389665149605738</v>
+        <v>7.304048170624748</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>46.09019831977037</v>
+        <v>42.50719271620829</v>
       </c>
       <c r="H20">
-        <v>3.732054358492275</v>
+        <v>3.542875334266997</v>
       </c>
       <c r="I20">
-        <v>4.148470782313477</v>
+        <v>3.924478963402447</v>
       </c>
       <c r="J20">
-        <v>14.40739757984751</v>
+        <v>13.39585615186502</v>
       </c>
       <c r="K20">
-        <v>23.38331296948849</v>
+        <v>21.39285903968416</v>
       </c>
       <c r="L20">
-        <v>4.771129079500015</v>
+        <v>15.97508868880146</v>
       </c>
       <c r="M20">
-        <v>13.89575240760689</v>
+        <v>15.72560139403442</v>
       </c>
       <c r="N20">
-        <v>7.809061931337431</v>
+        <v>4.778729456709199</v>
       </c>
       <c r="O20">
-        <v>12.49686363999622</v>
+        <v>13.60568603331554</v>
       </c>
       <c r="P20">
-        <v>15.54988261513834</v>
+        <v>8.091896467281259</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.2229976003103</v>
+      </c>
+      <c r="R20">
+        <v>14.8862071360325</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.01360600352438</v>
+        <v>16.88885739951331</v>
       </c>
       <c r="C21">
-        <v>8.664895339409567</v>
+        <v>9.170649415886347</v>
       </c>
       <c r="D21">
-        <v>9.533599077714685</v>
+        <v>9.471880333571987</v>
       </c>
       <c r="E21">
-        <v>7.616613751419514</v>
+        <v>7.528154150928574</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.59781769797723</v>
+        <v>44.95547948132671</v>
       </c>
       <c r="H21">
-        <v>3.412425864985888</v>
+        <v>3.265282520241664</v>
       </c>
       <c r="I21">
-        <v>3.903934219424082</v>
+        <v>3.725464546963782</v>
       </c>
       <c r="J21">
-        <v>14.62384700043471</v>
+        <v>12.62906999660173</v>
       </c>
       <c r="K21">
-        <v>23.79504300347713</v>
+        <v>21.39983907980347</v>
       </c>
       <c r="L21">
-        <v>4.873862312718196</v>
+        <v>15.82922554889464</v>
       </c>
       <c r="M21">
-        <v>14.64885854230746</v>
+        <v>15.90865761472315</v>
       </c>
       <c r="N21">
-        <v>8.076020875140175</v>
+        <v>4.867840260528624</v>
       </c>
       <c r="O21">
-        <v>13.01544323782836</v>
+        <v>14.21398513540093</v>
       </c>
       <c r="P21">
-        <v>15.44672721625466</v>
+        <v>8.337260038136689</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.67319826950151</v>
+      </c>
+      <c r="R21">
+        <v>14.67241645476141</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.62183677664401</v>
+        <v>17.39461461461617</v>
       </c>
       <c r="C22">
-        <v>8.974659416661771</v>
+        <v>9.396036516085534</v>
       </c>
       <c r="D22">
-        <v>9.73525505463679</v>
+        <v>9.68170725758069</v>
       </c>
       <c r="E22">
-        <v>7.732977151151007</v>
+        <v>7.647097945409914</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48.5025215125838</v>
+        <v>46.58818249507544</v>
       </c>
       <c r="H22">
-        <v>3.218338048606787</v>
+        <v>3.098075482971123</v>
       </c>
       <c r="I22">
-        <v>3.741024422371676</v>
+        <v>3.58969367178783</v>
       </c>
       <c r="J22">
-        <v>14.75286247378545</v>
+        <v>12.09406439381674</v>
       </c>
       <c r="K22">
-        <v>24.04039399060152</v>
+        <v>21.37138270084898</v>
       </c>
       <c r="L22">
-        <v>4.943097327618701</v>
+        <v>15.7089938099076</v>
       </c>
       <c r="M22">
-        <v>15.11579688635287</v>
+        <v>16.01012316632388</v>
       </c>
       <c r="N22">
-        <v>8.209962450573434</v>
+        <v>4.929044872876574</v>
       </c>
       <c r="O22">
-        <v>13.31745132513803</v>
+        <v>14.61748589713109</v>
       </c>
       <c r="P22">
-        <v>15.3720216194542</v>
+        <v>8.455362074062164</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.92885325321669</v>
+      </c>
+      <c r="R22">
+        <v>14.52415846776714</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.31585760062731</v>
+        <v>17.15246405378675</v>
       </c>
       <c r="C23">
-        <v>8.79402773192478</v>
+        <v>9.281233876346175</v>
       </c>
       <c r="D23">
-        <v>9.629838551898779</v>
+        <v>9.56920498303267</v>
       </c>
       <c r="E23">
-        <v>7.673736765711346</v>
+        <v>7.583411104738349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.08351319194384</v>
+        <v>45.62707051146899</v>
       </c>
       <c r="H23">
-        <v>3.320135288525066</v>
+        <v>3.184358544280057</v>
       </c>
       <c r="I23">
-        <v>3.817682994845807</v>
+        <v>3.648936273219479</v>
       </c>
       <c r="J23">
-        <v>14.69671921126414</v>
+        <v>12.48718234151411</v>
       </c>
       <c r="K23">
-        <v>23.93830439763926</v>
+        <v>21.44116182905075</v>
       </c>
       <c r="L23">
-        <v>4.90651734170791</v>
+        <v>15.81377641547667</v>
       </c>
       <c r="M23">
-        <v>14.87258196607271</v>
+        <v>15.99740817738737</v>
       </c>
       <c r="N23">
-        <v>8.136087854620289</v>
+        <v>4.897334595449139</v>
       </c>
       <c r="O23">
-        <v>13.16117500096327</v>
+        <v>14.40776499064666</v>
       </c>
       <c r="P23">
-        <v>15.4203295797423</v>
+        <v>8.392865301387186</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.80272328962405</v>
+      </c>
+      <c r="R23">
+        <v>14.61716309319717</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.08301373386096</v>
+        <v>16.11105968528781</v>
       </c>
       <c r="C24">
-        <v>8.114450011514753</v>
+        <v>8.739823435943633</v>
       </c>
       <c r="D24">
-        <v>9.220750261420571</v>
+        <v>9.148886225317323</v>
       </c>
       <c r="E24">
-        <v>7.44072458840312</v>
+        <v>7.352241061480464</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>46.38500916805838</v>
+        <v>42.76268915269311</v>
       </c>
       <c r="H24">
-        <v>3.715586725946796</v>
+        <v>3.526670062066496</v>
       </c>
       <c r="I24">
-        <v>4.131245521842585</v>
+        <v>3.904840444004662</v>
       </c>
       <c r="J24">
-        <v>14.4675938138612</v>
+        <v>13.4581010368317</v>
       </c>
       <c r="K24">
-        <v>23.5081531177128</v>
+        <v>21.50371214951151</v>
       </c>
       <c r="L24">
-        <v>4.765187058558276</v>
+        <v>16.06394538471891</v>
       </c>
       <c r="M24">
-        <v>13.91213861322048</v>
+        <v>15.80504017979502</v>
       </c>
       <c r="N24">
-        <v>7.856586173957155</v>
+        <v>4.771612289324533</v>
       </c>
       <c r="O24">
-        <v>12.54816862046291</v>
+        <v>13.62156604899548</v>
       </c>
       <c r="P24">
-        <v>15.59126512466487</v>
+        <v>8.140850184094687</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.27316422988414</v>
+      </c>
+      <c r="R24">
+        <v>14.91824406998513</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.65269695733852</v>
+        <v>14.77884101513889</v>
       </c>
       <c r="C25">
-        <v>7.334712882054742</v>
+        <v>7.859794602671388</v>
       </c>
       <c r="D25">
-        <v>8.766686773933658</v>
+        <v>8.71180379498912</v>
       </c>
       <c r="E25">
-        <v>7.180222588014367</v>
+        <v>7.123738113600255</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44.53906725714478</v>
+        <v>41.30524062639703</v>
       </c>
       <c r="H25">
-        <v>4.159302163491567</v>
+        <v>3.928761438098297</v>
       </c>
       <c r="I25">
-        <v>4.485097403616047</v>
+        <v>4.211268408202479</v>
       </c>
       <c r="J25">
-        <v>14.23017327689271</v>
+        <v>13.33382354043639</v>
       </c>
       <c r="K25">
-        <v>23.05260829012822</v>
+        <v>21.26473396578342</v>
       </c>
       <c r="L25">
-        <v>4.607302725380539</v>
+        <v>16.0910452575577</v>
       </c>
       <c r="M25">
-        <v>12.80968287830003</v>
+        <v>15.40608680109549</v>
       </c>
       <c r="N25">
-        <v>7.547703015233719</v>
+        <v>4.622104388830608</v>
       </c>
       <c r="O25">
-        <v>11.85882328846211</v>
+        <v>12.5496111675903</v>
       </c>
       <c r="P25">
-        <v>15.7798282016224</v>
+        <v>7.830987105102705</v>
       </c>
       <c r="Q25">
+        <v>11.61175400218209</v>
+      </c>
+      <c r="R25">
+        <v>15.15883318039481</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
